--- a/Prospects/HomeSend/Siena Transaction Generator/BASE/Case 3 - WIP.xlsx
+++ b/Prospects/HomeSend/Siena Transaction Generator/BASE/Case 3 - WIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtownsend\Documents\GitHub\ebSiena-DemoSystemData\Prospects\HomeSend\Siena Transaction Generator\BASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5688EBBC-328B-4473-AC5D-45C23E947AB2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95E1300-3AF0-4221-930B-7BD04A469DAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{D1451B8F-1010-43E5-88D1-53501612A4E1}"/>
   </bookViews>
@@ -1039,6 +1039,7 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1066,7 +1067,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent3" xfId="5" builtinId="37"/>
@@ -1583,31 +1583,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="132" t="s">
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="132" t="s">
+      <c r="G1" s="134"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="132" t="s">
+      <c r="J1" s="134"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="133"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="132" t="s">
+      <c r="M1" s="134"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="134"/>
+      <c r="P1" s="135"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2126,7 +2126,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="135">
+      <c r="A2" s="136">
         <v>0.34027777777777773</v>
       </c>
       <c r="B2" s="54" t="s">
@@ -2139,7 +2139,7 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="136"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="56" t="s">
         <v>2</v>
       </c>
@@ -2162,7 +2162,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="57" t="s">
         <v>18</v>
       </c>
@@ -2185,7 +2185,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="57" t="s">
         <v>19</v>
       </c>
@@ -2196,7 +2196,7 @@
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="56" t="s">
         <v>20</v>
       </c>
@@ -2219,7 +2219,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="136"/>
+      <c r="A7" s="137"/>
       <c r="B7" s="57" t="s">
         <v>18</v>
       </c>
@@ -2230,7 +2230,7 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="136"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="57" t="s">
         <v>19</v>
       </c>
@@ -2253,7 +2253,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="56" t="s">
         <v>3</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="136"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="57" t="s">
         <v>18</v>
       </c>
@@ -2275,7 +2275,7 @@
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="136"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="57" t="s">
         <v>19</v>
       </c>
@@ -2286,7 +2286,7 @@
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="136"/>
+      <c r="A12" s="137"/>
       <c r="B12" s="56" t="s">
         <v>21</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="136"/>
+      <c r="A13" s="137"/>
       <c r="B13" s="57" t="s">
         <v>18</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="136"/>
+      <c r="A14" s="137"/>
       <c r="B14" s="57" t="s">
         <v>19</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="136"/>
+      <c r="A15" s="137"/>
       <c r="B15" s="56" t="s">
         <v>4</v>
       </c>
@@ -2330,7 +2330,7 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="136"/>
+      <c r="A16" s="137"/>
       <c r="B16" s="57" t="s">
         <v>18</v>
       </c>
@@ -2341,7 +2341,7 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="136"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="57" t="s">
         <v>19</v>
       </c>
@@ -2352,7 +2352,7 @@
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="136"/>
+      <c r="A18" s="137"/>
       <c r="B18" s="58" t="s">
         <v>22</v>
       </c>
@@ -2375,7 +2375,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="136"/>
+      <c r="A19" s="137"/>
       <c r="B19" s="59" t="s">
         <v>23</v>
       </c>
@@ -2398,7 +2398,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="137"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="60" t="s">
         <v>24</v>
       </c>
@@ -2421,7 +2421,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="135">
+      <c r="A21" s="136">
         <v>0.38194444444444442</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -2434,7 +2434,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="136"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="56" t="s">
         <v>2</v>
       </c>
@@ -2457,7 +2457,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="136"/>
+      <c r="A23" s="137"/>
       <c r="B23" s="57" t="s">
         <v>18</v>
       </c>
@@ -2480,7 +2480,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="136"/>
+      <c r="A24" s="137"/>
       <c r="B24" s="57" t="s">
         <v>19</v>
       </c>
@@ -2491,7 +2491,7 @@
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="136"/>
+      <c r="A25" s="137"/>
       <c r="B25" s="56" t="s">
         <v>20</v>
       </c>
@@ -2514,7 +2514,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="136"/>
+      <c r="A26" s="137"/>
       <c r="B26" s="57" t="s">
         <v>18</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="136"/>
+      <c r="A27" s="137"/>
       <c r="B27" s="57" t="s">
         <v>19</v>
       </c>
@@ -2548,7 +2548,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="136"/>
+      <c r="A28" s="137"/>
       <c r="B28" s="66" t="s">
         <v>28</v>
       </c>
@@ -2565,7 +2565,7 @@
       <c r="G28" s="82"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="136"/>
+      <c r="A29" s="137"/>
       <c r="B29" s="56" t="s">
         <v>3</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="136"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="57" t="s">
         <v>18</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="136"/>
+      <c r="A31" s="137"/>
       <c r="B31" s="57" t="s">
         <v>19</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="136"/>
+      <c r="A32" s="137"/>
       <c r="B32" s="56" t="s">
         <v>21</v>
       </c>
@@ -2609,7 +2609,7 @@
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="136"/>
+      <c r="A33" s="137"/>
       <c r="B33" s="57" t="s">
         <v>18</v>
       </c>
@@ -2620,7 +2620,7 @@
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="136"/>
+      <c r="A34" s="137"/>
       <c r="B34" s="57" t="s">
         <v>19</v>
       </c>
@@ -2631,7 +2631,7 @@
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="136"/>
+      <c r="A35" s="137"/>
       <c r="B35" s="56" t="s">
         <v>4</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="136"/>
+      <c r="A36" s="137"/>
       <c r="B36" s="57" t="s">
         <v>18</v>
       </c>
@@ -2653,7 +2653,7 @@
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="136"/>
+      <c r="A37" s="137"/>
       <c r="B37" s="57" t="s">
         <v>19</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="136"/>
+      <c r="A38" s="137"/>
       <c r="B38" s="58" t="s">
         <v>22</v>
       </c>
@@ -2687,7 +2687,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="136"/>
+      <c r="A39" s="137"/>
       <c r="B39" s="59" t="s">
         <v>23</v>
       </c>
@@ -2710,7 +2710,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="137"/>
+      <c r="A40" s="138"/>
       <c r="B40" s="60" t="s">
         <v>24</v>
       </c>
@@ -2747,8 +2747,8 @@
   <sheetPr codeName="Sheet4" filterMode="1"/>
   <dimension ref="A1:AZ66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N66" sqref="N18:AE66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2758,7 +2758,7 @@
     <col min="3" max="3" width="16.28515625" style="93" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="93" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="93" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="138" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="129" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="93" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.140625" style="93" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="93" bestFit="1" customWidth="1"/>
@@ -2821,7 +2821,7 @@
       <c r="E1" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="138" t="s">
+      <c r="F1" s="129" t="s">
         <v>88</v>
       </c>
       <c r="G1" s="93" t="s">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="N2" s="90" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>57cb8428-3e20-a09d-2534-d0132bb8a22f-002</v>
+        <v>a49cebfe-50ef-1f76-3cce-6e53e7fa860a-002</v>
       </c>
       <c r="O2" s="90" t="str">
         <f>LEFT(LEFT(W2,3)&amp;"."&amp;SUBSTITUTE(Y2,"-","")&amp;"."&amp;U2&amp;"0000000000000",20)</f>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="Q2" s="90" t="str">
         <f ca="1">N2</f>
-        <v>57cb8428-3e20-a09d-2534-d0132bb8a22f-002</v>
+        <v>a49cebfe-50ef-1f76-3cce-6e53e7fa860a-002</v>
       </c>
       <c r="R2" s="93">
         <v>1</v>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="AC2" s="90" t="str">
         <f t="shared" ref="AC2:AC33" ca="1" si="1">UPPER(LEFT(U2&amp;SUBSTITUTE(N2,"-",""),20))</f>
-        <v>CS57CB84283E20A09D25</v>
+        <v>CSA49CEBFE50EF1F763C</v>
       </c>
       <c r="AD2" s="91" t="s">
         <v>94</v>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="AI2" s="103" t="str">
         <f t="shared" ref="AI2:AI33" ca="1" si="2">N2</f>
-        <v>57cb8428-3e20-a09d-2534-d0132bb8a22f-002</v>
+        <v>a49cebfe-50ef-1f76-3cce-6e53e7fa860a-002</v>
       </c>
       <c r="AJ2" s="104" t="str">
         <f t="shared" ref="AJ2:AJ34" si="3">P2</f>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="AK2" s="103" t="str">
         <f t="shared" ref="AK2:AK34" ca="1" si="4">Q2</f>
-        <v>57cb8428-3e20-a09d-2534-d0132bb8a22f-002</v>
+        <v>a49cebfe-50ef-1f76-3cce-6e53e7fa860a-002</v>
       </c>
       <c r="AL2" s="104">
         <f t="shared" ref="AL2:AL34" si="5">R2</f>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="AZ2" s="103" t="str">
         <f t="shared" ref="AZ2" ca="1" si="15">AC2</f>
-        <v>CS57CB84283E20A09D25</v>
+        <v>CSA49CEBFE50EF1F763C</v>
       </c>
     </row>
     <row r="3" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="N3" s="90" t="str">
         <f t="shared" ref="N3:N66" ca="1" si="19">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>a41532a7-2db7-7815-91ab-65df714a3050-003</v>
+        <v>68cc7ab0-4563-45f4-86e4-2b6eed3b6e41-003</v>
       </c>
       <c r="O3" s="90" t="str">
         <f t="shared" ref="O3:O66" si="20">LEFT(LEFT(W3,3)&amp;"."&amp;SUBSTITUTE(Y3,"-","")&amp;"."&amp;U3&amp;"0000000000000",20)</f>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="Q3" s="93" t="str">
         <f t="shared" ref="Q3" ca="1" si="22">N3</f>
-        <v>a41532a7-2db7-7815-91ab-65df714a3050-003</v>
+        <v>68cc7ab0-4563-45f4-86e4-2b6eed3b6e41-003</v>
       </c>
       <c r="R3" s="93">
         <f>R2</f>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="AC3" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSA41532A72DB7781591</v>
+        <v>CS68CC7AB0456345F486</v>
       </c>
       <c r="AD3" s="91" t="s">
         <v>94</v>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="AI3" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>a41532a7-2db7-7815-91ab-65df714a3050-003</v>
+        <v>68cc7ab0-4563-45f4-86e4-2b6eed3b6e41-003</v>
       </c>
       <c r="AJ3" s="104" t="str">
         <f t="shared" si="3"/>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="AK3" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>a41532a7-2db7-7815-91ab-65df714a3050-003</v>
+        <v>68cc7ab0-4563-45f4-86e4-2b6eed3b6e41-003</v>
       </c>
       <c r="AL3" s="104">
         <f t="shared" si="5"/>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="AZ3" s="103" t="str">
         <f t="shared" ref="AZ3:AZ18" ca="1" si="30">AC3</f>
-        <v>CSA41532A72DB7781591</v>
+        <v>CS68CC7AB0456345F486</v>
       </c>
     </row>
     <row r="4" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="N4" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>7021a3e1-02cb-3b5b-0254-95ee485301c7-004</v>
+        <v>6bfa5800-607e-28d5-6075-98f1da7c04f2-004</v>
       </c>
       <c r="O4" s="90" t="str">
         <f t="shared" si="20"/>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="Q4" s="93" t="str">
         <f t="shared" ref="Q4:Q17" ca="1" si="32">N4</f>
-        <v>7021a3e1-02cb-3b5b-0254-95ee485301c7-004</v>
+        <v>6bfa5800-607e-28d5-6075-98f1da7c04f2-004</v>
       </c>
       <c r="R4" s="93">
         <f t="shared" ref="R4:R33" si="33">R3</f>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="AC4" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS7021A3E102CB3B5B02</v>
+        <v>CS6BFA5800607E28D560</v>
       </c>
       <c r="AD4" s="91" t="s">
         <v>94</v>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="AI4" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7021a3e1-02cb-3b5b-0254-95ee485301c7-004</v>
+        <v>6bfa5800-607e-28d5-6075-98f1da7c04f2-004</v>
       </c>
       <c r="AJ4" s="104" t="str">
         <f t="shared" si="3"/>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="AK4" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>7021a3e1-02cb-3b5b-0254-95ee485301c7-004</v>
+        <v>6bfa5800-607e-28d5-6075-98f1da7c04f2-004</v>
       </c>
       <c r="AL4" s="104">
         <f t="shared" si="5"/>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="AZ4" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS7021A3E102CB3B5B02</v>
+        <v>CS6BFA5800607E28D560</v>
       </c>
     </row>
     <row r="5" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="N5" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>baa13ca6-2a5d-59b8-0458-1a7fc9298043-005</v>
+        <v>26d62b42-1293-6f02-6a0d-bdb6b8111c92-005</v>
       </c>
       <c r="O5" s="90" t="str">
         <f t="shared" si="20"/>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="Q5" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>baa13ca6-2a5d-59b8-0458-1a7fc9298043-005</v>
+        <v>26d62b42-1293-6f02-6a0d-bdb6b8111c92-005</v>
       </c>
       <c r="R5" s="93">
         <f t="shared" si="33"/>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="AC5" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSBAA13CA62A5D59B804</v>
+        <v>CS26D62B4212936F026A</v>
       </c>
       <c r="AD5" s="91" t="s">
         <v>94</v>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="AI5" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>baa13ca6-2a5d-59b8-0458-1a7fc9298043-005</v>
+        <v>26d62b42-1293-6f02-6a0d-bdb6b8111c92-005</v>
       </c>
       <c r="AJ5" s="104" t="str">
         <f t="shared" si="3"/>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="AK5" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>baa13ca6-2a5d-59b8-0458-1a7fc9298043-005</v>
+        <v>26d62b42-1293-6f02-6a0d-bdb6b8111c92-005</v>
       </c>
       <c r="AL5" s="104">
         <f t="shared" si="5"/>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="AZ5" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CSBAA13CA62A5D59B804</v>
+        <v>CS26D62B4212936F026A</v>
       </c>
     </row>
     <row r="6" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="N6" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>946092df-702e-8dba-9954-402070a19350-006</v>
+        <v>6837c7a5-7f2b-a41a-17af-14e0aa0a7239-006</v>
       </c>
       <c r="O6" s="90" t="str">
         <f t="shared" si="20"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="Q6" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>946092df-702e-8dba-9954-402070a19350-006</v>
+        <v>6837c7a5-7f2b-a41a-17af-14e0aa0a7239-006</v>
       </c>
       <c r="R6" s="93">
         <f t="shared" si="33"/>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="AC6" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS946092DF702E8DBA99</v>
+        <v>CS6837C7A57F2BA41A17</v>
       </c>
       <c r="AD6" s="91" t="s">
         <v>94</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="AI6" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>946092df-702e-8dba-9954-402070a19350-006</v>
+        <v>6837c7a5-7f2b-a41a-17af-14e0aa0a7239-006</v>
       </c>
       <c r="AJ6" s="104" t="str">
         <f t="shared" si="3"/>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="AK6" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>946092df-702e-8dba-9954-402070a19350-006</v>
+        <v>6837c7a5-7f2b-a41a-17af-14e0aa0a7239-006</v>
       </c>
       <c r="AL6" s="104">
         <f t="shared" si="5"/>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="AZ6" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS946092DF702E8DBA99</v>
+        <v>CS6837C7A57F2BA41A17</v>
       </c>
     </row>
     <row r="7" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="N7" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>0cd37170-9374-66d9-3c07-9e055a2e9c38-007</v>
+        <v>558fdc4c-51b7-1ff8-809e-77a253d99d4c-007</v>
       </c>
       <c r="O7" s="90" t="str">
         <f t="shared" si="20"/>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="Q7" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>0cd37170-9374-66d9-3c07-9e055a2e9c38-007</v>
+        <v>558fdc4c-51b7-1ff8-809e-77a253d99d4c-007</v>
       </c>
       <c r="R7" s="93">
         <f t="shared" si="33"/>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="AC7" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS0CD37170937466D93C</v>
+        <v>CS558FDC4C51B71FF880</v>
       </c>
       <c r="AD7" s="91" t="s">
         <v>94</v>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="AI7" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0cd37170-9374-66d9-3c07-9e055a2e9c38-007</v>
+        <v>558fdc4c-51b7-1ff8-809e-77a253d99d4c-007</v>
       </c>
       <c r="AJ7" s="104" t="str">
         <f t="shared" si="3"/>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="AK7" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0cd37170-9374-66d9-3c07-9e055a2e9c38-007</v>
+        <v>558fdc4c-51b7-1ff8-809e-77a253d99d4c-007</v>
       </c>
       <c r="AL7" s="104">
         <f t="shared" si="5"/>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="AZ7" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS0CD37170937466D93C</v>
+        <v>CS558FDC4C51B71FF880</v>
       </c>
     </row>
     <row r="8" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="N8" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>6f5ed84b-515c-a424-466f-13855d788849-008</v>
+        <v>d1498d17-2bc4-3e71-4c1d-12f1ca7512a3-008</v>
       </c>
       <c r="O8" s="90" t="str">
         <f t="shared" si="20"/>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="Q8" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>6f5ed84b-515c-a424-466f-13855d788849-008</v>
+        <v>d1498d17-2bc4-3e71-4c1d-12f1ca7512a3-008</v>
       </c>
       <c r="R8" s="93">
         <f t="shared" si="33"/>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="AC8" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS6F5ED84B515CA42446</v>
+        <v>CSD1498D172BC43E714C</v>
       </c>
       <c r="AD8" s="91" t="s">
         <v>94</v>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="AI8" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>6f5ed84b-515c-a424-466f-13855d788849-008</v>
+        <v>d1498d17-2bc4-3e71-4c1d-12f1ca7512a3-008</v>
       </c>
       <c r="AJ8" s="104" t="str">
         <f t="shared" si="3"/>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="AK8" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>6f5ed84b-515c-a424-466f-13855d788849-008</v>
+        <v>d1498d17-2bc4-3e71-4c1d-12f1ca7512a3-008</v>
       </c>
       <c r="AL8" s="104">
         <f t="shared" si="5"/>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="AZ8" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS6F5ED84B515CA42446</v>
+        <v>CSD1498D172BC43E714C</v>
       </c>
     </row>
     <row r="9" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="N9" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>276ff444-555b-3b35-3cc3-a2ffc9645360-009</v>
+        <v>569a4158-543d-9986-4258-299a33603d8d-009</v>
       </c>
       <c r="O9" s="90" t="str">
         <f t="shared" si="20"/>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="Q9" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>276ff444-555b-3b35-3cc3-a2ffc9645360-009</v>
+        <v>569a4158-543d-9986-4258-299a33603d8d-009</v>
       </c>
       <c r="R9" s="93">
         <f t="shared" si="33"/>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="AC9" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS276FF444555B3B353C</v>
+        <v>CS569A4158543D998642</v>
       </c>
       <c r="AD9" s="91" t="s">
         <v>94</v>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="AI9" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>276ff444-555b-3b35-3cc3-a2ffc9645360-009</v>
+        <v>569a4158-543d-9986-4258-299a33603d8d-009</v>
       </c>
       <c r="AJ9" s="104" t="str">
         <f t="shared" si="3"/>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="AK9" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>276ff444-555b-3b35-3cc3-a2ffc9645360-009</v>
+        <v>569a4158-543d-9986-4258-299a33603d8d-009</v>
       </c>
       <c r="AL9" s="104">
         <f t="shared" si="5"/>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="AZ9" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS276FF444555B3B353C</v>
+        <v>CS569A4158543D998642</v>
       </c>
     </row>
     <row r="10" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="N10" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>903c7fa1-4426-7840-3218-c6b0e15a0c4f-010</v>
+        <v>9dbcfb11-5ecd-7f75-6bfc-c886e5398f11-010</v>
       </c>
       <c r="O10" s="90" t="str">
         <f t="shared" si="20"/>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="Q10" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>903c7fa1-4426-7840-3218-c6b0e15a0c4f-010</v>
+        <v>9dbcfb11-5ecd-7f75-6bfc-c886e5398f11-010</v>
       </c>
       <c r="R10" s="93">
         <f t="shared" si="33"/>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="AC10" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS903C7FA14426784032</v>
+        <v>CS9DBCFB115ECD7F756B</v>
       </c>
       <c r="AD10" s="91" t="s">
         <v>94</v>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="AI10" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>903c7fa1-4426-7840-3218-c6b0e15a0c4f-010</v>
+        <v>9dbcfb11-5ecd-7f75-6bfc-c886e5398f11-010</v>
       </c>
       <c r="AJ10" s="104" t="str">
         <f t="shared" si="3"/>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AK10" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>903c7fa1-4426-7840-3218-c6b0e15a0c4f-010</v>
+        <v>9dbcfb11-5ecd-7f75-6bfc-c886e5398f11-010</v>
       </c>
       <c r="AL10" s="104">
         <f t="shared" si="5"/>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="AZ10" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS903C7FA14426784032</v>
+        <v>CS9DBCFB115ECD7F756B</v>
       </c>
     </row>
     <row r="11" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="N11" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>ed0e3743-9a50-4151-7506-9232b35b991b-011</v>
+        <v>99b17c01-8317-9b81-764e-915c27004110-011</v>
       </c>
       <c r="O11" s="90" t="str">
         <f t="shared" si="20"/>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="Q11" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>ed0e3743-9a50-4151-7506-9232b35b991b-011</v>
+        <v>99b17c01-8317-9b81-764e-915c27004110-011</v>
       </c>
       <c r="R11" s="93">
         <f t="shared" si="33"/>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="AC11" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSED0E37439A50415175</v>
+        <v>CS99B17C0183179B8176</v>
       </c>
       <c r="AD11" s="91" t="s">
         <v>94</v>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="AI11" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ed0e3743-9a50-4151-7506-9232b35b991b-011</v>
+        <v>99b17c01-8317-9b81-764e-915c27004110-011</v>
       </c>
       <c r="AJ11" s="104" t="str">
         <f t="shared" si="3"/>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="AK11" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ed0e3743-9a50-4151-7506-9232b35b991b-011</v>
+        <v>99b17c01-8317-9b81-764e-915c27004110-011</v>
       </c>
       <c r="AL11" s="104">
         <f t="shared" si="5"/>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="AZ11" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CSED0E37439A50415175</v>
+        <v>CS99B17C0183179B8176</v>
       </c>
     </row>
     <row r="12" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="N12" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>9336bfbf-797c-4a7a-63bc-b59285429c40-012</v>
+        <v>6d3443a6-a5e7-2e0c-8354-f57c58d27a33-012</v>
       </c>
       <c r="O12" s="90" t="str">
         <f t="shared" si="20"/>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="Q12" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>9336bfbf-797c-4a7a-63bc-b59285429c40-012</v>
+        <v>6d3443a6-a5e7-2e0c-8354-f57c58d27a33-012</v>
       </c>
       <c r="R12" s="93">
         <f t="shared" si="33"/>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="AC12" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS9336BFBF797C4A7A63</v>
+        <v>CS6D3443A6A5E72E0C83</v>
       </c>
       <c r="AD12" s="91" t="s">
         <v>94</v>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="AI12" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>9336bfbf-797c-4a7a-63bc-b59285429c40-012</v>
+        <v>6d3443a6-a5e7-2e0c-8354-f57c58d27a33-012</v>
       </c>
       <c r="AJ12" s="104" t="str">
         <f t="shared" si="3"/>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="AK12" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>9336bfbf-797c-4a7a-63bc-b59285429c40-012</v>
+        <v>6d3443a6-a5e7-2e0c-8354-f57c58d27a33-012</v>
       </c>
       <c r="AL12" s="104">
         <f t="shared" si="5"/>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="AZ12" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS9336BFBF797C4A7A63</v>
+        <v>CS6D3443A6A5E72E0C83</v>
       </c>
     </row>
     <row r="13" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="N13" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>2b69ed5e-28d3-7048-6383-e1bb8bc02b3b-013</v>
+        <v>55f71760-111e-2e9b-29aa-b0fa662b0370-013</v>
       </c>
       <c r="O13" s="90" t="str">
         <f t="shared" si="20"/>
@@ -4878,7 +4878,7 @@
       </c>
       <c r="Q13" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>2b69ed5e-28d3-7048-6383-e1bb8bc02b3b-013</v>
+        <v>55f71760-111e-2e9b-29aa-b0fa662b0370-013</v>
       </c>
       <c r="R13" s="93">
         <f t="shared" si="33"/>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="AC13" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS2B69ED5E28D3704863</v>
+        <v>CS55F71760111E2E9B29</v>
       </c>
       <c r="AD13" s="91" t="s">
         <v>94</v>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="AI13" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2b69ed5e-28d3-7048-6383-e1bb8bc02b3b-013</v>
+        <v>55f71760-111e-2e9b-29aa-b0fa662b0370-013</v>
       </c>
       <c r="AJ13" s="104" t="str">
         <f t="shared" si="3"/>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="AK13" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2b69ed5e-28d3-7048-6383-e1bb8bc02b3b-013</v>
+        <v>55f71760-111e-2e9b-29aa-b0fa662b0370-013</v>
       </c>
       <c r="AL13" s="104">
         <f t="shared" si="5"/>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="AZ13" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS2B69ED5E28D3704863</v>
+        <v>CS55F71760111E2E9B29</v>
       </c>
     </row>
     <row r="14" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="N14" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>0d6548bf-317a-1939-a12d-2697b6834f6b-014</v>
+        <v>49edd58a-a631-52fd-0a26-a760d35a551a-014</v>
       </c>
       <c r="O14" s="90" t="str">
         <f t="shared" si="20"/>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="Q14" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>0d6548bf-317a-1939-a12d-2697b6834f6b-014</v>
+        <v>49edd58a-a631-52fd-0a26-a760d35a551a-014</v>
       </c>
       <c r="R14" s="93">
         <f t="shared" si="33"/>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="AC14" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS0D6548BF317A1939A1</v>
+        <v>CS49EDD58AA63152FD0A</v>
       </c>
       <c r="AD14" s="91" t="s">
         <v>94</v>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="AI14" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0d6548bf-317a-1939-a12d-2697b6834f6b-014</v>
+        <v>49edd58a-a631-52fd-0a26-a760d35a551a-014</v>
       </c>
       <c r="AJ14" s="104" t="str">
         <f t="shared" si="3"/>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="AK14" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0d6548bf-317a-1939-a12d-2697b6834f6b-014</v>
+        <v>49edd58a-a631-52fd-0a26-a760d35a551a-014</v>
       </c>
       <c r="AL14" s="104">
         <f t="shared" si="5"/>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="AZ14" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS0D6548BF317A1939A1</v>
+        <v>CS49EDD58AA63152FD0A</v>
       </c>
     </row>
     <row r="15" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="N15" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>3ab29c73-5316-0c46-3b1f-aed285635042-015</v>
+        <v>af2b5044-1751-997a-3ee6-b1055eb58317-015</v>
       </c>
       <c r="O15" s="90" t="str">
         <f t="shared" si="20"/>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="Q15" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>3ab29c73-5316-0c46-3b1f-aed285635042-015</v>
+        <v>af2b5044-1751-997a-3ee6-b1055eb58317-015</v>
       </c>
       <c r="R15" s="93">
         <f t="shared" si="33"/>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="AC15" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS3AB29C7353160C463B</v>
+        <v>CSAF2B50441751997A3E</v>
       </c>
       <c r="AD15" s="91" t="s">
         <v>94</v>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="AI15" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>3ab29c73-5316-0c46-3b1f-aed285635042-015</v>
+        <v>af2b5044-1751-997a-3ee6-b1055eb58317-015</v>
       </c>
       <c r="AJ15" s="104" t="str">
         <f t="shared" si="3"/>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="AK15" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>3ab29c73-5316-0c46-3b1f-aed285635042-015</v>
+        <v>af2b5044-1751-997a-3ee6-b1055eb58317-015</v>
       </c>
       <c r="AL15" s="104">
         <f t="shared" si="5"/>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="AZ15" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS3AB29C7353160C463B</v>
+        <v>CSAF2B50441751997A3E</v>
       </c>
     </row>
     <row r="16" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="N16" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>4eddec6d-5e34-41eb-63e0-f119f7d15d2d-016</v>
+        <v>db63dd93-47da-48bc-5016-27b13a1c83de-016</v>
       </c>
       <c r="O16" s="90" t="str">
         <f t="shared" si="20"/>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="Q16" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>4eddec6d-5e34-41eb-63e0-f119f7d15d2d-016</v>
+        <v>db63dd93-47da-48bc-5016-27b13a1c83de-016</v>
       </c>
       <c r="R16" s="93">
         <f t="shared" si="33"/>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="AC16" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS4EDDEC6D5E3441EB63</v>
+        <v>CSDB63DD9347DA48BC50</v>
       </c>
       <c r="AD16" s="91" t="s">
         <v>94</v>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="AI16" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>4eddec6d-5e34-41eb-63e0-f119f7d15d2d-016</v>
+        <v>db63dd93-47da-48bc-5016-27b13a1c83de-016</v>
       </c>
       <c r="AJ16" s="104" t="str">
         <f t="shared" si="3"/>
@@ -5452,7 +5452,7 @@
       </c>
       <c r="AK16" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>4eddec6d-5e34-41eb-63e0-f119f7d15d2d-016</v>
+        <v>db63dd93-47da-48bc-5016-27b13a1c83de-016</v>
       </c>
       <c r="AL16" s="104">
         <f t="shared" si="5"/>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="AZ16" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS4EDDEC6D5E3441EB63</v>
+        <v>CSDB63DD9347DA48BC50</v>
       </c>
     </row>
     <row r="17" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="N17" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>a6ca8184-1a79-699e-147c-51d6d06a43f9-017</v>
+        <v>470b23f3-846f-2d49-7ac3-5dd634a704d3-017</v>
       </c>
       <c r="O17" s="90" t="str">
         <f t="shared" si="20"/>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="Q17" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>a6ca8184-1a79-699e-147c-51d6d06a43f9-017</v>
+        <v>470b23f3-846f-2d49-7ac3-5dd634a704d3-017</v>
       </c>
       <c r="R17" s="93">
         <f t="shared" si="33"/>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="AC17" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSA6CA81841A79699E14</v>
+        <v>CS470B23F3846F2D497A</v>
       </c>
       <c r="AD17" s="91" t="s">
         <v>94</v>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="AI17" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>a6ca8184-1a79-699e-147c-51d6d06a43f9-017</v>
+        <v>470b23f3-846f-2d49-7ac3-5dd634a704d3-017</v>
       </c>
       <c r="AJ17" s="104" t="str">
         <f t="shared" si="3"/>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="AK17" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>a6ca8184-1a79-699e-147c-51d6d06a43f9-017</v>
+        <v>470b23f3-846f-2d49-7ac3-5dd634a704d3-017</v>
       </c>
       <c r="AL17" s="104">
         <f t="shared" si="5"/>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="AZ17" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CSA6CA81841A79699E14</v>
+        <v>CS470B23F3846F2D497A</v>
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
@@ -5701,7 +5701,7 @@
       <c r="E18" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="138">
+      <c r="F18" s="129">
         <f t="shared" si="17"/>
         <v>-172.43937500000001</v>
       </c>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="N18" s="90" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>27380c88-31b6-0d78-7176-5b225e550167-018</v>
+        <v>39d85643-8c59-10f8-64b9-f89fb0638b21-018</v>
       </c>
       <c r="O18" s="90" t="str">
         <f t="shared" si="20"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="Q18" s="90" t="str">
         <f ca="1">N18</f>
-        <v>27380c88-31b6-0d78-7176-5b225e550167-018</v>
+        <v>39d85643-8c59-10f8-64b9-f89fb0638b21-018</v>
       </c>
       <c r="R18" s="93">
         <f t="shared" si="33"/>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="AC18" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS27380C8831B60D7871</v>
+        <v>CS39D856438C5910F864</v>
       </c>
       <c r="AD18" s="91" t="s">
         <v>94</v>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="AI18" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>27380c88-31b6-0d78-7176-5b225e550167-018</v>
+        <v>39d85643-8c59-10f8-64b9-f89fb0638b21-018</v>
       </c>
       <c r="AJ18" s="104" t="str">
         <f t="shared" si="3"/>
@@ -5798,7 +5798,7 @@
       </c>
       <c r="AK18" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>27380c88-31b6-0d78-7176-5b225e550167-018</v>
+        <v>39d85643-8c59-10f8-64b9-f89fb0638b21-018</v>
       </c>
       <c r="AL18" s="104">
         <f t="shared" si="5"/>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="AZ18" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS27380C8831B60D7871</v>
+        <v>CS39D856438C5910F864</v>
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
@@ -5873,7 +5873,7 @@
       <c r="E19" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="138">
+      <c r="F19" s="129">
         <f t="shared" si="17"/>
         <v>-3448.7925000000005</v>
       </c>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="N19" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>29317f95-3413-811f-6be8-e1601506a779-019</v>
+        <v>f23c1417-4419-665b-1d5e-55b567d25a00-019</v>
       </c>
       <c r="O19" s="90" t="str">
         <f t="shared" si="20"/>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="Q19" s="93" t="str">
         <f t="shared" ref="Q19:Q33" ca="1" si="39">N19</f>
-        <v>29317f95-3413-811f-6be8-e1601506a779-019</v>
+        <v>f23c1417-4419-665b-1d5e-55b567d25a00-019</v>
       </c>
       <c r="R19" s="93">
         <f t="shared" si="33"/>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="AC19" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS29317F953413811F6B</v>
+        <v>CSF23C14174419665B1D</v>
       </c>
       <c r="AD19" s="91" t="s">
         <v>94</v>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="AI19" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>29317f95-3413-811f-6be8-e1601506a779-019</v>
+        <v>f23c1417-4419-665b-1d5e-55b567d25a00-019</v>
       </c>
       <c r="AJ19" s="104" t="str">
         <f t="shared" si="3"/>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="AK19" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>29317f95-3413-811f-6be8-e1601506a779-019</v>
+        <v>f23c1417-4419-665b-1d5e-55b567d25a00-019</v>
       </c>
       <c r="AL19" s="104">
         <f t="shared" si="5"/>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="AZ19" s="103" t="str">
         <f t="shared" ref="AZ19:AZ33" ca="1" si="44">AC19</f>
-        <v>CS29317F953413811F6B</v>
+        <v>CSF23C14174419665B1D</v>
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
@@ -6043,7 +6043,7 @@
       <c r="E20" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="138">
+      <c r="F20" s="129">
         <f t="shared" si="17"/>
         <v>-2069.2485000000001</v>
       </c>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="N20" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>12fe8d08-3603-3b00-91fb-47ca832e42c1-020</v>
+        <v>2867f7bf-4c21-60ac-261a-109c192a2705-020</v>
       </c>
       <c r="O20" s="90" t="str">
         <f t="shared" si="20"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="Q20" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>12fe8d08-3603-3b00-91fb-47ca832e42c1-020</v>
+        <v>2867f7bf-4c21-60ac-261a-109c192a2705-020</v>
       </c>
       <c r="R20" s="93">
         <f t="shared" si="33"/>
@@ -6120,7 +6120,7 @@
       </c>
       <c r="AC20" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS12FE8D0836033B0091</v>
+        <v>CS2867F7BF4C2160AC26</v>
       </c>
       <c r="AD20" s="91" t="s">
         <v>94</v>
@@ -6130,7 +6130,7 @@
       </c>
       <c r="AI20" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>12fe8d08-3603-3b00-91fb-47ca832e42c1-020</v>
+        <v>2867f7bf-4c21-60ac-261a-109c192a2705-020</v>
       </c>
       <c r="AJ20" s="104" t="str">
         <f t="shared" si="3"/>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="AK20" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>12fe8d08-3603-3b00-91fb-47ca832e42c1-020</v>
+        <v>2867f7bf-4c21-60ac-261a-109c192a2705-020</v>
       </c>
       <c r="AL20" s="104">
         <f t="shared" si="5"/>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="AZ20" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CS12FE8D0836033B0091</v>
+        <v>CS2867F7BF4C2160AC26</v>
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
@@ -6213,7 +6213,7 @@
       <c r="E21" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="138">
+      <c r="F21" s="129">
         <f t="shared" si="17"/>
         <v>-485.52662400000003</v>
       </c>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="N21" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>8425eae4-2775-8079-8c0e-8ce20ad506c5-021</v>
+        <v>f479faad-4a80-63f8-9183-f608f54a103c-021</v>
       </c>
       <c r="O21" s="90" t="str">
         <f t="shared" si="20"/>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="Q21" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>8425eae4-2775-8079-8c0e-8ce20ad506c5-021</v>
+        <v>f479faad-4a80-63f8-9183-f608f54a103c-021</v>
       </c>
       <c r="R21" s="93">
         <f t="shared" si="33"/>
@@ -6290,7 +6290,7 @@
       </c>
       <c r="AC21" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS8425EAE4277580798C</v>
+        <v>CSF479FAAD4A8063F891</v>
       </c>
       <c r="AD21" s="91" t="s">
         <v>94</v>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="AI21" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>8425eae4-2775-8079-8c0e-8ce20ad506c5-021</v>
+        <v>f479faad-4a80-63f8-9183-f608f54a103c-021</v>
       </c>
       <c r="AJ21" s="104" t="str">
         <f t="shared" si="3"/>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="AK21" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>8425eae4-2775-8079-8c0e-8ce20ad506c5-021</v>
+        <v>f479faad-4a80-63f8-9183-f608f54a103c-021</v>
       </c>
       <c r="AL21" s="104">
         <f t="shared" si="5"/>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="AZ21" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CS8425EAE4277580798C</v>
+        <v>CSF479FAAD4A8063F891</v>
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
@@ -6383,7 +6383,7 @@
       <c r="E22" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="138">
+      <c r="F22" s="129">
         <f t="shared" si="17"/>
         <v>-1165.179795</v>
       </c>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="N22" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>fe950c68-97d0-a40c-8d63-4fcf99ef234f-022</v>
+        <v>c30ef92c-5848-59b2-8f73-9f80c4011bdc-022</v>
       </c>
       <c r="O22" s="90" t="str">
         <f t="shared" si="20"/>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="Q22" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>fe950c68-97d0-a40c-8d63-4fcf99ef234f-022</v>
+        <v>c30ef92c-5848-59b2-8f73-9f80c4011bdc-022</v>
       </c>
       <c r="R22" s="93">
         <f t="shared" si="33"/>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="AC22" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSFE950C6897D0A40C8D</v>
+        <v>CSC30EF92C584859B28F</v>
       </c>
       <c r="AD22" s="91" t="s">
         <v>94</v>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="AI22" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>fe950c68-97d0-a40c-8d63-4fcf99ef234f-022</v>
+        <v>c30ef92c-5848-59b2-8f73-9f80c4011bdc-022</v>
       </c>
       <c r="AJ22" s="104" t="str">
         <f t="shared" si="3"/>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="AK22" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>fe950c68-97d0-a40c-8d63-4fcf99ef234f-022</v>
+        <v>c30ef92c-5848-59b2-8f73-9f80c4011bdc-022</v>
       </c>
       <c r="AL22" s="104">
         <f t="shared" si="5"/>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="AZ22" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CSFE950C6897D0A40C8D</v>
+        <v>CSC30EF92C584859B28F</v>
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
@@ -6553,7 +6553,7 @@
       <c r="E23" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="138">
+      <c r="F23" s="129">
         <f t="shared" si="17"/>
         <v>-21002.6260014</v>
       </c>
@@ -6572,7 +6572,7 @@
       </c>
       <c r="N23" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>916f1f31-233f-8437-6dd1-8252e34e3e4c-023</v>
+        <v>1e27a1fe-2c0d-5478-66e6-5cc048e44116-023</v>
       </c>
       <c r="O23" s="90" t="str">
         <f t="shared" si="20"/>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="Q23" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>916f1f31-233f-8437-6dd1-8252e34e3e4c-023</v>
+        <v>1e27a1fe-2c0d-5478-66e6-5cc048e44116-023</v>
       </c>
       <c r="R23" s="93">
         <f t="shared" si="33"/>
@@ -6630,7 +6630,7 @@
       </c>
       <c r="AC23" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS916F1F31233F84376D</v>
+        <v>CS1E27A1FE2C0D547866</v>
       </c>
       <c r="AD23" s="91" t="s">
         <v>94</v>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="AI23" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>916f1f31-233f-8437-6dd1-8252e34e3e4c-023</v>
+        <v>1e27a1fe-2c0d-5478-66e6-5cc048e44116-023</v>
       </c>
       <c r="AJ23" s="104" t="str">
         <f t="shared" si="3"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="AK23" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>916f1f31-233f-8437-6dd1-8252e34e3e4c-023</v>
+        <v>1e27a1fe-2c0d-5478-66e6-5cc048e44116-023</v>
       </c>
       <c r="AL23" s="104">
         <f t="shared" si="5"/>
@@ -6703,10 +6703,10 @@
       </c>
       <c r="AZ23" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CS916F1F31233F84376D</v>
+        <v>CS1E27A1FE2C0D547866</v>
       </c>
     </row>
-    <row r="24" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="99">
         <f t="shared" si="37"/>
         <v>0.34027777777777773</v>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="N24" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>b4962019-64e3-6229-446c-2dee50632eed-024</v>
+        <v>2bd175f1-53f4-129c-6701-e75f432b8600-024</v>
       </c>
       <c r="O24" s="90" t="str">
         <f t="shared" si="20"/>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="Q24" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>b4962019-64e3-6229-446c-2dee50632eed-024</v>
+        <v>2bd175f1-53f4-129c-6701-e75f432b8600-024</v>
       </c>
       <c r="R24" s="93">
         <f t="shared" si="33"/>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="AC24" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSB496201964E3622944</v>
+        <v>CS2BD175F153F4129C67</v>
       </c>
       <c r="AD24" s="91" t="s">
         <v>94</v>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="AI24" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>b4962019-64e3-6229-446c-2dee50632eed-024</v>
+        <v>2bd175f1-53f4-129c-6701-e75f432b8600-024</v>
       </c>
       <c r="AJ24" s="104" t="str">
         <f t="shared" si="3"/>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="AK24" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>b4962019-64e3-6229-446c-2dee50632eed-024</v>
+        <v>2bd175f1-53f4-129c-6701-e75f432b8600-024</v>
       </c>
       <c r="AL24" s="104">
         <f t="shared" si="5"/>
@@ -6873,7 +6873,7 @@
       </c>
       <c r="AZ24" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CSB496201964E3622944</v>
+        <v>CS2BD175F153F4129C67</v>
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
@@ -6893,7 +6893,7 @@
       <c r="E25" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="138">
+      <c r="F25" s="129">
         <f t="shared" si="17"/>
         <v>-985.84242899999992</v>
       </c>
@@ -6912,7 +6912,7 @@
       </c>
       <c r="N25" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>7a7480ba-2522-827f-419f-70e2beb469b6-025</v>
+        <v>1450a2b2-7d83-3f73-0aa4-09ea7b8367e0-025</v>
       </c>
       <c r="O25" s="90" t="str">
         <f t="shared" si="20"/>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="Q25" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>7a7480ba-2522-827f-419f-70e2beb469b6-025</v>
+        <v>1450a2b2-7d83-3f73-0aa4-09ea7b8367e0-025</v>
       </c>
       <c r="R25" s="93">
         <f t="shared" si="33"/>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="AC25" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS7A7480BA2522827F41</v>
+        <v>CS1450A2B27D833F730A</v>
       </c>
       <c r="AD25" s="91" t="s">
         <v>94</v>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="AI25" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7a7480ba-2522-827f-419f-70e2beb469b6-025</v>
+        <v>1450a2b2-7d83-3f73-0aa4-09ea7b8367e0-025</v>
       </c>
       <c r="AJ25" s="104" t="str">
         <f t="shared" si="3"/>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="AK25" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>7a7480ba-2522-827f-419f-70e2beb469b6-025</v>
+        <v>1450a2b2-7d83-3f73-0aa4-09ea7b8367e0-025</v>
       </c>
       <c r="AL25" s="104">
         <f t="shared" si="5"/>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="AZ25" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CS7A7480BA2522827F41</v>
+        <v>CS1450A2B27D833F730A</v>
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
@@ -7063,7 +7063,7 @@
       <c r="E26" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="138">
+      <c r="F26" s="129">
         <f t="shared" si="17"/>
         <v>-137.86617999999999</v>
       </c>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="N26" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>5047a46c-1e08-8ec2-6545-3f931a96290c-026</v>
+        <v>08f7b09f-4423-5883-09b9-3b9995824854-026</v>
       </c>
       <c r="O26" s="90" t="str">
         <f t="shared" si="20"/>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="Q26" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>5047a46c-1e08-8ec2-6545-3f931a96290c-026</v>
+        <v>08f7b09f-4423-5883-09b9-3b9995824854-026</v>
       </c>
       <c r="R26" s="93">
         <f t="shared" si="33"/>
@@ -7140,7 +7140,7 @@
       </c>
       <c r="AC26" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS5047A46C1E088EC265</v>
+        <v>CS08F7B09F4423588309</v>
       </c>
       <c r="AD26" s="91" t="s">
         <v>94</v>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="AI26" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>5047a46c-1e08-8ec2-6545-3f931a96290c-026</v>
+        <v>08f7b09f-4423-5883-09b9-3b9995824854-026</v>
       </c>
       <c r="AJ26" s="104" t="str">
         <f t="shared" si="3"/>
@@ -7158,7 +7158,7 @@
       </c>
       <c r="AK26" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>5047a46c-1e08-8ec2-6545-3f931a96290c-026</v>
+        <v>08f7b09f-4423-5883-09b9-3b9995824854-026</v>
       </c>
       <c r="AL26" s="104">
         <f t="shared" si="5"/>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="AZ26" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CS5047A46C1E088EC265</v>
+        <v>CS08F7B09F4423588309</v>
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
@@ -7233,7 +7233,7 @@
       <c r="E27" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="138">
+      <c r="F27" s="129">
         <f t="shared" si="17"/>
         <v>-27570.46</v>
       </c>
@@ -7252,7 +7252,7 @@
       </c>
       <c r="N27" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>bab9f6c7-7a43-4e06-0521-7a091fe38568-027</v>
+        <v>bfcc5cd7-8e2d-2b22-a3cd-8db233d35afd-027</v>
       </c>
       <c r="O27" s="90" t="str">
         <f t="shared" si="20"/>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="Q27" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>bab9f6c7-7a43-4e06-0521-7a091fe38568-027</v>
+        <v>bfcc5cd7-8e2d-2b22-a3cd-8db233d35afd-027</v>
       </c>
       <c r="R27" s="93">
         <f t="shared" si="33"/>
@@ -7310,7 +7310,7 @@
       </c>
       <c r="AC27" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSBAB9F6C77A434E0605</v>
+        <v>CSBFCC5CD78E2D2B22A3</v>
       </c>
       <c r="AD27" s="91" t="s">
         <v>94</v>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="AI27" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>bab9f6c7-7a43-4e06-0521-7a091fe38568-027</v>
+        <v>bfcc5cd7-8e2d-2b22-a3cd-8db233d35afd-027</v>
       </c>
       <c r="AJ27" s="104" t="str">
         <f t="shared" si="3"/>
@@ -7328,7 +7328,7 @@
       </c>
       <c r="AK27" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>bab9f6c7-7a43-4e06-0521-7a091fe38568-027</v>
+        <v>bfcc5cd7-8e2d-2b22-a3cd-8db233d35afd-027</v>
       </c>
       <c r="AL27" s="104">
         <f t="shared" si="5"/>
@@ -7383,7 +7383,7 @@
       </c>
       <c r="AZ27" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CSBAB9F6C77A434E0605</v>
+        <v>CSBFCC5CD78E2D2B22A3</v>
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
@@ -7403,7 +7403,7 @@
       <c r="E28" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="138">
+      <c r="F28" s="129">
         <f t="shared" si="17"/>
         <v>-2067.5762999999997</v>
       </c>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="N28" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>928a932a-3468-1aaa-0214-7e310b3c00ab-028</v>
+        <v>7998e96b-3b71-5fbd-71ff-120f077aa646-028</v>
       </c>
       <c r="O28" s="90" t="str">
         <f t="shared" si="20"/>
@@ -7434,7 +7434,7 @@
       </c>
       <c r="Q28" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>928a932a-3468-1aaa-0214-7e310b3c00ab-028</v>
+        <v>7998e96b-3b71-5fbd-71ff-120f077aa646-028</v>
       </c>
       <c r="R28" s="93">
         <f t="shared" si="33"/>
@@ -7480,7 +7480,7 @@
       </c>
       <c r="AC28" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS928A932A34681AAA02</v>
+        <v>CS7998E96B3B715FBD71</v>
       </c>
       <c r="AD28" s="91" t="s">
         <v>94</v>
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AI28" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>928a932a-3468-1aaa-0214-7e310b3c00ab-028</v>
+        <v>7998e96b-3b71-5fbd-71ff-120f077aa646-028</v>
       </c>
       <c r="AJ28" s="104" t="str">
         <f t="shared" si="3"/>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="AK28" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>928a932a-3468-1aaa-0214-7e310b3c00ab-028</v>
+        <v>7998e96b-3b71-5fbd-71ff-120f077aa646-028</v>
       </c>
       <c r="AL28" s="104">
         <f t="shared" si="5"/>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="AZ28" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CS928A932A34681AAA02</v>
+        <v>CS7998E96B3B715FBD71</v>
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
@@ -7573,7 +7573,7 @@
       <c r="E29" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="138">
+      <c r="F29" s="129">
         <f t="shared" si="17"/>
         <v>-1309.33313</v>
       </c>
@@ -7592,7 +7592,7 @@
       </c>
       <c r="N29" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>2edae39a-7bef-2e25-7baa-ec327295a7b9-029</v>
+        <v>e041d60b-51ef-7212-4830-606714361cea-029</v>
       </c>
       <c r="O29" s="90" t="str">
         <f t="shared" si="20"/>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="Q29" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>2edae39a-7bef-2e25-7baa-ec327295a7b9-029</v>
+        <v>e041d60b-51ef-7212-4830-606714361cea-029</v>
       </c>
       <c r="R29" s="93">
         <f t="shared" si="33"/>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="AC29" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS2EDAE39A7BEF2E257B</v>
+        <v>CSE041D60B51EF721248</v>
       </c>
       <c r="AD29" s="91" t="s">
         <v>94</v>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="AI29" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2edae39a-7bef-2e25-7baa-ec327295a7b9-029</v>
+        <v>e041d60b-51ef-7212-4830-606714361cea-029</v>
       </c>
       <c r="AJ29" s="104" t="str">
         <f t="shared" si="3"/>
@@ -7668,7 +7668,7 @@
       </c>
       <c r="AK29" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2edae39a-7bef-2e25-7baa-ec327295a7b9-029</v>
+        <v>e041d60b-51ef-7212-4830-606714361cea-029</v>
       </c>
       <c r="AL29" s="104">
         <f t="shared" si="5"/>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="AZ29" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CS2EDAE39A7BEF2E257B</v>
+        <v>CSE041D60B51EF721248</v>
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
@@ -7743,7 +7743,7 @@
       <c r="E30" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="138">
+      <c r="F30" s="129">
         <f t="shared" si="17"/>
         <v>-1034.9580566</v>
       </c>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="N30" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>b86b487e-3789-3df8-2ab5-b01aad425128-030</v>
+        <v>d7569583-2b61-3cd4-5e81-7b7f2c000f2f-030</v>
       </c>
       <c r="O30" s="90" t="str">
         <f t="shared" si="20"/>
@@ -7774,7 +7774,7 @@
       </c>
       <c r="Q30" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>b86b487e-3789-3df8-2ab5-b01aad425128-030</v>
+        <v>d7569583-2b61-3cd4-5e81-7b7f2c000f2f-030</v>
       </c>
       <c r="R30" s="93">
         <f t="shared" si="33"/>
@@ -7820,7 +7820,7 @@
       </c>
       <c r="AC30" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSB86B487E37893DF82A</v>
+        <v>CSD75695832B613CD45E</v>
       </c>
       <c r="AD30" s="91" t="s">
         <v>94</v>
@@ -7830,7 +7830,7 @@
       </c>
       <c r="AI30" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>b86b487e-3789-3df8-2ab5-b01aad425128-030</v>
+        <v>d7569583-2b61-3cd4-5e81-7b7f2c000f2f-030</v>
       </c>
       <c r="AJ30" s="104" t="str">
         <f t="shared" si="3"/>
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AK30" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>b86b487e-3789-3df8-2ab5-b01aad425128-030</v>
+        <v>d7569583-2b61-3cd4-5e81-7b7f2c000f2f-030</v>
       </c>
       <c r="AL30" s="104">
         <f t="shared" si="5"/>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="AZ30" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CSB86B487E37893DF82A</v>
+        <v>CSD75695832B613CD45E</v>
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
@@ -7913,7 +7913,7 @@
       <c r="E31" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="138">
+      <c r="F31" s="129">
         <f t="shared" si="17"/>
         <v>-4481.1512855999999</v>
       </c>
@@ -7932,7 +7932,7 @@
       </c>
       <c r="N31" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>534f1ef0-6558-14b4-1ca2-2792e3f729b8-031</v>
+        <v>1ab4d3c9-8bf5-525e-9542-b7080262507c-031</v>
       </c>
       <c r="O31" s="90" t="str">
         <f t="shared" si="20"/>
@@ -7944,7 +7944,7 @@
       </c>
       <c r="Q31" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>534f1ef0-6558-14b4-1ca2-2792e3f729b8-031</v>
+        <v>1ab4d3c9-8bf5-525e-9542-b7080262507c-031</v>
       </c>
       <c r="R31" s="93">
         <f t="shared" si="33"/>
@@ -7990,7 +7990,7 @@
       </c>
       <c r="AC31" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS534F1EF0655814B41C</v>
+        <v>CS1AB4D3C98BF5525E95</v>
       </c>
       <c r="AD31" s="91" t="s">
         <v>94</v>
@@ -8000,7 +8000,7 @@
       </c>
       <c r="AI31" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>534f1ef0-6558-14b4-1ca2-2792e3f729b8-031</v>
+        <v>1ab4d3c9-8bf5-525e-9542-b7080262507c-031</v>
       </c>
       <c r="AJ31" s="104" t="str">
         <f t="shared" si="3"/>
@@ -8008,7 +8008,7 @@
       </c>
       <c r="AK31" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>534f1ef0-6558-14b4-1ca2-2792e3f729b8-031</v>
+        <v>1ab4d3c9-8bf5-525e-9542-b7080262507c-031</v>
       </c>
       <c r="AL31" s="104">
         <f t="shared" si="5"/>
@@ -8063,7 +8063,7 @@
       </c>
       <c r="AZ31" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CS534F1EF0655814B41C</v>
+        <v>CS1AB4D3C98BF5525E95</v>
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.25">
@@ -8083,7 +8083,7 @@
       <c r="E32" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="138">
+      <c r="F32" s="129">
         <f t="shared" si="17"/>
         <v>-239.74224599999999</v>
       </c>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="N32" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>a6bef5ab-a69f-8272-38f1-ba9cbb3a179c-032</v>
+        <v>eba6a81c-6d94-7d7f-75f4-ff9d9fd74f47-032</v>
       </c>
       <c r="O32" s="90" t="str">
         <f t="shared" si="20"/>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="Q32" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>a6bef5ab-a69f-8272-38f1-ba9cbb3a179c-032</v>
+        <v>eba6a81c-6d94-7d7f-75f4-ff9d9fd74f47-032</v>
       </c>
       <c r="R32" s="93">
         <f t="shared" si="33"/>
@@ -8160,7 +8160,7 @@
       </c>
       <c r="AC32" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSA6BEF5ABA69F827238</v>
+        <v>CSEBA6A81C6D947D7F75</v>
       </c>
       <c r="AD32" s="91" t="s">
         <v>94</v>
@@ -8170,7 +8170,7 @@
       </c>
       <c r="AI32" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>a6bef5ab-a69f-8272-38f1-ba9cbb3a179c-032</v>
+        <v>eba6a81c-6d94-7d7f-75f4-ff9d9fd74f47-032</v>
       </c>
       <c r="AJ32" s="104" t="str">
         <f t="shared" si="3"/>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="AK32" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>a6bef5ab-a69f-8272-38f1-ba9cbb3a179c-032</v>
+        <v>eba6a81c-6d94-7d7f-75f4-ff9d9fd74f47-032</v>
       </c>
       <c r="AL32" s="104">
         <f t="shared" si="5"/>
@@ -8233,10 +8233,10 @@
       </c>
       <c r="AZ32" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CSA6BEF5ABA69F827238</v>
+        <v>CSEBA6A81C6D947D7F75</v>
       </c>
     </row>
-    <row r="33" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" s="99">
         <f t="shared" si="37"/>
         <v>0.38194444444444442</v>
@@ -8274,7 +8274,7 @@
       </c>
       <c r="N33" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>057a9595-5b25-92d2-937e-8f9d8c815150-033</v>
+        <v>0813a7b1-6509-655b-9318-bafa69e85a05-033</v>
       </c>
       <c r="O33" s="90" t="str">
         <f t="shared" si="20"/>
@@ -8286,7 +8286,7 @@
       </c>
       <c r="Q33" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>057a9595-5b25-92d2-937e-8f9d8c815150-033</v>
+        <v>0813a7b1-6509-655b-9318-bafa69e85a05-033</v>
       </c>
       <c r="R33" s="93">
         <f t="shared" si="33"/>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="AC33" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS057A95955B2592D293</v>
+        <v>CS0813A7B16509655B93</v>
       </c>
       <c r="AD33" s="91" t="s">
         <v>94</v>
@@ -8342,7 +8342,7 @@
       </c>
       <c r="AI33" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>057a9595-5b25-92d2-937e-8f9d8c815150-033</v>
+        <v>0813a7b1-6509-655b-9318-bafa69e85a05-033</v>
       </c>
       <c r="AJ33" s="104" t="str">
         <f t="shared" si="3"/>
@@ -8350,7 +8350,7 @@
       </c>
       <c r="AK33" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>057a9595-5b25-92d2-937e-8f9d8c815150-033</v>
+        <v>0813a7b1-6509-655b-9318-bafa69e85a05-033</v>
       </c>
       <c r="AL33" s="104">
         <f t="shared" si="5"/>
@@ -8405,7 +8405,7 @@
       </c>
       <c r="AZ33" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CS057A95955B2592D293</v>
+        <v>CS0813A7B16509655B93</v>
       </c>
     </row>
     <row r="34" spans="1:52" s="116" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="N34" s="117" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>c559afa5-4ba9-3f5c-3bed-18aed72616ec-034</v>
+        <v>9956280d-9aaa-78c3-2d29-b25019af8c94-034</v>
       </c>
       <c r="O34" s="117" t="str">
         <f t="shared" si="20"/>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="Q34" s="116" t="str">
         <f t="shared" ref="Q34:Q50" ca="1" si="48">N34</f>
-        <v>c559afa5-4ba9-3f5c-3bed-18aed72616ec-034</v>
+        <v>9956280d-9aaa-78c3-2d29-b25019af8c94-034</v>
       </c>
       <c r="R34" s="116">
         <v>2</v>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="AC34" s="117" t="str">
         <f t="shared" ref="AC34:AC64" ca="1" si="55">UPPER(LEFT(U34&amp;SUBSTITUTE(N34,"-",""),20))</f>
-        <v>CSC559AFA54BA93F5C3B</v>
+        <v>CS9956280D9AAA78C32D</v>
       </c>
       <c r="AD34" s="117" t="str">
         <f>UPPER(LEFT(V34&amp;SUBSTITUTE(O34,"-",""),20))</f>
@@ -8483,11 +8483,11 @@
       </c>
       <c r="AF34" s="117" t="str">
         <f ca="1">UPPER(LEFT(X34&amp;SUBSTITUTE(Q34,"-",""),20))</f>
-        <v>0C559AFA54BA93F5C3BE</v>
+        <v>09956280D9AAA78C32D2</v>
       </c>
       <c r="AI34" s="120" t="str">
         <f t="shared" ref="AI34:AI64" ca="1" si="56">N34</f>
-        <v>c559afa5-4ba9-3f5c-3bed-18aed72616ec-034</v>
+        <v>9956280d-9aaa-78c3-2d29-b25019af8c94-034</v>
       </c>
       <c r="AJ34" s="121">
         <f t="shared" si="3"/>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="AK34" s="120" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>c559afa5-4ba9-3f5c-3bed-18aed72616ec-034</v>
+        <v>9956280d-9aaa-78c3-2d29-b25019af8c94-034</v>
       </c>
       <c r="AL34" s="121">
         <f t="shared" si="5"/>
@@ -8550,7 +8550,7 @@
       </c>
       <c r="AZ34" s="120" t="str">
         <f t="shared" ref="AZ34:AZ50" ca="1" si="64">AC34</f>
-        <v>CSC559AFA54BA93F5C3B</v>
+        <v>CS9956280D9AAA78C32D</v>
       </c>
     </row>
     <row r="35" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -8588,7 +8588,7 @@
       </c>
       <c r="N35" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>e7ae4fd7-9685-239e-6673-f2df0e4b0044-035</v>
+        <v>0410f6b4-25f0-0e26-9821-3afc529369bf-035</v>
       </c>
       <c r="O35" s="90" t="str">
         <f t="shared" si="20"/>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="Q35" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>e7ae4fd7-9685-239e-6673-f2df0e4b0044-035</v>
+        <v>0410f6b4-25f0-0e26-9821-3afc529369bf-035</v>
       </c>
       <c r="R35" s="93">
         <f t="shared" ref="R35:R66" si="65">R34</f>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="AC35" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSE7AE4FD79685239E66</v>
+        <v>CS0410F6B425F00E2698</v>
       </c>
       <c r="AD35" s="91" t="s">
         <v>94</v>
@@ -8656,7 +8656,7 @@
       </c>
       <c r="AI35" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>e7ae4fd7-9685-239e-6673-f2df0e4b0044-035</v>
+        <v>0410f6b4-25f0-0e26-9821-3afc529369bf-035</v>
       </c>
       <c r="AJ35" s="104" t="str">
         <f t="shared" ref="AJ35:AJ64" si="67">P35</f>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="AK35" s="103" t="str">
         <f t="shared" ref="AK35:AK64" ca="1" si="68">Q35</f>
-        <v>e7ae4fd7-9685-239e-6673-f2df0e4b0044-035</v>
+        <v>0410f6b4-25f0-0e26-9821-3afc529369bf-035</v>
       </c>
       <c r="AL35" s="104">
         <f>AL$2</f>
@@ -8719,7 +8719,7 @@
       </c>
       <c r="AZ35" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CSE7AE4FD79685239E66</v>
+        <v>CS0410F6B425F00E2698</v>
       </c>
     </row>
     <row r="36" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="N36" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>2e09c9da-125b-a18f-639d-e24cdfce882d-036</v>
+        <v>3de2efb6-7805-4e35-160b-748f6df49ba1-036</v>
       </c>
       <c r="O36" s="90" t="str">
         <f t="shared" si="20"/>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="Q36" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>2e09c9da-125b-a18f-639d-e24cdfce882d-036</v>
+        <v>3de2efb6-7805-4e35-160b-748f6df49ba1-036</v>
       </c>
       <c r="R36" s="93">
         <f t="shared" si="65"/>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="AC36" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS2E09C9DA125BA18F63</v>
+        <v>CS3DE2EFB678054E3516</v>
       </c>
       <c r="AD36" s="91" t="s">
         <v>94</v>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="AI36" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>2e09c9da-125b-a18f-639d-e24cdfce882d-036</v>
+        <v>3de2efb6-7805-4e35-160b-748f6df49ba1-036</v>
       </c>
       <c r="AJ36" s="104" t="str">
         <f t="shared" si="67"/>
@@ -8833,7 +8833,7 @@
       </c>
       <c r="AK36" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>2e09c9da-125b-a18f-639d-e24cdfce882d-036</v>
+        <v>3de2efb6-7805-4e35-160b-748f6df49ba1-036</v>
       </c>
       <c r="AL36" s="104">
         <f t="shared" ref="AL36:AL66" si="72">AL$2</f>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="AZ36" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS2E09C9DA125BA18F63</v>
+        <v>CS3DE2EFB678054E3516</v>
       </c>
     </row>
     <row r="37" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="N37" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>485b5e1c-52f6-1d00-8ddb-04da1199018e-037</v>
+        <v>54d7769d-a66f-749b-5595-dd238d884d61-037</v>
       </c>
       <c r="O37" s="90" t="str">
         <f t="shared" si="20"/>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="Q37" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>485b5e1c-52f6-1d00-8ddb-04da1199018e-037</v>
+        <v>54d7769d-a66f-749b-5595-dd238d884d61-037</v>
       </c>
       <c r="R37" s="93">
         <f t="shared" si="65"/>
@@ -8984,7 +8984,7 @@
       </c>
       <c r="AC37" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS485B5E1C52F61D008D</v>
+        <v>CS54D7769DA66F749B55</v>
       </c>
       <c r="AD37" s="91" t="s">
         <v>94</v>
@@ -8994,7 +8994,7 @@
       </c>
       <c r="AI37" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>485b5e1c-52f6-1d00-8ddb-04da1199018e-037</v>
+        <v>54d7769d-a66f-749b-5595-dd238d884d61-037</v>
       </c>
       <c r="AJ37" s="104" t="str">
         <f t="shared" si="67"/>
@@ -9002,7 +9002,7 @@
       </c>
       <c r="AK37" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>485b5e1c-52f6-1d00-8ddb-04da1199018e-037</v>
+        <v>54d7769d-a66f-749b-5595-dd238d884d61-037</v>
       </c>
       <c r="AL37" s="104">
         <f t="shared" si="72"/>
@@ -9057,7 +9057,7 @@
       </c>
       <c r="AZ37" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS485B5E1C52F61D008D</v>
+        <v>CS54D7769DA66F749B55</v>
       </c>
     </row>
     <row r="38" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -9095,7 +9095,7 @@
       </c>
       <c r="N38" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>3a6bd5f0-82de-5f03-1361-1d4d10669081-038</v>
+        <v>624d8d13-3c61-84c5-397c-0fc7ff635a2a-038</v>
       </c>
       <c r="O38" s="90" t="str">
         <f t="shared" si="20"/>
@@ -9107,7 +9107,7 @@
       </c>
       <c r="Q38" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>3a6bd5f0-82de-5f03-1361-1d4d10669081-038</v>
+        <v>624d8d13-3c61-84c5-397c-0fc7ff635a2a-038</v>
       </c>
       <c r="R38" s="93">
         <f t="shared" si="65"/>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="AC38" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS3A6BD5F082DE5F0313</v>
+        <v>CS624D8D133C6184C539</v>
       </c>
       <c r="AD38" s="91" t="s">
         <v>94</v>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="AI38" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>3a6bd5f0-82de-5f03-1361-1d4d10669081-038</v>
+        <v>624d8d13-3c61-84c5-397c-0fc7ff635a2a-038</v>
       </c>
       <c r="AJ38" s="104" t="str">
         <f t="shared" si="67"/>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="AK38" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>3a6bd5f0-82de-5f03-1361-1d4d10669081-038</v>
+        <v>624d8d13-3c61-84c5-397c-0fc7ff635a2a-038</v>
       </c>
       <c r="AL38" s="104">
         <f t="shared" si="72"/>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="AZ38" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS3A6BD5F082DE5F0313</v>
+        <v>CS624D8D133C6184C539</v>
       </c>
     </row>
     <row r="39" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -9264,7 +9264,7 @@
       </c>
       <c r="N39" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>b37ae5a0-9e9c-4794-22a0-e06a804b8846-039</v>
+        <v>690a337f-28c0-62f9-9c9d-cf39d8e16457-039</v>
       </c>
       <c r="O39" s="90" t="str">
         <f t="shared" si="20"/>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="Q39" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>b37ae5a0-9e9c-4794-22a0-e06a804b8846-039</v>
+        <v>690a337f-28c0-62f9-9c9d-cf39d8e16457-039</v>
       </c>
       <c r="R39" s="93">
         <f t="shared" si="65"/>
@@ -9322,7 +9322,7 @@
       </c>
       <c r="AC39" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSB37AE5A09E9C479422</v>
+        <v>CS690A337F28C062F99C</v>
       </c>
       <c r="AD39" s="91" t="s">
         <v>94</v>
@@ -9332,7 +9332,7 @@
       </c>
       <c r="AI39" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>b37ae5a0-9e9c-4794-22a0-e06a804b8846-039</v>
+        <v>690a337f-28c0-62f9-9c9d-cf39d8e16457-039</v>
       </c>
       <c r="AJ39" s="104" t="str">
         <f t="shared" si="67"/>
@@ -9340,7 +9340,7 @@
       </c>
       <c r="AK39" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>b37ae5a0-9e9c-4794-22a0-e06a804b8846-039</v>
+        <v>690a337f-28c0-62f9-9c9d-cf39d8e16457-039</v>
       </c>
       <c r="AL39" s="104">
         <f t="shared" si="72"/>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="AZ39" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CSB37AE5A09E9C479422</v>
+        <v>CS690A337F28C062F99C</v>
       </c>
     </row>
     <row r="40" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="N40" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>58627929-9b19-9d1b-9e24-3ba90e06780b-040</v>
+        <v>08c8a9d1-04e1-3070-750c-8b7829009584-040</v>
       </c>
       <c r="O40" s="90" t="str">
         <f t="shared" si="20"/>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="Q40" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>58627929-9b19-9d1b-9e24-3ba90e06780b-040</v>
+        <v>08c8a9d1-04e1-3070-750c-8b7829009584-040</v>
       </c>
       <c r="R40" s="93">
         <f t="shared" si="65"/>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="AC40" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS586279299B199D1B9E</v>
+        <v>CS08C8A9D104E1307075</v>
       </c>
       <c r="AD40" s="91" t="s">
         <v>94</v>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="AI40" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>58627929-9b19-9d1b-9e24-3ba90e06780b-040</v>
+        <v>08c8a9d1-04e1-3070-750c-8b7829009584-040</v>
       </c>
       <c r="AJ40" s="104" t="str">
         <f t="shared" si="67"/>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="AK40" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>58627929-9b19-9d1b-9e24-3ba90e06780b-040</v>
+        <v>08c8a9d1-04e1-3070-750c-8b7829009584-040</v>
       </c>
       <c r="AL40" s="104">
         <f t="shared" si="72"/>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="AZ40" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS586279299B199D1B9E</v>
+        <v>CS08C8A9D104E1307075</v>
       </c>
     </row>
     <row r="41" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -9602,7 +9602,7 @@
       </c>
       <c r="N41" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>7e218b6a-7998-5aa8-15d7-0147e7446f3b-041</v>
+        <v>ff259265-9485-04b0-67ca-f284e461447b-041</v>
       </c>
       <c r="O41" s="90" t="str">
         <f t="shared" si="20"/>
@@ -9614,7 +9614,7 @@
       </c>
       <c r="Q41" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>7e218b6a-7998-5aa8-15d7-0147e7446f3b-041</v>
+        <v>ff259265-9485-04b0-67ca-f284e461447b-041</v>
       </c>
       <c r="R41" s="93">
         <f t="shared" si="65"/>
@@ -9660,7 +9660,7 @@
       </c>
       <c r="AC41" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS7E218B6A79985AA815</v>
+        <v>CSFF259265948504B067</v>
       </c>
       <c r="AD41" s="91" t="s">
         <v>94</v>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="AI41" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>7e218b6a-7998-5aa8-15d7-0147e7446f3b-041</v>
+        <v>ff259265-9485-04b0-67ca-f284e461447b-041</v>
       </c>
       <c r="AJ41" s="104" t="str">
         <f t="shared" si="67"/>
@@ -9678,7 +9678,7 @@
       </c>
       <c r="AK41" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>7e218b6a-7998-5aa8-15d7-0147e7446f3b-041</v>
+        <v>ff259265-9485-04b0-67ca-f284e461447b-041</v>
       </c>
       <c r="AL41" s="104">
         <f t="shared" si="72"/>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="AZ41" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS7E218B6A79985AA815</v>
+        <v>CSFF259265948504B067</v>
       </c>
     </row>
     <row r="42" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="N42" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>e00f8bc0-6b8c-9336-4918-0957c68b0242-042</v>
+        <v>7c4c2240-9937-0465-81ab-1d7702a38f79-042</v>
       </c>
       <c r="O42" s="90" t="str">
         <f t="shared" si="20"/>
@@ -9783,7 +9783,7 @@
       </c>
       <c r="Q42" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>e00f8bc0-6b8c-9336-4918-0957c68b0242-042</v>
+        <v>7c4c2240-9937-0465-81ab-1d7702a38f79-042</v>
       </c>
       <c r="R42" s="93">
         <f t="shared" si="65"/>
@@ -9829,7 +9829,7 @@
       </c>
       <c r="AC42" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSE00F8BC06B8C933649</v>
+        <v>CS7C4C22409937046581</v>
       </c>
       <c r="AD42" s="91" t="s">
         <v>94</v>
@@ -9839,7 +9839,7 @@
       </c>
       <c r="AI42" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>e00f8bc0-6b8c-9336-4918-0957c68b0242-042</v>
+        <v>7c4c2240-9937-0465-81ab-1d7702a38f79-042</v>
       </c>
       <c r="AJ42" s="104" t="str">
         <f t="shared" si="67"/>
@@ -9847,7 +9847,7 @@
       </c>
       <c r="AK42" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>e00f8bc0-6b8c-9336-4918-0957c68b0242-042</v>
+        <v>7c4c2240-9937-0465-81ab-1d7702a38f79-042</v>
       </c>
       <c r="AL42" s="104">
         <f t="shared" si="72"/>
@@ -9902,7 +9902,7 @@
       </c>
       <c r="AZ42" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CSE00F8BC06B8C933649</v>
+        <v>CS7C4C22409937046581</v>
       </c>
     </row>
     <row r="43" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -9940,7 +9940,7 @@
       </c>
       <c r="N43" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>7407139e-34a2-a06e-146b-daff6a629812-043</v>
+        <v>17bdaf08-7eeb-3833-2262-a65ba6dc8e7e-043</v>
       </c>
       <c r="O43" s="90" t="str">
         <f t="shared" si="20"/>
@@ -9952,7 +9952,7 @@
       </c>
       <c r="Q43" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>7407139e-34a2-a06e-146b-daff6a629812-043</v>
+        <v>17bdaf08-7eeb-3833-2262-a65ba6dc8e7e-043</v>
       </c>
       <c r="R43" s="93">
         <f t="shared" si="65"/>
@@ -9998,7 +9998,7 @@
       </c>
       <c r="AC43" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS7407139E34A2A06E14</v>
+        <v>CS17BDAF087EEB383322</v>
       </c>
       <c r="AD43" s="91" t="s">
         <v>94</v>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="AI43" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>7407139e-34a2-a06e-146b-daff6a629812-043</v>
+        <v>17bdaf08-7eeb-3833-2262-a65ba6dc8e7e-043</v>
       </c>
       <c r="AJ43" s="104" t="str">
         <f t="shared" si="67"/>
@@ -10016,7 +10016,7 @@
       </c>
       <c r="AK43" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>7407139e-34a2-a06e-146b-daff6a629812-043</v>
+        <v>17bdaf08-7eeb-3833-2262-a65ba6dc8e7e-043</v>
       </c>
       <c r="AL43" s="104">
         <f t="shared" si="72"/>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="AZ43" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS7407139E34A2A06E14</v>
+        <v>CS17BDAF087EEB383322</v>
       </c>
     </row>
     <row r="44" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="N44" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>afb8ee69-676a-0d25-3902-553989cd000a-044</v>
+        <v>934d523b-6d4a-084b-3d14-b01c82e33381-044</v>
       </c>
       <c r="O44" s="90" t="str">
         <f t="shared" si="20"/>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="Q44" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>afb8ee69-676a-0d25-3902-553989cd000a-044</v>
+        <v>934d523b-6d4a-084b-3d14-b01c82e33381-044</v>
       </c>
       <c r="R44" s="93">
         <f t="shared" si="65"/>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="AC44" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSAFB8EE69676A0D2539</v>
+        <v>CS934D523B6D4A084B3D</v>
       </c>
       <c r="AD44" s="91" t="s">
         <v>94</v>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="AI44" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>afb8ee69-676a-0d25-3902-553989cd000a-044</v>
+        <v>934d523b-6d4a-084b-3d14-b01c82e33381-044</v>
       </c>
       <c r="AJ44" s="104" t="str">
         <f t="shared" si="67"/>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="AK44" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>afb8ee69-676a-0d25-3902-553989cd000a-044</v>
+        <v>934d523b-6d4a-084b-3d14-b01c82e33381-044</v>
       </c>
       <c r="AL44" s="104">
         <f t="shared" si="72"/>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="AZ44" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CSAFB8EE69676A0D2539</v>
+        <v>CS934D523B6D4A084B3D</v>
       </c>
     </row>
     <row r="45" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10278,7 +10278,7 @@
       </c>
       <c r="N45" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>3c9b0e54-1b71-15be-79be-2c8291251ab0-045</v>
+        <v>acdfe6d7-38e9-70b3-4dba-a1d15808a27a-045</v>
       </c>
       <c r="O45" s="90" t="str">
         <f t="shared" si="20"/>
@@ -10290,7 +10290,7 @@
       </c>
       <c r="Q45" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>3c9b0e54-1b71-15be-79be-2c8291251ab0-045</v>
+        <v>acdfe6d7-38e9-70b3-4dba-a1d15808a27a-045</v>
       </c>
       <c r="R45" s="93">
         <f t="shared" si="65"/>
@@ -10336,7 +10336,7 @@
       </c>
       <c r="AC45" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS3C9B0E541B7115BE79</v>
+        <v>CSACDFE6D738E970B34D</v>
       </c>
       <c r="AD45" s="91" t="s">
         <v>94</v>
@@ -10346,7 +10346,7 @@
       </c>
       <c r="AI45" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>3c9b0e54-1b71-15be-79be-2c8291251ab0-045</v>
+        <v>acdfe6d7-38e9-70b3-4dba-a1d15808a27a-045</v>
       </c>
       <c r="AJ45" s="104" t="str">
         <f t="shared" si="67"/>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="AK45" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>3c9b0e54-1b71-15be-79be-2c8291251ab0-045</v>
+        <v>acdfe6d7-38e9-70b3-4dba-a1d15808a27a-045</v>
       </c>
       <c r="AL45" s="104">
         <f t="shared" si="72"/>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="AZ45" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS3C9B0E541B7115BE79</v>
+        <v>CSACDFE6D738E970B34D</v>
       </c>
     </row>
     <row r="46" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10447,7 +10447,7 @@
       </c>
       <c r="N46" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>584e2934-1ae8-9424-033d-d671b527417e-046</v>
+        <v>f5e25356-1b36-153c-8dd0-e08939386df4-046</v>
       </c>
       <c r="O46" s="90" t="str">
         <f t="shared" si="20"/>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="Q46" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>584e2934-1ae8-9424-033d-d671b527417e-046</v>
+        <v>f5e25356-1b36-153c-8dd0-e08939386df4-046</v>
       </c>
       <c r="R46" s="93">
         <f t="shared" si="65"/>
@@ -10505,7 +10505,7 @@
       </c>
       <c r="AC46" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS584E29341AE8942403</v>
+        <v>CSF5E253561B36153C8D</v>
       </c>
       <c r="AD46" s="91" t="s">
         <v>94</v>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="AI46" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>584e2934-1ae8-9424-033d-d671b527417e-046</v>
+        <v>f5e25356-1b36-153c-8dd0-e08939386df4-046</v>
       </c>
       <c r="AJ46" s="104" t="str">
         <f t="shared" si="67"/>
@@ -10523,7 +10523,7 @@
       </c>
       <c r="AK46" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>584e2934-1ae8-9424-033d-d671b527417e-046</v>
+        <v>f5e25356-1b36-153c-8dd0-e08939386df4-046</v>
       </c>
       <c r="AL46" s="104">
         <f t="shared" si="72"/>
@@ -10578,7 +10578,7 @@
       </c>
       <c r="AZ46" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS584E29341AE8942403</v>
+        <v>CSF5E253561B36153C8D</v>
       </c>
     </row>
     <row r="47" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="N47" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>f31f3aa1-940c-503f-3feb-9996f4612f36-047</v>
+        <v>4135d5c6-0c27-6db3-4e0d-90e3cd1270c6-047</v>
       </c>
       <c r="O47" s="90" t="str">
         <f t="shared" si="20"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="Q47" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>f31f3aa1-940c-503f-3feb-9996f4612f36-047</v>
+        <v>4135d5c6-0c27-6db3-4e0d-90e3cd1270c6-047</v>
       </c>
       <c r="R47" s="93">
         <f t="shared" si="65"/>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="AC47" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSF31F3AA1940C503F3F</v>
+        <v>CS4135D5C60C276DB34E</v>
       </c>
       <c r="AD47" s="91" t="s">
         <v>94</v>
@@ -10684,7 +10684,7 @@
       </c>
       <c r="AI47" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>f31f3aa1-940c-503f-3feb-9996f4612f36-047</v>
+        <v>4135d5c6-0c27-6db3-4e0d-90e3cd1270c6-047</v>
       </c>
       <c r="AJ47" s="104" t="str">
         <f t="shared" si="67"/>
@@ -10692,7 +10692,7 @@
       </c>
       <c r="AK47" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>f31f3aa1-940c-503f-3feb-9996f4612f36-047</v>
+        <v>4135d5c6-0c27-6db3-4e0d-90e3cd1270c6-047</v>
       </c>
       <c r="AL47" s="104">
         <f t="shared" si="72"/>
@@ -10747,7 +10747,7 @@
       </c>
       <c r="AZ47" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CSF31F3AA1940C503F3F</v>
+        <v>CS4135D5C60C276DB34E</v>
       </c>
     </row>
     <row r="48" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10785,7 +10785,7 @@
       </c>
       <c r="N48" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>de6727a4-7ad8-8e23-1217-3ac42eb852dc-048</v>
+        <v>3b8e22bb-a154-79ab-5b18-304f927524f9-048</v>
       </c>
       <c r="O48" s="90" t="str">
         <f t="shared" si="20"/>
@@ -10797,7 +10797,7 @@
       </c>
       <c r="Q48" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>de6727a4-7ad8-8e23-1217-3ac42eb852dc-048</v>
+        <v>3b8e22bb-a154-79ab-5b18-304f927524f9-048</v>
       </c>
       <c r="R48" s="93">
         <f t="shared" si="65"/>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="AC48" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSDE6727A47AD88E2312</v>
+        <v>CS3B8E22BBA15479AB5B</v>
       </c>
       <c r="AD48" s="91" t="s">
         <v>94</v>
@@ -10853,7 +10853,7 @@
       </c>
       <c r="AI48" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>de6727a4-7ad8-8e23-1217-3ac42eb852dc-048</v>
+        <v>3b8e22bb-a154-79ab-5b18-304f927524f9-048</v>
       </c>
       <c r="AJ48" s="104" t="str">
         <f t="shared" si="67"/>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="AK48" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>de6727a4-7ad8-8e23-1217-3ac42eb852dc-048</v>
+        <v>3b8e22bb-a154-79ab-5b18-304f927524f9-048</v>
       </c>
       <c r="AL48" s="104">
         <f t="shared" si="72"/>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="AZ48" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CSDE6727A47AD88E2312</v>
+        <v>CS3B8E22BBA15479AB5B</v>
       </c>
     </row>
     <row r="49" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -10954,7 +10954,7 @@
       </c>
       <c r="N49" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>412ae4c6-4df9-017a-907f-49d9d5b3345e-049</v>
+        <v>ce804853-8e54-4336-8229-ae7d43bfa1ea-049</v>
       </c>
       <c r="O49" s="90" t="str">
         <f t="shared" si="20"/>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="Q49" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>412ae4c6-4df9-017a-907f-49d9d5b3345e-049</v>
+        <v>ce804853-8e54-4336-8229-ae7d43bfa1ea-049</v>
       </c>
       <c r="R49" s="93">
         <f t="shared" si="65"/>
@@ -11012,7 +11012,7 @@
       </c>
       <c r="AC49" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS412AE4C64DF9017A90</v>
+        <v>CSCE8048538E54433682</v>
       </c>
       <c r="AD49" s="91" t="s">
         <v>94</v>
@@ -11022,7 +11022,7 @@
       </c>
       <c r="AI49" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>412ae4c6-4df9-017a-907f-49d9d5b3345e-049</v>
+        <v>ce804853-8e54-4336-8229-ae7d43bfa1ea-049</v>
       </c>
       <c r="AJ49" s="104" t="str">
         <f t="shared" si="67"/>
@@ -11030,7 +11030,7 @@
       </c>
       <c r="AK49" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>412ae4c6-4df9-017a-907f-49d9d5b3345e-049</v>
+        <v>ce804853-8e54-4336-8229-ae7d43bfa1ea-049</v>
       </c>
       <c r="AL49" s="104">
         <f t="shared" si="72"/>
@@ -11085,7 +11085,7 @@
       </c>
       <c r="AZ49" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS412AE4C64DF9017A90</v>
+        <v>CSCE8048538E54433682</v>
       </c>
     </row>
     <row r="50" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="N50" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>4ce3b396-25d0-9507-5af3-a9ee90c63164-050</v>
+        <v>7c769ed5-0f45-a61d-6e35-89ad0cc26e76-050</v>
       </c>
       <c r="O50" s="90" t="str">
         <f t="shared" si="20"/>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="Q50" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>4ce3b396-25d0-9507-5af3-a9ee90c63164-050</v>
+        <v>7c769ed5-0f45-a61d-6e35-89ad0cc26e76-050</v>
       </c>
       <c r="R50" s="93">
         <f t="shared" si="65"/>
@@ -11181,7 +11181,7 @@
       </c>
       <c r="AC50" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS4CE3B39625D095075A</v>
+        <v>CS7C769ED50F45A61D6E</v>
       </c>
       <c r="AD50" s="91" t="s">
         <v>94</v>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="AI50" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>4ce3b396-25d0-9507-5af3-a9ee90c63164-050</v>
+        <v>7c769ed5-0f45-a61d-6e35-89ad0cc26e76-050</v>
       </c>
       <c r="AJ50" s="104" t="str">
         <f t="shared" si="67"/>
@@ -11199,7 +11199,7 @@
       </c>
       <c r="AK50" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>4ce3b396-25d0-9507-5af3-a9ee90c63164-050</v>
+        <v>7c769ed5-0f45-a61d-6e35-89ad0cc26e76-050</v>
       </c>
       <c r="AL50" s="104">
         <f t="shared" si="72"/>
@@ -11254,7 +11254,7 @@
       </c>
       <c r="AZ50" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS4CE3B39625D095075A</v>
+        <v>CS7C769ED50F45A61D6E</v>
       </c>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.25">
@@ -11273,7 +11273,7 @@
       <c r="E51" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="138">
+      <c r="F51" s="129">
         <f t="shared" si="17"/>
         <v>-172.43937500000001</v>
       </c>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="N51" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>34636b03-9b70-0b8e-31d7-b4d4812e1509-051</v>
+        <v>c045ae44-4ccf-05d8-18e7-ce3a71ea805a-051</v>
       </c>
       <c r="O51" s="90" t="str">
         <f t="shared" si="20"/>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="Q51" s="93" t="str">
         <f t="shared" ref="Q51:Q66" ca="1" si="74">N51</f>
-        <v>34636b03-9b70-0b8e-31d7-b4d4812e1509-051</v>
+        <v>c045ae44-4ccf-05d8-18e7-ce3a71ea805a-051</v>
       </c>
       <c r="R51" s="93">
         <f t="shared" si="65"/>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="AC51" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS34636B039B700B8E31</v>
+        <v>CSC045AE444CCF05D818</v>
       </c>
       <c r="AD51" s="91" t="s">
         <v>94</v>
@@ -11360,7 +11360,7 @@
       </c>
       <c r="AI51" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>34636b03-9b70-0b8e-31d7-b4d4812e1509-051</v>
+        <v>c045ae44-4ccf-05d8-18e7-ce3a71ea805a-051</v>
       </c>
       <c r="AJ51" s="104" t="str">
         <f t="shared" si="67"/>
@@ -11368,7 +11368,7 @@
       </c>
       <c r="AK51" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>34636b03-9b70-0b8e-31d7-b4d4812e1509-051</v>
+        <v>c045ae44-4ccf-05d8-18e7-ce3a71ea805a-051</v>
       </c>
       <c r="AL51" s="104">
         <f t="shared" si="72"/>
@@ -11423,7 +11423,7 @@
       </c>
       <c r="AZ51" s="103" t="str">
         <f t="shared" ref="AZ51:AZ66" ca="1" si="81">AC51</f>
-        <v>CS34636B039B700B8E31</v>
+        <v>CSC045AE444CCF05D818</v>
       </c>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.25">
@@ -11442,7 +11442,7 @@
       <c r="E52" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="138">
+      <c r="F52" s="129">
         <f t="shared" si="17"/>
         <v>-3448.7925000000005</v>
       </c>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="N52" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>2ca03225-38b2-46da-7fe1-e0bad076008b-052</v>
+        <v>03bc419c-912b-0554-3fa7-817a52143036-052</v>
       </c>
       <c r="O52" s="90" t="str">
         <f t="shared" si="20"/>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="Q52" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>2ca03225-38b2-46da-7fe1-e0bad076008b-052</v>
+        <v>03bc419c-912b-0554-3fa7-817a52143036-052</v>
       </c>
       <c r="R52" s="93">
         <f t="shared" si="65"/>
@@ -11519,7 +11519,7 @@
       </c>
       <c r="AC52" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS2CA0322538B246DA7F</v>
+        <v>CS03BC419C912B05543F</v>
       </c>
       <c r="AD52" s="91" t="s">
         <v>94</v>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="AI52" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>2ca03225-38b2-46da-7fe1-e0bad076008b-052</v>
+        <v>03bc419c-912b-0554-3fa7-817a52143036-052</v>
       </c>
       <c r="AJ52" s="104" t="str">
         <f t="shared" si="67"/>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="AK52" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>2ca03225-38b2-46da-7fe1-e0bad076008b-052</v>
+        <v>03bc419c-912b-0554-3fa7-817a52143036-052</v>
       </c>
       <c r="AL52" s="104">
         <f t="shared" si="72"/>
@@ -11592,7 +11592,7 @@
       </c>
       <c r="AZ52" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS2CA0322538B246DA7F</v>
+        <v>CS03BC419C912B05543F</v>
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
@@ -11611,7 +11611,7 @@
       <c r="E53" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="138">
+      <c r="F53" s="129">
         <f t="shared" si="17"/>
         <v>-2069.2485000000001</v>
       </c>
@@ -11630,7 +11630,7 @@
       </c>
       <c r="N53" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>994d775a-6aa6-47ba-518d-c3a56c313753-053</v>
+        <v>d9297b7a-6a9b-2dd6-916b-6436a98f2608-053</v>
       </c>
       <c r="O53" s="90" t="str">
         <f t="shared" si="20"/>
@@ -11642,7 +11642,7 @@
       </c>
       <c r="Q53" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>994d775a-6aa6-47ba-518d-c3a56c313753-053</v>
+        <v>d9297b7a-6a9b-2dd6-916b-6436a98f2608-053</v>
       </c>
       <c r="R53" s="93">
         <f t="shared" si="65"/>
@@ -11688,7 +11688,7 @@
       </c>
       <c r="AC53" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS994D775A6AA647BA51</v>
+        <v>CSD9297B7A6A9B2DD691</v>
       </c>
       <c r="AD53" s="91" t="s">
         <v>94</v>
@@ -11698,7 +11698,7 @@
       </c>
       <c r="AI53" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>994d775a-6aa6-47ba-518d-c3a56c313753-053</v>
+        <v>d9297b7a-6a9b-2dd6-916b-6436a98f2608-053</v>
       </c>
       <c r="AJ53" s="104" t="str">
         <f t="shared" si="67"/>
@@ -11706,7 +11706,7 @@
       </c>
       <c r="AK53" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>994d775a-6aa6-47ba-518d-c3a56c313753-053</v>
+        <v>d9297b7a-6a9b-2dd6-916b-6436a98f2608-053</v>
       </c>
       <c r="AL53" s="104">
         <f t="shared" si="72"/>
@@ -11761,7 +11761,7 @@
       </c>
       <c r="AZ53" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS994D775A6AA647BA51</v>
+        <v>CSD9297B7A6A9B2DD691</v>
       </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
@@ -11780,7 +11780,7 @@
       <c r="E54" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F54" s="138">
+      <c r="F54" s="129">
         <f t="shared" si="17"/>
         <v>-485.52662400000003</v>
       </c>
@@ -11799,7 +11799,7 @@
       </c>
       <c r="N54" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>7bfe4193-7371-9cc0-4b45-49fd9f6b7100-054</v>
+        <v>5c8b6165-9d96-22ef-6b70-23e7a00e6851-054</v>
       </c>
       <c r="O54" s="90" t="str">
         <f t="shared" si="20"/>
@@ -11811,7 +11811,7 @@
       </c>
       <c r="Q54" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>7bfe4193-7371-9cc0-4b45-49fd9f6b7100-054</v>
+        <v>5c8b6165-9d96-22ef-6b70-23e7a00e6851-054</v>
       </c>
       <c r="R54" s="93">
         <f t="shared" si="65"/>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="AC54" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS7BFE419373719CC04B</v>
+        <v>CS5C8B61659D9622EF6B</v>
       </c>
       <c r="AD54" s="91" t="s">
         <v>94</v>
@@ -11867,7 +11867,7 @@
       </c>
       <c r="AI54" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>7bfe4193-7371-9cc0-4b45-49fd9f6b7100-054</v>
+        <v>5c8b6165-9d96-22ef-6b70-23e7a00e6851-054</v>
       </c>
       <c r="AJ54" s="104" t="str">
         <f t="shared" si="67"/>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="AK54" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>7bfe4193-7371-9cc0-4b45-49fd9f6b7100-054</v>
+        <v>5c8b6165-9d96-22ef-6b70-23e7a00e6851-054</v>
       </c>
       <c r="AL54" s="104">
         <f t="shared" si="72"/>
@@ -11930,7 +11930,7 @@
       </c>
       <c r="AZ54" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS7BFE419373719CC04B</v>
+        <v>CS5C8B61659D9622EF6B</v>
       </c>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.25">
@@ -11949,7 +11949,7 @@
       <c r="E55" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F55" s="138">
+      <c r="F55" s="129">
         <f t="shared" si="17"/>
         <v>-1165.179795</v>
       </c>
@@ -11968,7 +11968,7 @@
       </c>
       <c r="N55" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>22faf5c4-0cdb-24c1-993d-c73bf80f6320-055</v>
+        <v>05d5c786-0aec-1484-4bce-10db122c75df-055</v>
       </c>
       <c r="O55" s="90" t="str">
         <f t="shared" si="20"/>
@@ -11980,7 +11980,7 @@
       </c>
       <c r="Q55" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>22faf5c4-0cdb-24c1-993d-c73bf80f6320-055</v>
+        <v>05d5c786-0aec-1484-4bce-10db122c75df-055</v>
       </c>
       <c r="R55" s="93">
         <f t="shared" si="65"/>
@@ -12026,7 +12026,7 @@
       </c>
       <c r="AC55" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS22FAF5C40CDB24C199</v>
+        <v>CS05D5C7860AEC14844B</v>
       </c>
       <c r="AD55" s="91" t="s">
         <v>94</v>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="AI55" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>22faf5c4-0cdb-24c1-993d-c73bf80f6320-055</v>
+        <v>05d5c786-0aec-1484-4bce-10db122c75df-055</v>
       </c>
       <c r="AJ55" s="104" t="str">
         <f t="shared" si="67"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="AK55" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>22faf5c4-0cdb-24c1-993d-c73bf80f6320-055</v>
+        <v>05d5c786-0aec-1484-4bce-10db122c75df-055</v>
       </c>
       <c r="AL55" s="104">
         <f t="shared" si="72"/>
@@ -12099,7 +12099,7 @@
       </c>
       <c r="AZ55" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS22FAF5C40CDB24C199</v>
+        <v>CS05D5C7860AEC14844B</v>
       </c>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.25">
@@ -12118,7 +12118,7 @@
       <c r="E56" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F56" s="138">
+      <c r="F56" s="129">
         <f t="shared" si="17"/>
         <v>-21002.6260014</v>
       </c>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="N56" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>4d16654a-3f3a-3a3a-2db5-52aa86b60753-056</v>
+        <v>b2801157-1bd6-9596-59a3-d27484d804af-056</v>
       </c>
       <c r="O56" s="90" t="str">
         <f t="shared" si="20"/>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="Q56" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>4d16654a-3f3a-3a3a-2db5-52aa86b60753-056</v>
+        <v>b2801157-1bd6-9596-59a3-d27484d804af-056</v>
       </c>
       <c r="R56" s="93">
         <f t="shared" si="65"/>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="AC56" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS4D16654A3F3A3A3A2D</v>
+        <v>CSB28011571BD6959659</v>
       </c>
       <c r="AD56" s="91" t="s">
         <v>94</v>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="AI56" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>4d16654a-3f3a-3a3a-2db5-52aa86b60753-056</v>
+        <v>b2801157-1bd6-9596-59a3-d27484d804af-056</v>
       </c>
       <c r="AJ56" s="104" t="str">
         <f t="shared" si="67"/>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="AK56" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>4d16654a-3f3a-3a3a-2db5-52aa86b60753-056</v>
+        <v>b2801157-1bd6-9596-59a3-d27484d804af-056</v>
       </c>
       <c r="AL56" s="104">
         <f t="shared" si="72"/>
@@ -12268,10 +12268,10 @@
       </c>
       <c r="AZ56" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS4D16654A3F3A3A3A2D</v>
+        <v>CSB28011571BD6959659</v>
       </c>
     </row>
-    <row r="57" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" s="89">
         <v>0.34027777777777773</v>
       </c>
@@ -12306,7 +12306,7 @@
       </c>
       <c r="N57" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>4ce430a4-4e40-1c01-256d-e21115cf2f52-057</v>
+        <v>611c181a-08a8-1b09-642c-2d91c691533e-057</v>
       </c>
       <c r="O57" s="90" t="str">
         <f t="shared" si="20"/>
@@ -12318,7 +12318,7 @@
       </c>
       <c r="Q57" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>4ce430a4-4e40-1c01-256d-e21115cf2f52-057</v>
+        <v>611c181a-08a8-1b09-642c-2d91c691533e-057</v>
       </c>
       <c r="R57" s="93">
         <f t="shared" si="65"/>
@@ -12364,7 +12364,7 @@
       </c>
       <c r="AC57" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS4CE430A44E401C0125</v>
+        <v>CS611C181A08A81B0964</v>
       </c>
       <c r="AD57" s="91" t="s">
         <v>94</v>
@@ -12374,7 +12374,7 @@
       </c>
       <c r="AI57" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>4ce430a4-4e40-1c01-256d-e21115cf2f52-057</v>
+        <v>611c181a-08a8-1b09-642c-2d91c691533e-057</v>
       </c>
       <c r="AJ57" s="104" t="str">
         <f t="shared" si="67"/>
@@ -12382,7 +12382,7 @@
       </c>
       <c r="AK57" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>4ce430a4-4e40-1c01-256d-e21115cf2f52-057</v>
+        <v>611c181a-08a8-1b09-642c-2d91c691533e-057</v>
       </c>
       <c r="AL57" s="104">
         <f t="shared" si="72"/>
@@ -12437,7 +12437,7 @@
       </c>
       <c r="AZ57" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS4CE430A44E401C0125</v>
+        <v>CS611C181A08A81B0964</v>
       </c>
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.25">
@@ -12456,7 +12456,7 @@
       <c r="E58" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F58" s="138">
+      <c r="F58" s="129">
         <f t="shared" ref="F58:F66" si="82">IF(E58="RECEIVE",D58,0-D58)</f>
         <v>-985.84242899999992</v>
       </c>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="N58" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>72743799-9400-4202-8c40-f85b1bc852fd-058</v>
+        <v>0d9fb0d9-566e-2877-0e46-07d4adf835cc-058</v>
       </c>
       <c r="O58" s="90" t="str">
         <f t="shared" si="20"/>
@@ -12487,7 +12487,7 @@
       </c>
       <c r="Q58" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>72743799-9400-4202-8c40-f85b1bc852fd-058</v>
+        <v>0d9fb0d9-566e-2877-0e46-07d4adf835cc-058</v>
       </c>
       <c r="R58" s="93">
         <f t="shared" si="65"/>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="AC58" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS72743799940042028C</v>
+        <v>CS0D9FB0D9566E28770E</v>
       </c>
       <c r="AD58" s="91" t="s">
         <v>94</v>
@@ -12543,7 +12543,7 @@
       </c>
       <c r="AI58" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>72743799-9400-4202-8c40-f85b1bc852fd-058</v>
+        <v>0d9fb0d9-566e-2877-0e46-07d4adf835cc-058</v>
       </c>
       <c r="AJ58" s="104" t="str">
         <f t="shared" si="67"/>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="AK58" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>72743799-9400-4202-8c40-f85b1bc852fd-058</v>
+        <v>0d9fb0d9-566e-2877-0e46-07d4adf835cc-058</v>
       </c>
       <c r="AL58" s="104">
         <f t="shared" si="72"/>
@@ -12606,7 +12606,7 @@
       </c>
       <c r="AZ58" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS72743799940042028C</v>
+        <v>CS0D9FB0D9566E28770E</v>
       </c>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.25">
@@ -12625,7 +12625,7 @@
       <c r="E59" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="138">
+      <c r="F59" s="129">
         <f t="shared" si="82"/>
         <v>-137.86617999999999</v>
       </c>
@@ -12644,7 +12644,7 @@
       </c>
       <c r="N59" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>8fe9a846-2254-726b-5c7b-9bef0f9963e3-059</v>
+        <v>3724e30b-238f-538a-6195-6c83bf605108-059</v>
       </c>
       <c r="O59" s="90" t="str">
         <f t="shared" si="20"/>
@@ -12656,7 +12656,7 @@
       </c>
       <c r="Q59" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>8fe9a846-2254-726b-5c7b-9bef0f9963e3-059</v>
+        <v>3724e30b-238f-538a-6195-6c83bf605108-059</v>
       </c>
       <c r="R59" s="93">
         <f t="shared" si="65"/>
@@ -12702,7 +12702,7 @@
       </c>
       <c r="AC59" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS8FE9A8462254726B5C</v>
+        <v>CS3724E30B238F538A61</v>
       </c>
       <c r="AD59" s="91" t="s">
         <v>94</v>
@@ -12712,7 +12712,7 @@
       </c>
       <c r="AI59" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>8fe9a846-2254-726b-5c7b-9bef0f9963e3-059</v>
+        <v>3724e30b-238f-538a-6195-6c83bf605108-059</v>
       </c>
       <c r="AJ59" s="104" t="str">
         <f t="shared" si="67"/>
@@ -12720,7 +12720,7 @@
       </c>
       <c r="AK59" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>8fe9a846-2254-726b-5c7b-9bef0f9963e3-059</v>
+        <v>3724e30b-238f-538a-6195-6c83bf605108-059</v>
       </c>
       <c r="AL59" s="104">
         <f t="shared" si="72"/>
@@ -12775,7 +12775,7 @@
       </c>
       <c r="AZ59" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS8FE9A8462254726B5C</v>
+        <v>CS3724E30B238F538A61</v>
       </c>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.25">
@@ -12794,7 +12794,7 @@
       <c r="E60" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F60" s="138">
+      <c r="F60" s="129">
         <f t="shared" si="82"/>
         <v>-22849.569999999992</v>
       </c>
@@ -12813,7 +12813,7 @@
       </c>
       <c r="N60" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>e54d27a0-6ba8-509e-9815-5897ab8184be-060</v>
+        <v>b60e650d-329b-103a-72bb-1e8b889b188e-060</v>
       </c>
       <c r="O60" s="90" t="str">
         <f t="shared" si="20"/>
@@ -12825,7 +12825,7 @@
       </c>
       <c r="Q60" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>e54d27a0-6ba8-509e-9815-5897ab8184be-060</v>
+        <v>b60e650d-329b-103a-72bb-1e8b889b188e-060</v>
       </c>
       <c r="R60" s="93">
         <f t="shared" si="65"/>
@@ -12871,7 +12871,7 @@
       </c>
       <c r="AC60" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSE54D27A06BA8509E98</v>
+        <v>CSB60E650D329B103A72</v>
       </c>
       <c r="AD60" s="91" t="s">
         <v>94</v>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="AI60" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>e54d27a0-6ba8-509e-9815-5897ab8184be-060</v>
+        <v>b60e650d-329b-103a-72bb-1e8b889b188e-060</v>
       </c>
       <c r="AJ60" s="104" t="str">
         <f t="shared" si="67"/>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="AK60" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>e54d27a0-6ba8-509e-9815-5897ab8184be-060</v>
+        <v>b60e650d-329b-103a-72bb-1e8b889b188e-060</v>
       </c>
       <c r="AL60" s="104">
         <f t="shared" si="72"/>
@@ -12944,7 +12944,7 @@
       </c>
       <c r="AZ60" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CSE54D27A06BA8509E98</v>
+        <v>CSB60E650D329B103A72</v>
       </c>
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.25">
@@ -12963,7 +12963,7 @@
       <c r="E61" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="138">
+      <c r="F61" s="129">
         <f t="shared" si="82"/>
         <v>-2067.5762999999997</v>
       </c>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="N61" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>102adf04-74a1-2fe3-3930-1dedbe28334f-061</v>
+        <v>c153a988-73ca-1912-2017-1ac294bb97e7-061</v>
       </c>
       <c r="O61" s="90" t="str">
         <f t="shared" si="20"/>
@@ -12994,7 +12994,7 @@
       </c>
       <c r="Q61" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>102adf04-74a1-2fe3-3930-1dedbe28334f-061</v>
+        <v>c153a988-73ca-1912-2017-1ac294bb97e7-061</v>
       </c>
       <c r="R61" s="93">
         <f t="shared" si="65"/>
@@ -13040,7 +13040,7 @@
       </c>
       <c r="AC61" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS102ADF0474A12FE339</v>
+        <v>CSC153A98873CA191220</v>
       </c>
       <c r="AD61" s="91" t="s">
         <v>94</v>
@@ -13050,7 +13050,7 @@
       </c>
       <c r="AI61" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>102adf04-74a1-2fe3-3930-1dedbe28334f-061</v>
+        <v>c153a988-73ca-1912-2017-1ac294bb97e7-061</v>
       </c>
       <c r="AJ61" s="104" t="str">
         <f t="shared" si="67"/>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="AK61" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>102adf04-74a1-2fe3-3930-1dedbe28334f-061</v>
+        <v>c153a988-73ca-1912-2017-1ac294bb97e7-061</v>
       </c>
       <c r="AL61" s="104">
         <f t="shared" si="72"/>
@@ -13113,7 +13113,7 @@
       </c>
       <c r="AZ61" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS102ADF0474A12FE339</v>
+        <v>CSC153A98873CA191220</v>
       </c>
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.25">
@@ -13132,7 +13132,7 @@
       <c r="E62" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F62" s="138">
+      <c r="F62" s="129">
         <f t="shared" si="82"/>
         <v>-1309.33313</v>
       </c>
@@ -13151,7 +13151,7 @@
       </c>
       <c r="N62" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>3688aa45-056b-486c-7866-512e9605553c-062</v>
+        <v>d77b6f92-801e-000c-8918-6e7ad7f55092-062</v>
       </c>
       <c r="O62" s="90" t="str">
         <f t="shared" si="20"/>
@@ -13163,7 +13163,7 @@
       </c>
       <c r="Q62" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>3688aa45-056b-486c-7866-512e9605553c-062</v>
+        <v>d77b6f92-801e-000c-8918-6e7ad7f55092-062</v>
       </c>
       <c r="R62" s="93">
         <f t="shared" si="65"/>
@@ -13209,7 +13209,7 @@
       </c>
       <c r="AC62" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS3688AA45056B486C78</v>
+        <v>CSD77B6F92801E000C89</v>
       </c>
       <c r="AD62" s="91" t="s">
         <v>94</v>
@@ -13219,7 +13219,7 @@
       </c>
       <c r="AI62" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>3688aa45-056b-486c-7866-512e9605553c-062</v>
+        <v>d77b6f92-801e-000c-8918-6e7ad7f55092-062</v>
       </c>
       <c r="AJ62" s="104" t="str">
         <f t="shared" si="67"/>
@@ -13227,7 +13227,7 @@
       </c>
       <c r="AK62" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>3688aa45-056b-486c-7866-512e9605553c-062</v>
+        <v>d77b6f92-801e-000c-8918-6e7ad7f55092-062</v>
       </c>
       <c r="AL62" s="104">
         <f t="shared" si="72"/>
@@ -13282,7 +13282,7 @@
       </c>
       <c r="AZ62" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS3688AA45056B486C78</v>
+        <v>CSD77B6F92801E000C89</v>
       </c>
     </row>
     <row r="63" spans="1:52" x14ac:dyDescent="0.25">
@@ -13301,7 +13301,7 @@
       <c r="E63" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F63" s="138">
+      <c r="F63" s="129">
         <f t="shared" si="82"/>
         <v>-1034.9580566</v>
       </c>
@@ -13320,7 +13320,7 @@
       </c>
       <c r="N63" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>f3e5cde4-40c3-8e4e-8dd0-fb1de5819aca-063</v>
+        <v>0fb3d815-8d6c-86c9-2fc1-af6e2c8a289c-063</v>
       </c>
       <c r="O63" s="90" t="str">
         <f t="shared" si="20"/>
@@ -13332,7 +13332,7 @@
       </c>
       <c r="Q63" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>f3e5cde4-40c3-8e4e-8dd0-fb1de5819aca-063</v>
+        <v>0fb3d815-8d6c-86c9-2fc1-af6e2c8a289c-063</v>
       </c>
       <c r="R63" s="93">
         <f t="shared" si="65"/>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="AC63" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSF3E5CDE440C38E4E8D</v>
+        <v>CS0FB3D8158D6C86C92F</v>
       </c>
       <c r="AD63" s="91" t="s">
         <v>94</v>
@@ -13388,7 +13388,7 @@
       </c>
       <c r="AI63" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>f3e5cde4-40c3-8e4e-8dd0-fb1de5819aca-063</v>
+        <v>0fb3d815-8d6c-86c9-2fc1-af6e2c8a289c-063</v>
       </c>
       <c r="AJ63" s="104" t="str">
         <f t="shared" si="67"/>
@@ -13396,7 +13396,7 @@
       </c>
       <c r="AK63" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>f3e5cde4-40c3-8e4e-8dd0-fb1de5819aca-063</v>
+        <v>0fb3d815-8d6c-86c9-2fc1-af6e2c8a289c-063</v>
       </c>
       <c r="AL63" s="104">
         <f t="shared" si="72"/>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="AZ63" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CSF3E5CDE440C38E4E8D</v>
+        <v>CS0FB3D8158D6C86C92F</v>
       </c>
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.25">
@@ -13470,7 +13470,7 @@
       <c r="E64" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F64" s="138">
+      <c r="F64" s="129">
         <f t="shared" si="82"/>
         <v>-4481.1512855999999</v>
       </c>
@@ -13489,7 +13489,7 @@
       </c>
       <c r="N64" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>b63b46b1-5391-067e-5f3c-ae6e026a110e-064</v>
+        <v>237ff637-7a7f-2f5b-4a34-d96183908fd6-064</v>
       </c>
       <c r="O64" s="90" t="str">
         <f t="shared" si="20"/>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="Q64" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>b63b46b1-5391-067e-5f3c-ae6e026a110e-064</v>
+        <v>237ff637-7a7f-2f5b-4a34-d96183908fd6-064</v>
       </c>
       <c r="R64" s="93">
         <f t="shared" si="65"/>
@@ -13547,7 +13547,7 @@
       </c>
       <c r="AC64" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSB63B46B15391067E5F</v>
+        <v>CS237FF6377A7F2F5B4A</v>
       </c>
       <c r="AD64" s="91" t="s">
         <v>94</v>
@@ -13557,7 +13557,7 @@
       </c>
       <c r="AI64" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>b63b46b1-5391-067e-5f3c-ae6e026a110e-064</v>
+        <v>237ff637-7a7f-2f5b-4a34-d96183908fd6-064</v>
       </c>
       <c r="AJ64" s="103" t="str">
         <f t="shared" si="67"/>
@@ -13565,7 +13565,7 @@
       </c>
       <c r="AK64" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>b63b46b1-5391-067e-5f3c-ae6e026a110e-064</v>
+        <v>237ff637-7a7f-2f5b-4a34-d96183908fd6-064</v>
       </c>
       <c r="AL64" s="104">
         <f t="shared" si="72"/>
@@ -13620,7 +13620,7 @@
       </c>
       <c r="AZ64" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CSB63B46B15391067E5F</v>
+        <v>CS237FF6377A7F2F5B4A</v>
       </c>
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.25">
@@ -13639,7 +13639,7 @@
       <c r="E65" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F65" s="138">
+      <c r="F65" s="129">
         <f t="shared" si="82"/>
         <v>-239.74224599999999</v>
       </c>
@@ -13658,7 +13658,7 @@
       </c>
       <c r="N65" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>c008f394-5eb4-73a6-2b7a-2e96cba76e24-065</v>
+        <v>efe21b18-6dff-2977-2c81-cd70c38248af-065</v>
       </c>
       <c r="O65" s="90" t="str">
         <f t="shared" si="20"/>
@@ -13670,7 +13670,7 @@
       </c>
       <c r="Q65" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>c008f394-5eb4-73a6-2b7a-2e96cba76e24-065</v>
+        <v>efe21b18-6dff-2977-2c81-cd70c38248af-065</v>
       </c>
       <c r="R65" s="93">
         <f t="shared" si="65"/>
@@ -13716,7 +13716,7 @@
       </c>
       <c r="AC65" s="90" t="str">
         <f t="shared" ref="AC65:AC66" ca="1" si="88">UPPER(LEFT(U65&amp;SUBSTITUTE(N65,"-",""),20))</f>
-        <v>CSC008F3945EB473A62B</v>
+        <v>CSEFE21B186DFF29772C</v>
       </c>
       <c r="AD65" s="91" t="s">
         <v>94</v>
@@ -13726,7 +13726,7 @@
       </c>
       <c r="AI65" s="103" t="str">
         <f t="shared" ref="AI65:AI66" ca="1" si="89">N65</f>
-        <v>c008f394-5eb4-73a6-2b7a-2e96cba76e24-065</v>
+        <v>efe21b18-6dff-2977-2c81-cd70c38248af-065</v>
       </c>
       <c r="AJ65" s="103" t="str">
         <f t="shared" ref="AJ65:AJ66" si="90">P65</f>
@@ -13734,7 +13734,7 @@
       </c>
       <c r="AK65" s="103" t="str">
         <f t="shared" ref="AK65:AK66" ca="1" si="91">Q65</f>
-        <v>c008f394-5eb4-73a6-2b7a-2e96cba76e24-065</v>
+        <v>efe21b18-6dff-2977-2c81-cd70c38248af-065</v>
       </c>
       <c r="AL65" s="104">
         <f t="shared" si="72"/>
@@ -13789,10 +13789,10 @@
       </c>
       <c r="AZ65" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CSC008F3945EB473A62B</v>
+        <v>CSEFE21B186DFF29772C</v>
       </c>
     </row>
-    <row r="66" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A66" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -13827,7 +13827,7 @@
       </c>
       <c r="N66" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>2fa3de7d-6454-2b89-0d51-41fd53266cf1-066</v>
+        <v>43730f96-1e2f-49f1-34d7-6da6f95253c7-066</v>
       </c>
       <c r="O66" s="90" t="str">
         <f t="shared" si="20"/>
@@ -13839,7 +13839,7 @@
       </c>
       <c r="Q66" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>2fa3de7d-6454-2b89-0d51-41fd53266cf1-066</v>
+        <v>43730f96-1e2f-49f1-34d7-6da6f95253c7-066</v>
       </c>
       <c r="R66" s="93">
         <f t="shared" si="65"/>
@@ -13885,7 +13885,7 @@
       </c>
       <c r="AC66" s="90" t="str">
         <f t="shared" ca="1" si="88"/>
-        <v>CS2FA3DE7D64542B890D</v>
+        <v>CS43730F961E2F49F134</v>
       </c>
       <c r="AD66" s="91" t="s">
         <v>94</v>
@@ -13895,7 +13895,7 @@
       </c>
       <c r="AI66" s="103" t="str">
         <f t="shared" ca="1" si="89"/>
-        <v>2fa3de7d-6454-2b89-0d51-41fd53266cf1-066</v>
+        <v>43730f96-1e2f-49f1-34d7-6da6f95253c7-066</v>
       </c>
       <c r="AJ66" s="103" t="str">
         <f t="shared" si="90"/>
@@ -13903,7 +13903,7 @@
       </c>
       <c r="AK66" s="103" t="str">
         <f t="shared" ca="1" si="91"/>
-        <v>2fa3de7d-6454-2b89-0d51-41fd53266cf1-066</v>
+        <v>43730f96-1e2f-49f1-34d7-6da6f95253c7-066</v>
       </c>
       <c r="AL66" s="104">
         <f t="shared" si="72"/>
@@ -13958,16 +13958,11 @@
       </c>
       <c r="AZ66" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS2FA3DE7D64542B890D</v>
+        <v>CS43730F961E2F49F134</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AZ66" xr:uid="{51389D91-EB97-4F74-8A63-F71EC9F04350}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Customer Payment Instruction"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="SGD"/>

--- a/Prospects/HomeSend/Siena Transaction Generator/BASE/Case 3 - WIP.xlsx
+++ b/Prospects/HomeSend/Siena Transaction Generator/BASE/Case 3 - WIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtownsend\Documents\GitHub\ebSiena-DemoSystemData\Prospects\HomeSend\Siena Transaction Generator\BASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95E1300-3AF0-4221-930B-7BD04A469DAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451CD8A0-D5A1-4FB1-886B-9A15649E6F2D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{D1451B8F-1010-43E5-88D1-53501612A4E1}"/>
   </bookViews>
@@ -2748,7 +2748,7 @@
   <dimension ref="A1:AZ66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N66" sqref="N18:AE66"/>
+      <selection activeCell="N50" sqref="N2:AE50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2955,7 +2955,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="99">
         <f>Instructions!A3</f>
         <v>0.34027777777777773</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="N2" s="90" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>a49cebfe-50ef-1f76-3cce-6e53e7fa860a-002</v>
+        <v>29db5dc7-15ae-75df-64b8-183fc0218bb7-002</v>
       </c>
       <c r="O2" s="90" t="str">
         <f>LEFT(LEFT(W2,3)&amp;"."&amp;SUBSTITUTE(Y2,"-","")&amp;"."&amp;U2&amp;"0000000000000",20)</f>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="Q2" s="90" t="str">
         <f ca="1">N2</f>
-        <v>a49cebfe-50ef-1f76-3cce-6e53e7fa860a-002</v>
+        <v>29db5dc7-15ae-75df-64b8-183fc0218bb7-002</v>
       </c>
       <c r="R2" s="93">
         <v>1</v>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="AC2" s="90" t="str">
         <f t="shared" ref="AC2:AC33" ca="1" si="1">UPPER(LEFT(U2&amp;SUBSTITUTE(N2,"-",""),20))</f>
-        <v>CSA49CEBFE50EF1F763C</v>
+        <v>CS29DB5DC715AE75DF64</v>
       </c>
       <c r="AD2" s="91" t="s">
         <v>94</v>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="AI2" s="103" t="str">
         <f t="shared" ref="AI2:AI33" ca="1" si="2">N2</f>
-        <v>a49cebfe-50ef-1f76-3cce-6e53e7fa860a-002</v>
+        <v>29db5dc7-15ae-75df-64b8-183fc0218bb7-002</v>
       </c>
       <c r="AJ2" s="104" t="str">
         <f t="shared" ref="AJ2:AJ34" si="3">P2</f>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="AK2" s="103" t="str">
         <f t="shared" ref="AK2:AK34" ca="1" si="4">Q2</f>
-        <v>a49cebfe-50ef-1f76-3cce-6e53e7fa860a-002</v>
+        <v>29db5dc7-15ae-75df-64b8-183fc0218bb7-002</v>
       </c>
       <c r="AL2" s="104">
         <f t="shared" ref="AL2:AL34" si="5">R2</f>
@@ -3125,10 +3125,10 @@
       </c>
       <c r="AZ2" s="103" t="str">
         <f t="shared" ref="AZ2" ca="1" si="15">AC2</f>
-        <v>CSA49CEBFE50EF1F763C</v>
+        <v>CS29DB5DC715AE75DF64</v>
       </c>
     </row>
-    <row r="3" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="99">
         <f t="shared" ref="A3:A8" si="16">A2</f>
         <v>0.34027777777777773</v>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="N3" s="90" t="str">
         <f t="shared" ref="N3:N66" ca="1" si="19">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>68cc7ab0-4563-45f4-86e4-2b6eed3b6e41-003</v>
+        <v>ae2537bd-7f39-6ef5-6869-2c4d5bb66dbe-003</v>
       </c>
       <c r="O3" s="90" t="str">
         <f t="shared" ref="O3:O66" si="20">LEFT(LEFT(W3,3)&amp;"."&amp;SUBSTITUTE(Y3,"-","")&amp;"."&amp;U3&amp;"0000000000000",20)</f>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="Q3" s="93" t="str">
         <f t="shared" ref="Q3" ca="1" si="22">N3</f>
-        <v>68cc7ab0-4563-45f4-86e4-2b6eed3b6e41-003</v>
+        <v>ae2537bd-7f39-6ef5-6869-2c4d5bb66dbe-003</v>
       </c>
       <c r="R3" s="93">
         <f>R2</f>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="AC3" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS68CC7AB0456345F486</v>
+        <v>CSAE2537BD7F396EF568</v>
       </c>
       <c r="AD3" s="91" t="s">
         <v>94</v>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="AI3" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>68cc7ab0-4563-45f4-86e4-2b6eed3b6e41-003</v>
+        <v>ae2537bd-7f39-6ef5-6869-2c4d5bb66dbe-003</v>
       </c>
       <c r="AJ3" s="104" t="str">
         <f t="shared" si="3"/>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="AK3" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>68cc7ab0-4563-45f4-86e4-2b6eed3b6e41-003</v>
+        <v>ae2537bd-7f39-6ef5-6869-2c4d5bb66dbe-003</v>
       </c>
       <c r="AL3" s="104">
         <f t="shared" si="5"/>
@@ -3295,10 +3295,10 @@
       </c>
       <c r="AZ3" s="103" t="str">
         <f t="shared" ref="AZ3:AZ18" ca="1" si="30">AC3</f>
-        <v>CS68CC7AB0456345F486</v>
+        <v>CSAE2537BD7F396EF568</v>
       </c>
     </row>
-    <row r="4" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="99">
         <f t="shared" si="16"/>
         <v>0.34027777777777773</v>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="N4" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>6bfa5800-607e-28d5-6075-98f1da7c04f2-004</v>
+        <v>a76122bc-04b1-74e3-a04f-93c1b4e47c3f-004</v>
       </c>
       <c r="O4" s="90" t="str">
         <f t="shared" si="20"/>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="Q4" s="93" t="str">
         <f t="shared" ref="Q4:Q17" ca="1" si="32">N4</f>
-        <v>6bfa5800-607e-28d5-6075-98f1da7c04f2-004</v>
+        <v>a76122bc-04b1-74e3-a04f-93c1b4e47c3f-004</v>
       </c>
       <c r="R4" s="93">
         <f t="shared" ref="R4:R33" si="33">R3</f>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="AC4" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS6BFA5800607E28D560</v>
+        <v>CSA76122BC04B174E3A0</v>
       </c>
       <c r="AD4" s="91" t="s">
         <v>94</v>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="AI4" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>6bfa5800-607e-28d5-6075-98f1da7c04f2-004</v>
+        <v>a76122bc-04b1-74e3-a04f-93c1b4e47c3f-004</v>
       </c>
       <c r="AJ4" s="104" t="str">
         <f t="shared" si="3"/>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="AK4" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>6bfa5800-607e-28d5-6075-98f1da7c04f2-004</v>
+        <v>a76122bc-04b1-74e3-a04f-93c1b4e47c3f-004</v>
       </c>
       <c r="AL4" s="104">
         <f t="shared" si="5"/>
@@ -3465,10 +3465,10 @@
       </c>
       <c r="AZ4" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS6BFA5800607E28D560</v>
+        <v>CSA76122BC04B174E3A0</v>
       </c>
     </row>
-    <row r="5" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="99">
         <f t="shared" si="16"/>
         <v>0.34027777777777773</v>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="N5" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>26d62b42-1293-6f02-6a0d-bdb6b8111c92-005</v>
+        <v>0d77efa0-08de-21ed-8e3e-786db9bd362e-005</v>
       </c>
       <c r="O5" s="90" t="str">
         <f t="shared" si="20"/>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="Q5" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>26d62b42-1293-6f02-6a0d-bdb6b8111c92-005</v>
+        <v>0d77efa0-08de-21ed-8e3e-786db9bd362e-005</v>
       </c>
       <c r="R5" s="93">
         <f t="shared" si="33"/>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="AC5" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS26D62B4212936F026A</v>
+        <v>CS0D77EFA008DE21ED8E</v>
       </c>
       <c r="AD5" s="91" t="s">
         <v>94</v>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="AI5" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>26d62b42-1293-6f02-6a0d-bdb6b8111c92-005</v>
+        <v>0d77efa0-08de-21ed-8e3e-786db9bd362e-005</v>
       </c>
       <c r="AJ5" s="104" t="str">
         <f t="shared" si="3"/>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="AK5" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>26d62b42-1293-6f02-6a0d-bdb6b8111c92-005</v>
+        <v>0d77efa0-08de-21ed-8e3e-786db9bd362e-005</v>
       </c>
       <c r="AL5" s="104">
         <f t="shared" si="5"/>
@@ -3635,10 +3635,10 @@
       </c>
       <c r="AZ5" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS26D62B4212936F026A</v>
+        <v>CS0D77EFA008DE21ED8E</v>
       </c>
     </row>
-    <row r="6" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="99">
         <f t="shared" si="16"/>
         <v>0.34027777777777773</v>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="N6" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>6837c7a5-7f2b-a41a-17af-14e0aa0a7239-006</v>
+        <v>63092328-1944-01d3-8aa1-8572878387ed-006</v>
       </c>
       <c r="O6" s="90" t="str">
         <f t="shared" si="20"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="Q6" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>6837c7a5-7f2b-a41a-17af-14e0aa0a7239-006</v>
+        <v>63092328-1944-01d3-8aa1-8572878387ed-006</v>
       </c>
       <c r="R6" s="93">
         <f t="shared" si="33"/>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="AC6" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS6837C7A57F2BA41A17</v>
+        <v>CS63092328194401D38A</v>
       </c>
       <c r="AD6" s="91" t="s">
         <v>94</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="AI6" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>6837c7a5-7f2b-a41a-17af-14e0aa0a7239-006</v>
+        <v>63092328-1944-01d3-8aa1-8572878387ed-006</v>
       </c>
       <c r="AJ6" s="104" t="str">
         <f t="shared" si="3"/>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="AK6" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>6837c7a5-7f2b-a41a-17af-14e0aa0a7239-006</v>
+        <v>63092328-1944-01d3-8aa1-8572878387ed-006</v>
       </c>
       <c r="AL6" s="104">
         <f t="shared" si="5"/>
@@ -3805,10 +3805,10 @@
       </c>
       <c r="AZ6" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS6837C7A57F2BA41A17</v>
+        <v>CS63092328194401D38A</v>
       </c>
     </row>
-    <row r="7" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="99">
         <f t="shared" si="16"/>
         <v>0.34027777777777773</v>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="N7" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>558fdc4c-51b7-1ff8-809e-77a253d99d4c-007</v>
+        <v>8937acec-8aaa-0ff3-52e3-1cb977036475-007</v>
       </c>
       <c r="O7" s="90" t="str">
         <f t="shared" si="20"/>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="Q7" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>558fdc4c-51b7-1ff8-809e-77a253d99d4c-007</v>
+        <v>8937acec-8aaa-0ff3-52e3-1cb977036475-007</v>
       </c>
       <c r="R7" s="93">
         <f t="shared" si="33"/>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="AC7" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS558FDC4C51B71FF880</v>
+        <v>CS8937ACEC8AAA0FF352</v>
       </c>
       <c r="AD7" s="91" t="s">
         <v>94</v>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="AI7" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>558fdc4c-51b7-1ff8-809e-77a253d99d4c-007</v>
+        <v>8937acec-8aaa-0ff3-52e3-1cb977036475-007</v>
       </c>
       <c r="AJ7" s="104" t="str">
         <f t="shared" si="3"/>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="AK7" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>558fdc4c-51b7-1ff8-809e-77a253d99d4c-007</v>
+        <v>8937acec-8aaa-0ff3-52e3-1cb977036475-007</v>
       </c>
       <c r="AL7" s="104">
         <f t="shared" si="5"/>
@@ -3975,10 +3975,10 @@
       </c>
       <c r="AZ7" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS558FDC4C51B71FF880</v>
+        <v>CS8937ACEC8AAA0FF352</v>
       </c>
     </row>
-    <row r="8" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="99">
         <f t="shared" si="16"/>
         <v>0.34027777777777773</v>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="N8" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>d1498d17-2bc4-3e71-4c1d-12f1ca7512a3-008</v>
+        <v>949cfca4-2af4-7e94-5a66-8c5582ae4060-008</v>
       </c>
       <c r="O8" s="90" t="str">
         <f t="shared" si="20"/>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="Q8" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>d1498d17-2bc4-3e71-4c1d-12f1ca7512a3-008</v>
+        <v>949cfca4-2af4-7e94-5a66-8c5582ae4060-008</v>
       </c>
       <c r="R8" s="93">
         <f t="shared" si="33"/>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="AC8" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSD1498D172BC43E714C</v>
+        <v>CS949CFCA42AF47E945A</v>
       </c>
       <c r="AD8" s="91" t="s">
         <v>94</v>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="AI8" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>d1498d17-2bc4-3e71-4c1d-12f1ca7512a3-008</v>
+        <v>949cfca4-2af4-7e94-5a66-8c5582ae4060-008</v>
       </c>
       <c r="AJ8" s="104" t="str">
         <f t="shared" si="3"/>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="AK8" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d1498d17-2bc4-3e71-4c1d-12f1ca7512a3-008</v>
+        <v>949cfca4-2af4-7e94-5a66-8c5582ae4060-008</v>
       </c>
       <c r="AL8" s="104">
         <f t="shared" si="5"/>
@@ -4147,10 +4147,10 @@
       </c>
       <c r="AZ8" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CSD1498D172BC43E714C</v>
+        <v>CS949CFCA42AF47E945A</v>
       </c>
     </row>
-    <row r="9" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="111">
         <f>Instructions!A9</f>
         <v>0.38194444444444442</v>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="N9" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>569a4158-543d-9986-4258-299a33603d8d-009</v>
+        <v>b7070ed3-0c56-a6ad-45ef-5c3a92c496ff-009</v>
       </c>
       <c r="O9" s="90" t="str">
         <f t="shared" si="20"/>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="Q9" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>569a4158-543d-9986-4258-299a33603d8d-009</v>
+        <v>b7070ed3-0c56-a6ad-45ef-5c3a92c496ff-009</v>
       </c>
       <c r="R9" s="93">
         <f t="shared" si="33"/>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="AC9" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS569A4158543D998642</v>
+        <v>CSB7070ED30C56A6AD45</v>
       </c>
       <c r="AD9" s="91" t="s">
         <v>94</v>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="AI9" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>569a4158-543d-9986-4258-299a33603d8d-009</v>
+        <v>b7070ed3-0c56-a6ad-45ef-5c3a92c496ff-009</v>
       </c>
       <c r="AJ9" s="104" t="str">
         <f t="shared" si="3"/>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="AK9" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>569a4158-543d-9986-4258-299a33603d8d-009</v>
+        <v>b7070ed3-0c56-a6ad-45ef-5c3a92c496ff-009</v>
       </c>
       <c r="AL9" s="104">
         <f t="shared" si="5"/>
@@ -4317,10 +4317,10 @@
       </c>
       <c r="AZ9" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS569A4158543D998642</v>
+        <v>CSB7070ED30C56A6AD45</v>
       </c>
     </row>
-    <row r="10" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="111">
         <f t="shared" ref="A10:A17" si="36">A9</f>
         <v>0.38194444444444442</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="N10" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>9dbcfb11-5ecd-7f75-6bfc-c886e5398f11-010</v>
+        <v>e1476f94-92b5-53a8-294b-22479ec3a206-010</v>
       </c>
       <c r="O10" s="90" t="str">
         <f t="shared" si="20"/>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="Q10" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>9dbcfb11-5ecd-7f75-6bfc-c886e5398f11-010</v>
+        <v>e1476f94-92b5-53a8-294b-22479ec3a206-010</v>
       </c>
       <c r="R10" s="93">
         <f t="shared" si="33"/>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="AC10" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS9DBCFB115ECD7F756B</v>
+        <v>CSE1476F9492B553A829</v>
       </c>
       <c r="AD10" s="91" t="s">
         <v>94</v>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="AI10" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>9dbcfb11-5ecd-7f75-6bfc-c886e5398f11-010</v>
+        <v>e1476f94-92b5-53a8-294b-22479ec3a206-010</v>
       </c>
       <c r="AJ10" s="104" t="str">
         <f t="shared" si="3"/>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="AK10" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>9dbcfb11-5ecd-7f75-6bfc-c886e5398f11-010</v>
+        <v>e1476f94-92b5-53a8-294b-22479ec3a206-010</v>
       </c>
       <c r="AL10" s="104">
         <f t="shared" si="5"/>
@@ -4487,10 +4487,10 @@
       </c>
       <c r="AZ10" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS9DBCFB115ECD7F756B</v>
+        <v>CSE1476F9492B553A829</v>
       </c>
     </row>
-    <row r="11" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="111">
         <f t="shared" si="36"/>
         <v>0.38194444444444442</v>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="N11" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>99b17c01-8317-9b81-764e-915c27004110-011</v>
+        <v>a81c2b6f-51c1-7488-25e8-460f2b6c610a-011</v>
       </c>
       <c r="O11" s="90" t="str">
         <f t="shared" si="20"/>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="Q11" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>99b17c01-8317-9b81-764e-915c27004110-011</v>
+        <v>a81c2b6f-51c1-7488-25e8-460f2b6c610a-011</v>
       </c>
       <c r="R11" s="93">
         <f t="shared" si="33"/>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="AC11" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS99B17C0183179B8176</v>
+        <v>CSA81C2B6F51C1748825</v>
       </c>
       <c r="AD11" s="91" t="s">
         <v>94</v>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="AI11" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>99b17c01-8317-9b81-764e-915c27004110-011</v>
+        <v>a81c2b6f-51c1-7488-25e8-460f2b6c610a-011</v>
       </c>
       <c r="AJ11" s="104" t="str">
         <f t="shared" si="3"/>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="AK11" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>99b17c01-8317-9b81-764e-915c27004110-011</v>
+        <v>a81c2b6f-51c1-7488-25e8-460f2b6c610a-011</v>
       </c>
       <c r="AL11" s="104">
         <f t="shared" si="5"/>
@@ -4657,10 +4657,10 @@
       </c>
       <c r="AZ11" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS99B17C0183179B8176</v>
+        <v>CSA81C2B6F51C1748825</v>
       </c>
     </row>
-    <row r="12" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="111">
         <f t="shared" si="36"/>
         <v>0.38194444444444442</v>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="N12" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>6d3443a6-a5e7-2e0c-8354-f57c58d27a33-012</v>
+        <v>8be0a412-1b23-5d4f-8646-303b12104eb0-012</v>
       </c>
       <c r="O12" s="90" t="str">
         <f t="shared" si="20"/>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="Q12" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>6d3443a6-a5e7-2e0c-8354-f57c58d27a33-012</v>
+        <v>8be0a412-1b23-5d4f-8646-303b12104eb0-012</v>
       </c>
       <c r="R12" s="93">
         <f t="shared" si="33"/>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="AC12" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS6D3443A6A5E72E0C83</v>
+        <v>CS8BE0A4121B235D4F86</v>
       </c>
       <c r="AD12" s="91" t="s">
         <v>94</v>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="AI12" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>6d3443a6-a5e7-2e0c-8354-f57c58d27a33-012</v>
+        <v>8be0a412-1b23-5d4f-8646-303b12104eb0-012</v>
       </c>
       <c r="AJ12" s="104" t="str">
         <f t="shared" si="3"/>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="AK12" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>6d3443a6-a5e7-2e0c-8354-f57c58d27a33-012</v>
+        <v>8be0a412-1b23-5d4f-8646-303b12104eb0-012</v>
       </c>
       <c r="AL12" s="104">
         <f t="shared" si="5"/>
@@ -4827,10 +4827,10 @@
       </c>
       <c r="AZ12" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS6D3443A6A5E72E0C83</v>
+        <v>CS8BE0A4121B235D4F86</v>
       </c>
     </row>
-    <row r="13" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="111">
         <f t="shared" si="36"/>
         <v>0.38194444444444442</v>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="N13" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>55f71760-111e-2e9b-29aa-b0fa662b0370-013</v>
+        <v>83cfe5f6-8f27-0d7d-07ef-af1bef552abe-013</v>
       </c>
       <c r="O13" s="90" t="str">
         <f t="shared" si="20"/>
@@ -4878,7 +4878,7 @@
       </c>
       <c r="Q13" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>55f71760-111e-2e9b-29aa-b0fa662b0370-013</v>
+        <v>83cfe5f6-8f27-0d7d-07ef-af1bef552abe-013</v>
       </c>
       <c r="R13" s="93">
         <f t="shared" si="33"/>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="AC13" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS55F71760111E2E9B29</v>
+        <v>CS83CFE5F68F270D7D07</v>
       </c>
       <c r="AD13" s="91" t="s">
         <v>94</v>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="AI13" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>55f71760-111e-2e9b-29aa-b0fa662b0370-013</v>
+        <v>83cfe5f6-8f27-0d7d-07ef-af1bef552abe-013</v>
       </c>
       <c r="AJ13" s="104" t="str">
         <f t="shared" si="3"/>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="AK13" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>55f71760-111e-2e9b-29aa-b0fa662b0370-013</v>
+        <v>83cfe5f6-8f27-0d7d-07ef-af1bef552abe-013</v>
       </c>
       <c r="AL13" s="104">
         <f t="shared" si="5"/>
@@ -4997,10 +4997,10 @@
       </c>
       <c r="AZ13" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS55F71760111E2E9B29</v>
+        <v>CS83CFE5F68F270D7D07</v>
       </c>
     </row>
-    <row r="14" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="111">
         <f t="shared" si="36"/>
         <v>0.38194444444444442</v>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="N14" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>49edd58a-a631-52fd-0a26-a760d35a551a-014</v>
+        <v>162996a5-a790-4625-2830-ba3350274034-014</v>
       </c>
       <c r="O14" s="90" t="str">
         <f t="shared" si="20"/>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="Q14" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>49edd58a-a631-52fd-0a26-a760d35a551a-014</v>
+        <v>162996a5-a790-4625-2830-ba3350274034-014</v>
       </c>
       <c r="R14" s="93">
         <f t="shared" si="33"/>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="AC14" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS49EDD58AA63152FD0A</v>
+        <v>CS162996A5A790462528</v>
       </c>
       <c r="AD14" s="91" t="s">
         <v>94</v>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="AI14" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>49edd58a-a631-52fd-0a26-a760d35a551a-014</v>
+        <v>162996a5-a790-4625-2830-ba3350274034-014</v>
       </c>
       <c r="AJ14" s="104" t="str">
         <f t="shared" si="3"/>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="AK14" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>49edd58a-a631-52fd-0a26-a760d35a551a-014</v>
+        <v>162996a5-a790-4625-2830-ba3350274034-014</v>
       </c>
       <c r="AL14" s="104">
         <f t="shared" si="5"/>
@@ -5167,10 +5167,10 @@
       </c>
       <c r="AZ14" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS49EDD58AA63152FD0A</v>
+        <v>CS162996A5A790462528</v>
       </c>
     </row>
-    <row r="15" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="111">
         <f t="shared" si="36"/>
         <v>0.38194444444444442</v>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="N15" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>af2b5044-1751-997a-3ee6-b1055eb58317-015</v>
+        <v>4b3b19b3-0622-7371-7f96-831a2cfd4e36-015</v>
       </c>
       <c r="O15" s="90" t="str">
         <f t="shared" si="20"/>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="Q15" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>af2b5044-1751-997a-3ee6-b1055eb58317-015</v>
+        <v>4b3b19b3-0622-7371-7f96-831a2cfd4e36-015</v>
       </c>
       <c r="R15" s="93">
         <f t="shared" si="33"/>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="AC15" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSAF2B50441751997A3E</v>
+        <v>CS4B3B19B3062273717F</v>
       </c>
       <c r="AD15" s="91" t="s">
         <v>94</v>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="AI15" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>af2b5044-1751-997a-3ee6-b1055eb58317-015</v>
+        <v>4b3b19b3-0622-7371-7f96-831a2cfd4e36-015</v>
       </c>
       <c r="AJ15" s="104" t="str">
         <f t="shared" si="3"/>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="AK15" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>af2b5044-1751-997a-3ee6-b1055eb58317-015</v>
+        <v>4b3b19b3-0622-7371-7f96-831a2cfd4e36-015</v>
       </c>
       <c r="AL15" s="104">
         <f t="shared" si="5"/>
@@ -5337,10 +5337,10 @@
       </c>
       <c r="AZ15" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CSAF2B50441751997A3E</v>
+        <v>CS4B3B19B3062273717F</v>
       </c>
     </row>
-    <row r="16" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="111">
         <f t="shared" si="36"/>
         <v>0.38194444444444442</v>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="N16" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>db63dd93-47da-48bc-5016-27b13a1c83de-016</v>
+        <v>f50ae3b0-8424-89f2-1ad8-55e7f3eb8dc4-016</v>
       </c>
       <c r="O16" s="90" t="str">
         <f t="shared" si="20"/>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="Q16" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>db63dd93-47da-48bc-5016-27b13a1c83de-016</v>
+        <v>f50ae3b0-8424-89f2-1ad8-55e7f3eb8dc4-016</v>
       </c>
       <c r="R16" s="93">
         <f t="shared" si="33"/>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="AC16" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSDB63DD9347DA48BC50</v>
+        <v>CSF50AE3B0842489F21A</v>
       </c>
       <c r="AD16" s="91" t="s">
         <v>94</v>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="AI16" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>db63dd93-47da-48bc-5016-27b13a1c83de-016</v>
+        <v>f50ae3b0-8424-89f2-1ad8-55e7f3eb8dc4-016</v>
       </c>
       <c r="AJ16" s="104" t="str">
         <f t="shared" si="3"/>
@@ -5452,7 +5452,7 @@
       </c>
       <c r="AK16" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>db63dd93-47da-48bc-5016-27b13a1c83de-016</v>
+        <v>f50ae3b0-8424-89f2-1ad8-55e7f3eb8dc4-016</v>
       </c>
       <c r="AL16" s="104">
         <f t="shared" si="5"/>
@@ -5507,10 +5507,10 @@
       </c>
       <c r="AZ16" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CSDB63DD9347DA48BC50</v>
+        <v>CSF50AE3B0842489F21A</v>
       </c>
     </row>
-    <row r="17" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="111">
         <f t="shared" si="36"/>
         <v>0.38194444444444442</v>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="N17" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>470b23f3-846f-2d49-7ac3-5dd634a704d3-017</v>
+        <v>0fe9b77e-50dd-3dd6-22a9-f5e714883e96-017</v>
       </c>
       <c r="O17" s="90" t="str">
         <f t="shared" si="20"/>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="Q17" s="93" t="str">
         <f t="shared" ca="1" si="32"/>
-        <v>470b23f3-846f-2d49-7ac3-5dd634a704d3-017</v>
+        <v>0fe9b77e-50dd-3dd6-22a9-f5e714883e96-017</v>
       </c>
       <c r="R17" s="93">
         <f t="shared" si="33"/>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="AC17" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS470B23F3846F2D497A</v>
+        <v>CS0FE9B77E50DD3DD622</v>
       </c>
       <c r="AD17" s="91" t="s">
         <v>94</v>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="AI17" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>470b23f3-846f-2d49-7ac3-5dd634a704d3-017</v>
+        <v>0fe9b77e-50dd-3dd6-22a9-f5e714883e96-017</v>
       </c>
       <c r="AJ17" s="104" t="str">
         <f t="shared" si="3"/>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="AK17" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>470b23f3-846f-2d49-7ac3-5dd634a704d3-017</v>
+        <v>0fe9b77e-50dd-3dd6-22a9-f5e714883e96-017</v>
       </c>
       <c r="AL17" s="104">
         <f t="shared" si="5"/>
@@ -5681,10 +5681,10 @@
       </c>
       <c r="AZ17" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS470B23F3846F2D497A</v>
+        <v>CS0FE9B77E50DD3DD622</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="99">
         <f>A2</f>
         <v>0.34027777777777773</v>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="N18" s="90" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))&amp;"-"&amp;TEXT(ROW(),"000")</f>
-        <v>39d85643-8c59-10f8-64b9-f89fb0638b21-018</v>
+        <v>214fa297-2bd8-732f-6c6b-6223fc4d95fb-018</v>
       </c>
       <c r="O18" s="90" t="str">
         <f t="shared" si="20"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="Q18" s="90" t="str">
         <f ca="1">N18</f>
-        <v>39d85643-8c59-10f8-64b9-f89fb0638b21-018</v>
+        <v>214fa297-2bd8-732f-6c6b-6223fc4d95fb-018</v>
       </c>
       <c r="R18" s="93">
         <f t="shared" si="33"/>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="AC18" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS39D856438C5910F864</v>
+        <v>CS214FA2972BD8732F6C</v>
       </c>
       <c r="AD18" s="91" t="s">
         <v>94</v>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="AI18" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>39d85643-8c59-10f8-64b9-f89fb0638b21-018</v>
+        <v>214fa297-2bd8-732f-6c6b-6223fc4d95fb-018</v>
       </c>
       <c r="AJ18" s="104" t="str">
         <f t="shared" si="3"/>
@@ -5798,7 +5798,7 @@
       </c>
       <c r="AK18" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>39d85643-8c59-10f8-64b9-f89fb0638b21-018</v>
+        <v>214fa297-2bd8-732f-6c6b-6223fc4d95fb-018</v>
       </c>
       <c r="AL18" s="104">
         <f t="shared" si="5"/>
@@ -5853,10 +5853,10 @@
       </c>
       <c r="AZ18" s="103" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>CS39D856438C5910F864</v>
+        <v>CS214FA2972BD8732F6C</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="99">
         <f t="shared" ref="A19:A33" si="37">A3</f>
         <v>0.34027777777777773</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="N19" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>f23c1417-4419-665b-1d5e-55b567d25a00-019</v>
+        <v>edfdd981-088d-92b2-3c31-e6e35b930124-019</v>
       </c>
       <c r="O19" s="90" t="str">
         <f t="shared" si="20"/>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="Q19" s="93" t="str">
         <f t="shared" ref="Q19:Q33" ca="1" si="39">N19</f>
-        <v>f23c1417-4419-665b-1d5e-55b567d25a00-019</v>
+        <v>edfdd981-088d-92b2-3c31-e6e35b930124-019</v>
       </c>
       <c r="R19" s="93">
         <f t="shared" si="33"/>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="AC19" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSF23C14174419665B1D</v>
+        <v>CSEDFDD981088D92B23C</v>
       </c>
       <c r="AD19" s="91" t="s">
         <v>94</v>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="AI19" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>f23c1417-4419-665b-1d5e-55b567d25a00-019</v>
+        <v>edfdd981-088d-92b2-3c31-e6e35b930124-019</v>
       </c>
       <c r="AJ19" s="104" t="str">
         <f t="shared" si="3"/>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="AK19" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>f23c1417-4419-665b-1d5e-55b567d25a00-019</v>
+        <v>edfdd981-088d-92b2-3c31-e6e35b930124-019</v>
       </c>
       <c r="AL19" s="104">
         <f t="shared" si="5"/>
@@ -6023,10 +6023,10 @@
       </c>
       <c r="AZ19" s="103" t="str">
         <f t="shared" ref="AZ19:AZ33" ca="1" si="44">AC19</f>
-        <v>CSF23C14174419665B1D</v>
+        <v>CSEDFDD981088D92B23C</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="99">
         <f t="shared" si="37"/>
         <v>0.34027777777777773</v>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="N20" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>2867f7bf-4c21-60ac-261a-109c192a2705-020</v>
+        <v>2249310e-3255-351f-82c4-4c9c22079ae8-020</v>
       </c>
       <c r="O20" s="90" t="str">
         <f t="shared" si="20"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="Q20" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>2867f7bf-4c21-60ac-261a-109c192a2705-020</v>
+        <v>2249310e-3255-351f-82c4-4c9c22079ae8-020</v>
       </c>
       <c r="R20" s="93">
         <f t="shared" si="33"/>
@@ -6120,7 +6120,7 @@
       </c>
       <c r="AC20" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS2867F7BF4C2160AC26</v>
+        <v>CS2249310E3255351F82</v>
       </c>
       <c r="AD20" s="91" t="s">
         <v>94</v>
@@ -6130,7 +6130,7 @@
       </c>
       <c r="AI20" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2867f7bf-4c21-60ac-261a-109c192a2705-020</v>
+        <v>2249310e-3255-351f-82c4-4c9c22079ae8-020</v>
       </c>
       <c r="AJ20" s="104" t="str">
         <f t="shared" si="3"/>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="AK20" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2867f7bf-4c21-60ac-261a-109c192a2705-020</v>
+        <v>2249310e-3255-351f-82c4-4c9c22079ae8-020</v>
       </c>
       <c r="AL20" s="104">
         <f t="shared" si="5"/>
@@ -6193,10 +6193,10 @@
       </c>
       <c r="AZ20" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CS2867F7BF4C2160AC26</v>
+        <v>CS2249310E3255351F82</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="99">
         <f t="shared" si="37"/>
         <v>0.34027777777777773</v>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="N21" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>f479faad-4a80-63f8-9183-f608f54a103c-021</v>
+        <v>b64cba8f-1774-1b6f-5159-6b2b76b53cc7-021</v>
       </c>
       <c r="O21" s="90" t="str">
         <f t="shared" si="20"/>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="Q21" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>f479faad-4a80-63f8-9183-f608f54a103c-021</v>
+        <v>b64cba8f-1774-1b6f-5159-6b2b76b53cc7-021</v>
       </c>
       <c r="R21" s="93">
         <f t="shared" si="33"/>
@@ -6290,7 +6290,7 @@
       </c>
       <c r="AC21" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSF479FAAD4A8063F891</v>
+        <v>CSB64CBA8F17741B6F51</v>
       </c>
       <c r="AD21" s="91" t="s">
         <v>94</v>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="AI21" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>f479faad-4a80-63f8-9183-f608f54a103c-021</v>
+        <v>b64cba8f-1774-1b6f-5159-6b2b76b53cc7-021</v>
       </c>
       <c r="AJ21" s="104" t="str">
         <f t="shared" si="3"/>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="AK21" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>f479faad-4a80-63f8-9183-f608f54a103c-021</v>
+        <v>b64cba8f-1774-1b6f-5159-6b2b76b53cc7-021</v>
       </c>
       <c r="AL21" s="104">
         <f t="shared" si="5"/>
@@ -6363,10 +6363,10 @@
       </c>
       <c r="AZ21" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CSF479FAAD4A8063F891</v>
+        <v>CSB64CBA8F17741B6F51</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="99">
         <f t="shared" si="37"/>
         <v>0.34027777777777773</v>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="N22" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>c30ef92c-5848-59b2-8f73-9f80c4011bdc-022</v>
+        <v>28277d8e-7430-691f-064d-77d303a53cc8-022</v>
       </c>
       <c r="O22" s="90" t="str">
         <f t="shared" si="20"/>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="Q22" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>c30ef92c-5848-59b2-8f73-9f80c4011bdc-022</v>
+        <v>28277d8e-7430-691f-064d-77d303a53cc8-022</v>
       </c>
       <c r="R22" s="93">
         <f t="shared" si="33"/>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="AC22" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSC30EF92C584859B28F</v>
+        <v>CS28277D8E7430691F06</v>
       </c>
       <c r="AD22" s="91" t="s">
         <v>94</v>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="AI22" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>c30ef92c-5848-59b2-8f73-9f80c4011bdc-022</v>
+        <v>28277d8e-7430-691f-064d-77d303a53cc8-022</v>
       </c>
       <c r="AJ22" s="104" t="str">
         <f t="shared" si="3"/>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="AK22" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>c30ef92c-5848-59b2-8f73-9f80c4011bdc-022</v>
+        <v>28277d8e-7430-691f-064d-77d303a53cc8-022</v>
       </c>
       <c r="AL22" s="104">
         <f t="shared" si="5"/>
@@ -6533,10 +6533,10 @@
       </c>
       <c r="AZ22" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CSC30EF92C584859B28F</v>
+        <v>CS28277D8E7430691F06</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="99">
         <f t="shared" si="37"/>
         <v>0.34027777777777773</v>
@@ -6572,7 +6572,7 @@
       </c>
       <c r="N23" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1e27a1fe-2c0d-5478-66e6-5cc048e44116-023</v>
+        <v>ea172f60-46da-3068-214b-2b9effad6b34-023</v>
       </c>
       <c r="O23" s="90" t="str">
         <f t="shared" si="20"/>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="Q23" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>1e27a1fe-2c0d-5478-66e6-5cc048e44116-023</v>
+        <v>ea172f60-46da-3068-214b-2b9effad6b34-023</v>
       </c>
       <c r="R23" s="93">
         <f t="shared" si="33"/>
@@ -6630,7 +6630,7 @@
       </c>
       <c r="AC23" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS1E27A1FE2C0D547866</v>
+        <v>CSEA172F6046DA306821</v>
       </c>
       <c r="AD23" s="91" t="s">
         <v>94</v>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="AI23" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1e27a1fe-2c0d-5478-66e6-5cc048e44116-023</v>
+        <v>ea172f60-46da-3068-214b-2b9effad6b34-023</v>
       </c>
       <c r="AJ23" s="104" t="str">
         <f t="shared" si="3"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="AK23" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1e27a1fe-2c0d-5478-66e6-5cc048e44116-023</v>
+        <v>ea172f60-46da-3068-214b-2b9effad6b34-023</v>
       </c>
       <c r="AL23" s="104">
         <f t="shared" si="5"/>
@@ -6703,10 +6703,10 @@
       </c>
       <c r="AZ23" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CS1E27A1FE2C0D547866</v>
+        <v>CSEA172F6046DA306821</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="99">
         <f t="shared" si="37"/>
         <v>0.34027777777777773</v>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="N24" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>2bd175f1-53f4-129c-6701-e75f432b8600-024</v>
+        <v>257d448d-013d-1cbe-9e1f-1af77d50307a-024</v>
       </c>
       <c r="O24" s="90" t="str">
         <f t="shared" si="20"/>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="Q24" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>2bd175f1-53f4-129c-6701-e75f432b8600-024</v>
+        <v>257d448d-013d-1cbe-9e1f-1af77d50307a-024</v>
       </c>
       <c r="R24" s="93">
         <f t="shared" si="33"/>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="AC24" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS2BD175F153F4129C67</v>
+        <v>CS257D448D013D1CBE9E</v>
       </c>
       <c r="AD24" s="91" t="s">
         <v>94</v>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="AI24" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2bd175f1-53f4-129c-6701-e75f432b8600-024</v>
+        <v>257d448d-013d-1cbe-9e1f-1af77d50307a-024</v>
       </c>
       <c r="AJ24" s="104" t="str">
         <f t="shared" si="3"/>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="AK24" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2bd175f1-53f4-129c-6701-e75f432b8600-024</v>
+        <v>257d448d-013d-1cbe-9e1f-1af77d50307a-024</v>
       </c>
       <c r="AL24" s="104">
         <f t="shared" si="5"/>
@@ -6873,10 +6873,10 @@
       </c>
       <c r="AZ24" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CS2BD175F153F4129C67</v>
+        <v>CS257D448D013D1CBE9E</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="99">
         <f t="shared" si="37"/>
         <v>0.38194444444444442</v>
@@ -6912,7 +6912,7 @@
       </c>
       <c r="N25" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1450a2b2-7d83-3f73-0aa4-09ea7b8367e0-025</v>
+        <v>74b48b0c-956b-96ff-955e-e223d8bc0e20-025</v>
       </c>
       <c r="O25" s="90" t="str">
         <f t="shared" si="20"/>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="Q25" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>1450a2b2-7d83-3f73-0aa4-09ea7b8367e0-025</v>
+        <v>74b48b0c-956b-96ff-955e-e223d8bc0e20-025</v>
       </c>
       <c r="R25" s="93">
         <f t="shared" si="33"/>
@@ -6970,7 +6970,7 @@
       </c>
       <c r="AC25" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS1450A2B27D833F730A</v>
+        <v>CS74B48B0C956B96FF95</v>
       </c>
       <c r="AD25" s="91" t="s">
         <v>94</v>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="AI25" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1450a2b2-7d83-3f73-0aa4-09ea7b8367e0-025</v>
+        <v>74b48b0c-956b-96ff-955e-e223d8bc0e20-025</v>
       </c>
       <c r="AJ25" s="104" t="str">
         <f t="shared" si="3"/>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="AK25" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1450a2b2-7d83-3f73-0aa4-09ea7b8367e0-025</v>
+        <v>74b48b0c-956b-96ff-955e-e223d8bc0e20-025</v>
       </c>
       <c r="AL25" s="104">
         <f t="shared" si="5"/>
@@ -7043,10 +7043,10 @@
       </c>
       <c r="AZ25" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CS1450A2B27D833F730A</v>
+        <v>CS74B48B0C956B96FF95</v>
       </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="99">
         <f t="shared" si="37"/>
         <v>0.38194444444444442</v>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="N26" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>08f7b09f-4423-5883-09b9-3b9995824854-026</v>
+        <v>79c310ba-4e33-6865-8f3c-1a497efc9256-026</v>
       </c>
       <c r="O26" s="90" t="str">
         <f t="shared" si="20"/>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="Q26" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>08f7b09f-4423-5883-09b9-3b9995824854-026</v>
+        <v>79c310ba-4e33-6865-8f3c-1a497efc9256-026</v>
       </c>
       <c r="R26" s="93">
         <f t="shared" si="33"/>
@@ -7140,7 +7140,7 @@
       </c>
       <c r="AC26" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS08F7B09F4423588309</v>
+        <v>CS79C310BA4E3368658F</v>
       </c>
       <c r="AD26" s="91" t="s">
         <v>94</v>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="AI26" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>08f7b09f-4423-5883-09b9-3b9995824854-026</v>
+        <v>79c310ba-4e33-6865-8f3c-1a497efc9256-026</v>
       </c>
       <c r="AJ26" s="104" t="str">
         <f t="shared" si="3"/>
@@ -7158,7 +7158,7 @@
       </c>
       <c r="AK26" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>08f7b09f-4423-5883-09b9-3b9995824854-026</v>
+        <v>79c310ba-4e33-6865-8f3c-1a497efc9256-026</v>
       </c>
       <c r="AL26" s="104">
         <f t="shared" si="5"/>
@@ -7213,10 +7213,10 @@
       </c>
       <c r="AZ26" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CS08F7B09F4423588309</v>
+        <v>CS79C310BA4E3368658F</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="99">
         <f t="shared" si="37"/>
         <v>0.38194444444444442</v>
@@ -7252,7 +7252,7 @@
       </c>
       <c r="N27" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>bfcc5cd7-8e2d-2b22-a3cd-8db233d35afd-027</v>
+        <v>813d3895-193e-2ad5-6607-c98384e64dbc-027</v>
       </c>
       <c r="O27" s="90" t="str">
         <f t="shared" si="20"/>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="Q27" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>bfcc5cd7-8e2d-2b22-a3cd-8db233d35afd-027</v>
+        <v>813d3895-193e-2ad5-6607-c98384e64dbc-027</v>
       </c>
       <c r="R27" s="93">
         <f t="shared" si="33"/>
@@ -7310,7 +7310,7 @@
       </c>
       <c r="AC27" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSBFCC5CD78E2D2B22A3</v>
+        <v>CS813D3895193E2AD566</v>
       </c>
       <c r="AD27" s="91" t="s">
         <v>94</v>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="AI27" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>bfcc5cd7-8e2d-2b22-a3cd-8db233d35afd-027</v>
+        <v>813d3895-193e-2ad5-6607-c98384e64dbc-027</v>
       </c>
       <c r="AJ27" s="104" t="str">
         <f t="shared" si="3"/>
@@ -7328,7 +7328,7 @@
       </c>
       <c r="AK27" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>bfcc5cd7-8e2d-2b22-a3cd-8db233d35afd-027</v>
+        <v>813d3895-193e-2ad5-6607-c98384e64dbc-027</v>
       </c>
       <c r="AL27" s="104">
         <f t="shared" si="5"/>
@@ -7383,10 +7383,10 @@
       </c>
       <c r="AZ27" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CSBFCC5CD78E2D2B22A3</v>
+        <v>CS813D3895193E2AD566</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="99">
         <f t="shared" si="37"/>
         <v>0.38194444444444442</v>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="N28" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>7998e96b-3b71-5fbd-71ff-120f077aa646-028</v>
+        <v>ad81d9a9-6094-3a3d-956d-62b5a37d165a-028</v>
       </c>
       <c r="O28" s="90" t="str">
         <f t="shared" si="20"/>
@@ -7434,7 +7434,7 @@
       </c>
       <c r="Q28" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>7998e96b-3b71-5fbd-71ff-120f077aa646-028</v>
+        <v>ad81d9a9-6094-3a3d-956d-62b5a37d165a-028</v>
       </c>
       <c r="R28" s="93">
         <f t="shared" si="33"/>
@@ -7480,7 +7480,7 @@
       </c>
       <c r="AC28" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS7998E96B3B715FBD71</v>
+        <v>CSAD81D9A960943A3D95</v>
       </c>
       <c r="AD28" s="91" t="s">
         <v>94</v>
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AI28" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>7998e96b-3b71-5fbd-71ff-120f077aa646-028</v>
+        <v>ad81d9a9-6094-3a3d-956d-62b5a37d165a-028</v>
       </c>
       <c r="AJ28" s="104" t="str">
         <f t="shared" si="3"/>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="AK28" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>7998e96b-3b71-5fbd-71ff-120f077aa646-028</v>
+        <v>ad81d9a9-6094-3a3d-956d-62b5a37d165a-028</v>
       </c>
       <c r="AL28" s="104">
         <f t="shared" si="5"/>
@@ -7553,10 +7553,10 @@
       </c>
       <c r="AZ28" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CS7998E96B3B715FBD71</v>
+        <v>CSAD81D9A960943A3D95</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="99">
         <f t="shared" si="37"/>
         <v>0.38194444444444442</v>
@@ -7592,7 +7592,7 @@
       </c>
       <c r="N29" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>e041d60b-51ef-7212-4830-606714361cea-029</v>
+        <v>82ed2ae1-719d-30cd-3571-c87d01c10d41-029</v>
       </c>
       <c r="O29" s="90" t="str">
         <f t="shared" si="20"/>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="Q29" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>e041d60b-51ef-7212-4830-606714361cea-029</v>
+        <v>82ed2ae1-719d-30cd-3571-c87d01c10d41-029</v>
       </c>
       <c r="R29" s="93">
         <f t="shared" si="33"/>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="AC29" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSE041D60B51EF721248</v>
+        <v>CS82ED2AE1719D30CD35</v>
       </c>
       <c r="AD29" s="91" t="s">
         <v>94</v>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="AI29" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>e041d60b-51ef-7212-4830-606714361cea-029</v>
+        <v>82ed2ae1-719d-30cd-3571-c87d01c10d41-029</v>
       </c>
       <c r="AJ29" s="104" t="str">
         <f t="shared" si="3"/>
@@ -7668,7 +7668,7 @@
       </c>
       <c r="AK29" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>e041d60b-51ef-7212-4830-606714361cea-029</v>
+        <v>82ed2ae1-719d-30cd-3571-c87d01c10d41-029</v>
       </c>
       <c r="AL29" s="104">
         <f t="shared" si="5"/>
@@ -7723,10 +7723,10 @@
       </c>
       <c r="AZ29" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CSE041D60B51EF721248</v>
+        <v>CS82ED2AE1719D30CD35</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="99">
         <f t="shared" si="37"/>
         <v>0.38194444444444442</v>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="N30" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>d7569583-2b61-3cd4-5e81-7b7f2c000f2f-030</v>
+        <v>52ed80fd-a31a-3077-574d-a893df6709b8-030</v>
       </c>
       <c r="O30" s="90" t="str">
         <f t="shared" si="20"/>
@@ -7774,7 +7774,7 @@
       </c>
       <c r="Q30" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>d7569583-2b61-3cd4-5e81-7b7f2c000f2f-030</v>
+        <v>52ed80fd-a31a-3077-574d-a893df6709b8-030</v>
       </c>
       <c r="R30" s="93">
         <f t="shared" si="33"/>
@@ -7820,7 +7820,7 @@
       </c>
       <c r="AC30" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSD75695832B613CD45E</v>
+        <v>CS52ED80FDA31A307757</v>
       </c>
       <c r="AD30" s="91" t="s">
         <v>94</v>
@@ -7830,7 +7830,7 @@
       </c>
       <c r="AI30" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>d7569583-2b61-3cd4-5e81-7b7f2c000f2f-030</v>
+        <v>52ed80fd-a31a-3077-574d-a893df6709b8-030</v>
       </c>
       <c r="AJ30" s="104" t="str">
         <f t="shared" si="3"/>
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AK30" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d7569583-2b61-3cd4-5e81-7b7f2c000f2f-030</v>
+        <v>52ed80fd-a31a-3077-574d-a893df6709b8-030</v>
       </c>
       <c r="AL30" s="104">
         <f t="shared" si="5"/>
@@ -7893,10 +7893,10 @@
       </c>
       <c r="AZ30" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CSD75695832B613CD45E</v>
+        <v>CS52ED80FDA31A307757</v>
       </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="99">
         <f t="shared" si="37"/>
         <v>0.38194444444444442</v>
@@ -7932,7 +7932,7 @@
       </c>
       <c r="N31" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1ab4d3c9-8bf5-525e-9542-b7080262507c-031</v>
+        <v>a1e3b995-19bf-16d9-41d7-d726ee419945-031</v>
       </c>
       <c r="O31" s="90" t="str">
         <f t="shared" si="20"/>
@@ -7944,7 +7944,7 @@
       </c>
       <c r="Q31" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>1ab4d3c9-8bf5-525e-9542-b7080262507c-031</v>
+        <v>a1e3b995-19bf-16d9-41d7-d726ee419945-031</v>
       </c>
       <c r="R31" s="93">
         <f t="shared" si="33"/>
@@ -7990,7 +7990,7 @@
       </c>
       <c r="AC31" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS1AB4D3C98BF5525E95</v>
+        <v>CSA1E3B99519BF16D941</v>
       </c>
       <c r="AD31" s="91" t="s">
         <v>94</v>
@@ -8000,7 +8000,7 @@
       </c>
       <c r="AI31" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1ab4d3c9-8bf5-525e-9542-b7080262507c-031</v>
+        <v>a1e3b995-19bf-16d9-41d7-d726ee419945-031</v>
       </c>
       <c r="AJ31" s="104" t="str">
         <f t="shared" si="3"/>
@@ -8008,7 +8008,7 @@
       </c>
       <c r="AK31" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1ab4d3c9-8bf5-525e-9542-b7080262507c-031</v>
+        <v>a1e3b995-19bf-16d9-41d7-d726ee419945-031</v>
       </c>
       <c r="AL31" s="104">
         <f t="shared" si="5"/>
@@ -8063,10 +8063,10 @@
       </c>
       <c r="AZ31" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CS1AB4D3C98BF5525E95</v>
+        <v>CSA1E3B99519BF16D941</v>
       </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="99">
         <f t="shared" si="37"/>
         <v>0.38194444444444442</v>
@@ -8102,7 +8102,7 @@
       </c>
       <c r="N32" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>eba6a81c-6d94-7d7f-75f4-ff9d9fd74f47-032</v>
+        <v>8c57aade-2574-1a68-97bf-b67612285f52-032</v>
       </c>
       <c r="O32" s="90" t="str">
         <f t="shared" si="20"/>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="Q32" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>eba6a81c-6d94-7d7f-75f4-ff9d9fd74f47-032</v>
+        <v>8c57aade-2574-1a68-97bf-b67612285f52-032</v>
       </c>
       <c r="R32" s="93">
         <f t="shared" si="33"/>
@@ -8160,7 +8160,7 @@
       </c>
       <c r="AC32" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CSEBA6A81C6D947D7F75</v>
+        <v>CS8C57AADE25741A6897</v>
       </c>
       <c r="AD32" s="91" t="s">
         <v>94</v>
@@ -8170,7 +8170,7 @@
       </c>
       <c r="AI32" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>eba6a81c-6d94-7d7f-75f4-ff9d9fd74f47-032</v>
+        <v>8c57aade-2574-1a68-97bf-b67612285f52-032</v>
       </c>
       <c r="AJ32" s="104" t="str">
         <f t="shared" si="3"/>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="AK32" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>eba6a81c-6d94-7d7f-75f4-ff9d9fd74f47-032</v>
+        <v>8c57aade-2574-1a68-97bf-b67612285f52-032</v>
       </c>
       <c r="AL32" s="104">
         <f t="shared" si="5"/>
@@ -8233,10 +8233,10 @@
       </c>
       <c r="AZ32" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CSEBA6A81C6D947D7F75</v>
+        <v>CS8C57AADE25741A6897</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="99">
         <f t="shared" si="37"/>
         <v>0.38194444444444442</v>
@@ -8274,7 +8274,7 @@
       </c>
       <c r="N33" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>0813a7b1-6509-655b-9318-bafa69e85a05-033</v>
+        <v>8dfc879e-62b1-2a7f-3eab-c9719e1a34fa-033</v>
       </c>
       <c r="O33" s="90" t="str">
         <f t="shared" si="20"/>
@@ -8286,7 +8286,7 @@
       </c>
       <c r="Q33" s="93" t="str">
         <f t="shared" ca="1" si="39"/>
-        <v>0813a7b1-6509-655b-9318-bafa69e85a05-033</v>
+        <v>8dfc879e-62b1-2a7f-3eab-c9719e1a34fa-033</v>
       </c>
       <c r="R33" s="93">
         <f t="shared" si="33"/>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="AC33" s="90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CS0813A7B16509655B93</v>
+        <v>CS8DFC879E62B12A7F3E</v>
       </c>
       <c r="AD33" s="91" t="s">
         <v>94</v>
@@ -8342,7 +8342,7 @@
       </c>
       <c r="AI33" s="103" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0813a7b1-6509-655b-9318-bafa69e85a05-033</v>
+        <v>8dfc879e-62b1-2a7f-3eab-c9719e1a34fa-033</v>
       </c>
       <c r="AJ33" s="104" t="str">
         <f t="shared" si="3"/>
@@ -8350,7 +8350,7 @@
       </c>
       <c r="AK33" s="103" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0813a7b1-6509-655b-9318-bafa69e85a05-033</v>
+        <v>8dfc879e-62b1-2a7f-3eab-c9719e1a34fa-033</v>
       </c>
       <c r="AL33" s="104">
         <f t="shared" si="5"/>
@@ -8405,7 +8405,7 @@
       </c>
       <c r="AZ33" s="103" t="str">
         <f t="shared" ca="1" si="44"/>
-        <v>CS0813A7B16509655B93</v>
+        <v>CS8DFC879E62B12A7F3E</v>
       </c>
     </row>
     <row r="34" spans="1:52" s="116" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="N34" s="117" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>9956280d-9aaa-78c3-2d29-b25019af8c94-034</v>
+        <v>75b7903e-9f70-1d00-18f2-1c08125a135a-034</v>
       </c>
       <c r="O34" s="117" t="str">
         <f t="shared" si="20"/>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="Q34" s="116" t="str">
         <f t="shared" ref="Q34:Q50" ca="1" si="48">N34</f>
-        <v>9956280d-9aaa-78c3-2d29-b25019af8c94-034</v>
+        <v>75b7903e-9f70-1d00-18f2-1c08125a135a-034</v>
       </c>
       <c r="R34" s="116">
         <v>2</v>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="AC34" s="117" t="str">
         <f t="shared" ref="AC34:AC64" ca="1" si="55">UPPER(LEFT(U34&amp;SUBSTITUTE(N34,"-",""),20))</f>
-        <v>CS9956280D9AAA78C32D</v>
+        <v>CS75B7903E9F701D0018</v>
       </c>
       <c r="AD34" s="117" t="str">
         <f>UPPER(LEFT(V34&amp;SUBSTITUTE(O34,"-",""),20))</f>
@@ -8483,11 +8483,11 @@
       </c>
       <c r="AF34" s="117" t="str">
         <f ca="1">UPPER(LEFT(X34&amp;SUBSTITUTE(Q34,"-",""),20))</f>
-        <v>09956280D9AAA78C32D2</v>
+        <v>075B7903E9F701D0018F</v>
       </c>
       <c r="AI34" s="120" t="str">
         <f t="shared" ref="AI34:AI64" ca="1" si="56">N34</f>
-        <v>9956280d-9aaa-78c3-2d29-b25019af8c94-034</v>
+        <v>75b7903e-9f70-1d00-18f2-1c08125a135a-034</v>
       </c>
       <c r="AJ34" s="121">
         <f t="shared" si="3"/>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="AK34" s="120" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>9956280d-9aaa-78c3-2d29-b25019af8c94-034</v>
+        <v>75b7903e-9f70-1d00-18f2-1c08125a135a-034</v>
       </c>
       <c r="AL34" s="121">
         <f t="shared" si="5"/>
@@ -8550,10 +8550,10 @@
       </c>
       <c r="AZ34" s="120" t="str">
         <f t="shared" ref="AZ34:AZ50" ca="1" si="64">AC34</f>
-        <v>CS9956280D9AAA78C32D</v>
+        <v>CS75B7903E9F701D0018</v>
       </c>
     </row>
-    <row r="35" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" s="89">
         <v>0.34027777777777773</v>
       </c>
@@ -8588,7 +8588,7 @@
       </c>
       <c r="N35" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>0410f6b4-25f0-0e26-9821-3afc529369bf-035</v>
+        <v>2017b1cc-9b2e-0bbd-2c28-28e07af2a550-035</v>
       </c>
       <c r="O35" s="90" t="str">
         <f t="shared" si="20"/>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="Q35" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>0410f6b4-25f0-0e26-9821-3afc529369bf-035</v>
+        <v>2017b1cc-9b2e-0bbd-2c28-28e07af2a550-035</v>
       </c>
       <c r="R35" s="93">
         <f t="shared" ref="R35:R66" si="65">R34</f>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="AC35" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS0410F6B425F00E2698</v>
+        <v>CS2017B1CC9B2E0BBD2C</v>
       </c>
       <c r="AD35" s="91" t="s">
         <v>94</v>
@@ -8656,7 +8656,7 @@
       </c>
       <c r="AI35" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>0410f6b4-25f0-0e26-9821-3afc529369bf-035</v>
+        <v>2017b1cc-9b2e-0bbd-2c28-28e07af2a550-035</v>
       </c>
       <c r="AJ35" s="104" t="str">
         <f t="shared" ref="AJ35:AJ64" si="67">P35</f>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="AK35" s="103" t="str">
         <f t="shared" ref="AK35:AK64" ca="1" si="68">Q35</f>
-        <v>0410f6b4-25f0-0e26-9821-3afc529369bf-035</v>
+        <v>2017b1cc-9b2e-0bbd-2c28-28e07af2a550-035</v>
       </c>
       <c r="AL35" s="104">
         <f>AL$2</f>
@@ -8719,10 +8719,10 @@
       </c>
       <c r="AZ35" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS0410F6B425F00E2698</v>
+        <v>CS2017B1CC9B2E0BBD2C</v>
       </c>
     </row>
-    <row r="36" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" s="89">
         <v>0.34027777777777773</v>
       </c>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="N36" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>3de2efb6-7805-4e35-160b-748f6df49ba1-036</v>
+        <v>23345a78-22b9-54de-7069-7bb0abdf070c-036</v>
       </c>
       <c r="O36" s="90" t="str">
         <f t="shared" si="20"/>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="Q36" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>3de2efb6-7805-4e35-160b-748f6df49ba1-036</v>
+        <v>23345a78-22b9-54de-7069-7bb0abdf070c-036</v>
       </c>
       <c r="R36" s="93">
         <f t="shared" si="65"/>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="AC36" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS3DE2EFB678054E3516</v>
+        <v>CS23345A7822B954DE70</v>
       </c>
       <c r="AD36" s="91" t="s">
         <v>94</v>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="AI36" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>3de2efb6-7805-4e35-160b-748f6df49ba1-036</v>
+        <v>23345a78-22b9-54de-7069-7bb0abdf070c-036</v>
       </c>
       <c r="AJ36" s="104" t="str">
         <f t="shared" si="67"/>
@@ -8833,7 +8833,7 @@
       </c>
       <c r="AK36" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>3de2efb6-7805-4e35-160b-748f6df49ba1-036</v>
+        <v>23345a78-22b9-54de-7069-7bb0abdf070c-036</v>
       </c>
       <c r="AL36" s="104">
         <f t="shared" ref="AL36:AL66" si="72">AL$2</f>
@@ -8888,10 +8888,10 @@
       </c>
       <c r="AZ36" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS3DE2EFB678054E3516</v>
+        <v>CS23345A7822B954DE70</v>
       </c>
     </row>
-    <row r="37" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37" s="89">
         <v>0.34027777777777773</v>
       </c>
@@ -8926,7 +8926,7 @@
       </c>
       <c r="N37" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>54d7769d-a66f-749b-5595-dd238d884d61-037</v>
+        <v>c53b670b-5e38-4e53-3c86-4031ea8d1d8d-037</v>
       </c>
       <c r="O37" s="90" t="str">
         <f t="shared" si="20"/>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="Q37" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>54d7769d-a66f-749b-5595-dd238d884d61-037</v>
+        <v>c53b670b-5e38-4e53-3c86-4031ea8d1d8d-037</v>
       </c>
       <c r="R37" s="93">
         <f t="shared" si="65"/>
@@ -8984,7 +8984,7 @@
       </c>
       <c r="AC37" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS54D7769DA66F749B55</v>
+        <v>CSC53B670B5E384E533C</v>
       </c>
       <c r="AD37" s="91" t="s">
         <v>94</v>
@@ -8994,7 +8994,7 @@
       </c>
       <c r="AI37" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>54d7769d-a66f-749b-5595-dd238d884d61-037</v>
+        <v>c53b670b-5e38-4e53-3c86-4031ea8d1d8d-037</v>
       </c>
       <c r="AJ37" s="104" t="str">
         <f t="shared" si="67"/>
@@ -9002,7 +9002,7 @@
       </c>
       <c r="AK37" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>54d7769d-a66f-749b-5595-dd238d884d61-037</v>
+        <v>c53b670b-5e38-4e53-3c86-4031ea8d1d8d-037</v>
       </c>
       <c r="AL37" s="104">
         <f t="shared" si="72"/>
@@ -9057,10 +9057,10 @@
       </c>
       <c r="AZ37" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS54D7769DA66F749B55</v>
+        <v>CSC53B670B5E384E533C</v>
       </c>
     </row>
-    <row r="38" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="89">
         <v>0.34027777777777773</v>
       </c>
@@ -9095,7 +9095,7 @@
       </c>
       <c r="N38" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>624d8d13-3c61-84c5-397c-0fc7ff635a2a-038</v>
+        <v>a6d10ba0-53bc-4e4e-4322-fd384a035b32-038</v>
       </c>
       <c r="O38" s="90" t="str">
         <f t="shared" si="20"/>
@@ -9107,7 +9107,7 @@
       </c>
       <c r="Q38" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>624d8d13-3c61-84c5-397c-0fc7ff635a2a-038</v>
+        <v>a6d10ba0-53bc-4e4e-4322-fd384a035b32-038</v>
       </c>
       <c r="R38" s="93">
         <f t="shared" si="65"/>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="AC38" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS624D8D133C6184C539</v>
+        <v>CSA6D10BA053BC4E4E43</v>
       </c>
       <c r="AD38" s="91" t="s">
         <v>94</v>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="AI38" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>624d8d13-3c61-84c5-397c-0fc7ff635a2a-038</v>
+        <v>a6d10ba0-53bc-4e4e-4322-fd384a035b32-038</v>
       </c>
       <c r="AJ38" s="104" t="str">
         <f t="shared" si="67"/>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="AK38" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>624d8d13-3c61-84c5-397c-0fc7ff635a2a-038</v>
+        <v>a6d10ba0-53bc-4e4e-4322-fd384a035b32-038</v>
       </c>
       <c r="AL38" s="104">
         <f t="shared" si="72"/>
@@ -9226,10 +9226,10 @@
       </c>
       <c r="AZ38" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS624D8D133C6184C539</v>
+        <v>CSA6D10BA053BC4E4E43</v>
       </c>
     </row>
-    <row r="39" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="89">
         <v>0.34027777777777773</v>
       </c>
@@ -9264,7 +9264,7 @@
       </c>
       <c r="N39" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>690a337f-28c0-62f9-9c9d-cf39d8e16457-039</v>
+        <v>60c43199-9dd1-a09d-6594-8d9583316ada-039</v>
       </c>
       <c r="O39" s="90" t="str">
         <f t="shared" si="20"/>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="Q39" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>690a337f-28c0-62f9-9c9d-cf39d8e16457-039</v>
+        <v>60c43199-9dd1-a09d-6594-8d9583316ada-039</v>
       </c>
       <c r="R39" s="93">
         <f t="shared" si="65"/>
@@ -9322,7 +9322,7 @@
       </c>
       <c r="AC39" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS690A337F28C062F99C</v>
+        <v>CS60C431999DD1A09D65</v>
       </c>
       <c r="AD39" s="91" t="s">
         <v>94</v>
@@ -9332,7 +9332,7 @@
       </c>
       <c r="AI39" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>690a337f-28c0-62f9-9c9d-cf39d8e16457-039</v>
+        <v>60c43199-9dd1-a09d-6594-8d9583316ada-039</v>
       </c>
       <c r="AJ39" s="104" t="str">
         <f t="shared" si="67"/>
@@ -9340,7 +9340,7 @@
       </c>
       <c r="AK39" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>690a337f-28c0-62f9-9c9d-cf39d8e16457-039</v>
+        <v>60c43199-9dd1-a09d-6594-8d9583316ada-039</v>
       </c>
       <c r="AL39" s="104">
         <f t="shared" si="72"/>
@@ -9395,10 +9395,10 @@
       </c>
       <c r="AZ39" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS690A337F28C062F99C</v>
+        <v>CS60C431999DD1A09D65</v>
       </c>
     </row>
-    <row r="40" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="89">
         <v>0.34027777777777773</v>
       </c>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="N40" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>08c8a9d1-04e1-3070-750c-8b7829009584-040</v>
+        <v>9b73b19d-24db-2fcf-3bf7-c231043ca40a-040</v>
       </c>
       <c r="O40" s="90" t="str">
         <f t="shared" si="20"/>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="Q40" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>08c8a9d1-04e1-3070-750c-8b7829009584-040</v>
+        <v>9b73b19d-24db-2fcf-3bf7-c231043ca40a-040</v>
       </c>
       <c r="R40" s="93">
         <f t="shared" si="65"/>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="AC40" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS08C8A9D104E1307075</v>
+        <v>CS9B73B19D24DB2FCF3B</v>
       </c>
       <c r="AD40" s="91" t="s">
         <v>94</v>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="AI40" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>08c8a9d1-04e1-3070-750c-8b7829009584-040</v>
+        <v>9b73b19d-24db-2fcf-3bf7-c231043ca40a-040</v>
       </c>
       <c r="AJ40" s="104" t="str">
         <f t="shared" si="67"/>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="AK40" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>08c8a9d1-04e1-3070-750c-8b7829009584-040</v>
+        <v>9b73b19d-24db-2fcf-3bf7-c231043ca40a-040</v>
       </c>
       <c r="AL40" s="104">
         <f t="shared" si="72"/>
@@ -9564,10 +9564,10 @@
       </c>
       <c r="AZ40" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS08C8A9D104E1307075</v>
+        <v>CS9B73B19D24DB2FCF3B</v>
       </c>
     </row>
-    <row r="41" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" s="89">
         <v>0.34027777777777773</v>
       </c>
@@ -9602,7 +9602,7 @@
       </c>
       <c r="N41" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>ff259265-9485-04b0-67ca-f284e461447b-041</v>
+        <v>a58f1d3c-3bd5-a6f4-0249-4992c1c973f3-041</v>
       </c>
       <c r="O41" s="90" t="str">
         <f t="shared" si="20"/>
@@ -9614,7 +9614,7 @@
       </c>
       <c r="Q41" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>ff259265-9485-04b0-67ca-f284e461447b-041</v>
+        <v>a58f1d3c-3bd5-a6f4-0249-4992c1c973f3-041</v>
       </c>
       <c r="R41" s="93">
         <f t="shared" si="65"/>
@@ -9660,7 +9660,7 @@
       </c>
       <c r="AC41" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSFF259265948504B067</v>
+        <v>CSA58F1D3C3BD5A6F402</v>
       </c>
       <c r="AD41" s="91" t="s">
         <v>94</v>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="AI41" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>ff259265-9485-04b0-67ca-f284e461447b-041</v>
+        <v>a58f1d3c-3bd5-a6f4-0249-4992c1c973f3-041</v>
       </c>
       <c r="AJ41" s="104" t="str">
         <f t="shared" si="67"/>
@@ -9678,7 +9678,7 @@
       </c>
       <c r="AK41" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>ff259265-9485-04b0-67ca-f284e461447b-041</v>
+        <v>a58f1d3c-3bd5-a6f4-0249-4992c1c973f3-041</v>
       </c>
       <c r="AL41" s="104">
         <f t="shared" si="72"/>
@@ -9733,10 +9733,10 @@
       </c>
       <c r="AZ41" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CSFF259265948504B067</v>
+        <v>CSA58F1D3C3BD5A6F402</v>
       </c>
     </row>
-    <row r="42" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="N42" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>7c4c2240-9937-0465-81ab-1d7702a38f79-042</v>
+        <v>35021677-09b0-6872-5bed-74c489253d67-042</v>
       </c>
       <c r="O42" s="90" t="str">
         <f t="shared" si="20"/>
@@ -9783,7 +9783,7 @@
       </c>
       <c r="Q42" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>7c4c2240-9937-0465-81ab-1d7702a38f79-042</v>
+        <v>35021677-09b0-6872-5bed-74c489253d67-042</v>
       </c>
       <c r="R42" s="93">
         <f t="shared" si="65"/>
@@ -9829,7 +9829,7 @@
       </c>
       <c r="AC42" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS7C4C22409937046581</v>
+        <v>CS3502167709B068725B</v>
       </c>
       <c r="AD42" s="91" t="s">
         <v>94</v>
@@ -9839,7 +9839,7 @@
       </c>
       <c r="AI42" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>7c4c2240-9937-0465-81ab-1d7702a38f79-042</v>
+        <v>35021677-09b0-6872-5bed-74c489253d67-042</v>
       </c>
       <c r="AJ42" s="104" t="str">
         <f t="shared" si="67"/>
@@ -9847,7 +9847,7 @@
       </c>
       <c r="AK42" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>7c4c2240-9937-0465-81ab-1d7702a38f79-042</v>
+        <v>35021677-09b0-6872-5bed-74c489253d67-042</v>
       </c>
       <c r="AL42" s="104">
         <f t="shared" si="72"/>
@@ -9902,10 +9902,10 @@
       </c>
       <c r="AZ42" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS7C4C22409937046581</v>
+        <v>CS3502167709B068725B</v>
       </c>
     </row>
-    <row r="43" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="N43" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>17bdaf08-7eeb-3833-2262-a65ba6dc8e7e-043</v>
+        <v>ad1118fd-7699-6f54-94f2-b41c19296527-043</v>
       </c>
       <c r="O43" s="90" t="str">
         <f t="shared" si="20"/>
@@ -9952,7 +9952,7 @@
       </c>
       <c r="Q43" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>17bdaf08-7eeb-3833-2262-a65ba6dc8e7e-043</v>
+        <v>ad1118fd-7699-6f54-94f2-b41c19296527-043</v>
       </c>
       <c r="R43" s="93">
         <f t="shared" si="65"/>
@@ -9998,7 +9998,7 @@
       </c>
       <c r="AC43" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS17BDAF087EEB383322</v>
+        <v>CSAD1118FD76996F5494</v>
       </c>
       <c r="AD43" s="91" t="s">
         <v>94</v>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="AI43" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>17bdaf08-7eeb-3833-2262-a65ba6dc8e7e-043</v>
+        <v>ad1118fd-7699-6f54-94f2-b41c19296527-043</v>
       </c>
       <c r="AJ43" s="104" t="str">
         <f t="shared" si="67"/>
@@ -10016,7 +10016,7 @@
       </c>
       <c r="AK43" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>17bdaf08-7eeb-3833-2262-a65ba6dc8e7e-043</v>
+        <v>ad1118fd-7699-6f54-94f2-b41c19296527-043</v>
       </c>
       <c r="AL43" s="104">
         <f t="shared" si="72"/>
@@ -10071,10 +10071,10 @@
       </c>
       <c r="AZ43" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS17BDAF087EEB383322</v>
+        <v>CSAD1118FD76996F5494</v>
       </c>
     </row>
-    <row r="44" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A44" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="N44" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>934d523b-6d4a-084b-3d14-b01c82e33381-044</v>
+        <v>d25788a9-99de-1882-2930-5d1811829ff3-044</v>
       </c>
       <c r="O44" s="90" t="str">
         <f t="shared" si="20"/>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="Q44" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>934d523b-6d4a-084b-3d14-b01c82e33381-044</v>
+        <v>d25788a9-99de-1882-2930-5d1811829ff3-044</v>
       </c>
       <c r="R44" s="93">
         <f t="shared" si="65"/>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="AC44" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS934D523B6D4A084B3D</v>
+        <v>CSD25788A999DE188229</v>
       </c>
       <c r="AD44" s="91" t="s">
         <v>94</v>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="AI44" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>934d523b-6d4a-084b-3d14-b01c82e33381-044</v>
+        <v>d25788a9-99de-1882-2930-5d1811829ff3-044</v>
       </c>
       <c r="AJ44" s="104" t="str">
         <f t="shared" si="67"/>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="AK44" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>934d523b-6d4a-084b-3d14-b01c82e33381-044</v>
+        <v>d25788a9-99de-1882-2930-5d1811829ff3-044</v>
       </c>
       <c r="AL44" s="104">
         <f t="shared" si="72"/>
@@ -10240,10 +10240,10 @@
       </c>
       <c r="AZ44" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS934D523B6D4A084B3D</v>
+        <v>CSD25788A999DE188229</v>
       </c>
     </row>
-    <row r="45" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -10278,7 +10278,7 @@
       </c>
       <c r="N45" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>acdfe6d7-38e9-70b3-4dba-a1d15808a27a-045</v>
+        <v>5cc402fc-48de-a28a-5ec0-963ce96915ec-045</v>
       </c>
       <c r="O45" s="90" t="str">
         <f t="shared" si="20"/>
@@ -10290,7 +10290,7 @@
       </c>
       <c r="Q45" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>acdfe6d7-38e9-70b3-4dba-a1d15808a27a-045</v>
+        <v>5cc402fc-48de-a28a-5ec0-963ce96915ec-045</v>
       </c>
       <c r="R45" s="93">
         <f t="shared" si="65"/>
@@ -10336,7 +10336,7 @@
       </c>
       <c r="AC45" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSACDFE6D738E970B34D</v>
+        <v>CS5CC402FC48DEA28A5E</v>
       </c>
       <c r="AD45" s="91" t="s">
         <v>94</v>
@@ -10346,7 +10346,7 @@
       </c>
       <c r="AI45" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>acdfe6d7-38e9-70b3-4dba-a1d15808a27a-045</v>
+        <v>5cc402fc-48de-a28a-5ec0-963ce96915ec-045</v>
       </c>
       <c r="AJ45" s="104" t="str">
         <f t="shared" si="67"/>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="AK45" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>acdfe6d7-38e9-70b3-4dba-a1d15808a27a-045</v>
+        <v>5cc402fc-48de-a28a-5ec0-963ce96915ec-045</v>
       </c>
       <c r="AL45" s="104">
         <f t="shared" si="72"/>
@@ -10409,10 +10409,10 @@
       </c>
       <c r="AZ45" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CSACDFE6D738E970B34D</v>
+        <v>CS5CC402FC48DEA28A5E</v>
       </c>
     </row>
-    <row r="46" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -10447,7 +10447,7 @@
       </c>
       <c r="N46" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>f5e25356-1b36-153c-8dd0-e08939386df4-046</v>
+        <v>99e0d358-0bee-790c-8e04-c27a9b5c4add-046</v>
       </c>
       <c r="O46" s="90" t="str">
         <f t="shared" si="20"/>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="Q46" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>f5e25356-1b36-153c-8dd0-e08939386df4-046</v>
+        <v>99e0d358-0bee-790c-8e04-c27a9b5c4add-046</v>
       </c>
       <c r="R46" s="93">
         <f t="shared" si="65"/>
@@ -10505,7 +10505,7 @@
       </c>
       <c r="AC46" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSF5E253561B36153C8D</v>
+        <v>CS99E0D3580BEE790C8E</v>
       </c>
       <c r="AD46" s="91" t="s">
         <v>94</v>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="AI46" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>f5e25356-1b36-153c-8dd0-e08939386df4-046</v>
+        <v>99e0d358-0bee-790c-8e04-c27a9b5c4add-046</v>
       </c>
       <c r="AJ46" s="104" t="str">
         <f t="shared" si="67"/>
@@ -10523,7 +10523,7 @@
       </c>
       <c r="AK46" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>f5e25356-1b36-153c-8dd0-e08939386df4-046</v>
+        <v>99e0d358-0bee-790c-8e04-c27a9b5c4add-046</v>
       </c>
       <c r="AL46" s="104">
         <f t="shared" si="72"/>
@@ -10578,10 +10578,10 @@
       </c>
       <c r="AZ46" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CSF5E253561B36153C8D</v>
+        <v>CS99E0D3580BEE790C8E</v>
       </c>
     </row>
-    <row r="47" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="N47" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>4135d5c6-0c27-6db3-4e0d-90e3cd1270c6-047</v>
+        <v>060f2743-81d5-95de-6223-f2c312a984f5-047</v>
       </c>
       <c r="O47" s="90" t="str">
         <f t="shared" si="20"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="Q47" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>4135d5c6-0c27-6db3-4e0d-90e3cd1270c6-047</v>
+        <v>060f2743-81d5-95de-6223-f2c312a984f5-047</v>
       </c>
       <c r="R47" s="93">
         <f t="shared" si="65"/>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="AC47" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS4135D5C60C276DB34E</v>
+        <v>CS060F274381D595DE62</v>
       </c>
       <c r="AD47" s="91" t="s">
         <v>94</v>
@@ -10684,7 +10684,7 @@
       </c>
       <c r="AI47" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>4135d5c6-0c27-6db3-4e0d-90e3cd1270c6-047</v>
+        <v>060f2743-81d5-95de-6223-f2c312a984f5-047</v>
       </c>
       <c r="AJ47" s="104" t="str">
         <f t="shared" si="67"/>
@@ -10692,7 +10692,7 @@
       </c>
       <c r="AK47" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>4135d5c6-0c27-6db3-4e0d-90e3cd1270c6-047</v>
+        <v>060f2743-81d5-95de-6223-f2c312a984f5-047</v>
       </c>
       <c r="AL47" s="104">
         <f t="shared" si="72"/>
@@ -10747,10 +10747,10 @@
       </c>
       <c r="AZ47" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS4135D5C60C276DB34E</v>
+        <v>CS060F274381D595DE62</v>
       </c>
     </row>
-    <row r="48" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="N48" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>3b8e22bb-a154-79ab-5b18-304f927524f9-048</v>
+        <v>858e8910-3230-7d2a-4d87-909e347f6968-048</v>
       </c>
       <c r="O48" s="90" t="str">
         <f t="shared" si="20"/>
@@ -10797,7 +10797,7 @@
       </c>
       <c r="Q48" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>3b8e22bb-a154-79ab-5b18-304f927524f9-048</v>
+        <v>858e8910-3230-7d2a-4d87-909e347f6968-048</v>
       </c>
       <c r="R48" s="93">
         <f t="shared" si="65"/>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="AC48" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS3B8E22BBA15479AB5B</v>
+        <v>CS858E891032307D2A4D</v>
       </c>
       <c r="AD48" s="91" t="s">
         <v>94</v>
@@ -10853,7 +10853,7 @@
       </c>
       <c r="AI48" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>3b8e22bb-a154-79ab-5b18-304f927524f9-048</v>
+        <v>858e8910-3230-7d2a-4d87-909e347f6968-048</v>
       </c>
       <c r="AJ48" s="104" t="str">
         <f t="shared" si="67"/>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="AK48" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>3b8e22bb-a154-79ab-5b18-304f927524f9-048</v>
+        <v>858e8910-3230-7d2a-4d87-909e347f6968-048</v>
       </c>
       <c r="AL48" s="104">
         <f t="shared" si="72"/>
@@ -10916,10 +10916,10 @@
       </c>
       <c r="AZ48" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS3B8E22BBA15479AB5B</v>
+        <v>CS858E891032307D2A4D</v>
       </c>
     </row>
-    <row r="49" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -10954,7 +10954,7 @@
       </c>
       <c r="N49" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>ce804853-8e54-4336-8229-ae7d43bfa1ea-049</v>
+        <v>7262fea1-8d42-a448-8bf5-f33e62d7624f-049</v>
       </c>
       <c r="O49" s="90" t="str">
         <f t="shared" si="20"/>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="Q49" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>ce804853-8e54-4336-8229-ae7d43bfa1ea-049</v>
+        <v>7262fea1-8d42-a448-8bf5-f33e62d7624f-049</v>
       </c>
       <c r="R49" s="93">
         <f t="shared" si="65"/>
@@ -11012,7 +11012,7 @@
       </c>
       <c r="AC49" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSCE8048538E54433682</v>
+        <v>CS7262FEA18D42A4488B</v>
       </c>
       <c r="AD49" s="91" t="s">
         <v>94</v>
@@ -11022,7 +11022,7 @@
       </c>
       <c r="AI49" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>ce804853-8e54-4336-8229-ae7d43bfa1ea-049</v>
+        <v>7262fea1-8d42-a448-8bf5-f33e62d7624f-049</v>
       </c>
       <c r="AJ49" s="104" t="str">
         <f t="shared" si="67"/>
@@ -11030,7 +11030,7 @@
       </c>
       <c r="AK49" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>ce804853-8e54-4336-8229-ae7d43bfa1ea-049</v>
+        <v>7262fea1-8d42-a448-8bf5-f33e62d7624f-049</v>
       </c>
       <c r="AL49" s="104">
         <f t="shared" si="72"/>
@@ -11085,10 +11085,10 @@
       </c>
       <c r="AZ49" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CSCE8048538E54433682</v>
+        <v>CS7262FEA18D42A4488B</v>
       </c>
     </row>
-    <row r="50" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -11123,7 +11123,7 @@
       </c>
       <c r="N50" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>7c769ed5-0f45-a61d-6e35-89ad0cc26e76-050</v>
+        <v>2a4f9d83-61fb-4d73-1f47-e67533914abb-050</v>
       </c>
       <c r="O50" s="90" t="str">
         <f t="shared" si="20"/>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="Q50" s="93" t="str">
         <f t="shared" ca="1" si="48"/>
-        <v>7c769ed5-0f45-a61d-6e35-89ad0cc26e76-050</v>
+        <v>2a4f9d83-61fb-4d73-1f47-e67533914abb-050</v>
       </c>
       <c r="R50" s="93">
         <f t="shared" si="65"/>
@@ -11181,7 +11181,7 @@
       </c>
       <c r="AC50" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS7C769ED50F45A61D6E</v>
+        <v>CS2A4F9D8361FB4D731F</v>
       </c>
       <c r="AD50" s="91" t="s">
         <v>94</v>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="AI50" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>7c769ed5-0f45-a61d-6e35-89ad0cc26e76-050</v>
+        <v>2a4f9d83-61fb-4d73-1f47-e67533914abb-050</v>
       </c>
       <c r="AJ50" s="104" t="str">
         <f t="shared" si="67"/>
@@ -11199,7 +11199,7 @@
       </c>
       <c r="AK50" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>7c769ed5-0f45-a61d-6e35-89ad0cc26e76-050</v>
+        <v>2a4f9d83-61fb-4d73-1f47-e67533914abb-050</v>
       </c>
       <c r="AL50" s="104">
         <f t="shared" si="72"/>
@@ -11254,10 +11254,10 @@
       </c>
       <c r="AZ50" s="103" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>CS7C769ED50F45A61D6E</v>
+        <v>CS2A4F9D8361FB4D731F</v>
       </c>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="89">
         <v>0.34027777777777773</v>
       </c>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="N51" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>c045ae44-4ccf-05d8-18e7-ce3a71ea805a-051</v>
+        <v>885eefc7-8fcd-4d8d-886b-01c3b0c3704b-051</v>
       </c>
       <c r="O51" s="90" t="str">
         <f t="shared" si="20"/>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="Q51" s="93" t="str">
         <f t="shared" ref="Q51:Q66" ca="1" si="74">N51</f>
-        <v>c045ae44-4ccf-05d8-18e7-ce3a71ea805a-051</v>
+        <v>885eefc7-8fcd-4d8d-886b-01c3b0c3704b-051</v>
       </c>
       <c r="R51" s="93">
         <f t="shared" si="65"/>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="AC51" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSC045AE444CCF05D818</v>
+        <v>CS885EEFC78FCD4D8D88</v>
       </c>
       <c r="AD51" s="91" t="s">
         <v>94</v>
@@ -11360,7 +11360,7 @@
       </c>
       <c r="AI51" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>c045ae44-4ccf-05d8-18e7-ce3a71ea805a-051</v>
+        <v>885eefc7-8fcd-4d8d-886b-01c3b0c3704b-051</v>
       </c>
       <c r="AJ51" s="104" t="str">
         <f t="shared" si="67"/>
@@ -11368,7 +11368,7 @@
       </c>
       <c r="AK51" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>c045ae44-4ccf-05d8-18e7-ce3a71ea805a-051</v>
+        <v>885eefc7-8fcd-4d8d-886b-01c3b0c3704b-051</v>
       </c>
       <c r="AL51" s="104">
         <f t="shared" si="72"/>
@@ -11423,10 +11423,10 @@
       </c>
       <c r="AZ51" s="103" t="str">
         <f t="shared" ref="AZ51:AZ66" ca="1" si="81">AC51</f>
-        <v>CSC045AE444CCF05D818</v>
+        <v>CS885EEFC78FCD4D8D88</v>
       </c>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="89">
         <v>0.34027777777777773</v>
       </c>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="N52" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>03bc419c-912b-0554-3fa7-817a52143036-052</v>
+        <v>a4e275c7-85c4-868c-5d56-573e5a480248-052</v>
       </c>
       <c r="O52" s="90" t="str">
         <f t="shared" si="20"/>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="Q52" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>03bc419c-912b-0554-3fa7-817a52143036-052</v>
+        <v>a4e275c7-85c4-868c-5d56-573e5a480248-052</v>
       </c>
       <c r="R52" s="93">
         <f t="shared" si="65"/>
@@ -11519,7 +11519,7 @@
       </c>
       <c r="AC52" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS03BC419C912B05543F</v>
+        <v>CSA4E275C785C4868C5D</v>
       </c>
       <c r="AD52" s="91" t="s">
         <v>94</v>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="AI52" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>03bc419c-912b-0554-3fa7-817a52143036-052</v>
+        <v>a4e275c7-85c4-868c-5d56-573e5a480248-052</v>
       </c>
       <c r="AJ52" s="104" t="str">
         <f t="shared" si="67"/>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="AK52" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>03bc419c-912b-0554-3fa7-817a52143036-052</v>
+        <v>a4e275c7-85c4-868c-5d56-573e5a480248-052</v>
       </c>
       <c r="AL52" s="104">
         <f t="shared" si="72"/>
@@ -11592,10 +11592,10 @@
       </c>
       <c r="AZ52" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS03BC419C912B05543F</v>
+        <v>CSA4E275C785C4868C5D</v>
       </c>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="89">
         <v>0.34027777777777773</v>
       </c>
@@ -11630,7 +11630,7 @@
       </c>
       <c r="N53" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>d9297b7a-6a9b-2dd6-916b-6436a98f2608-053</v>
+        <v>8244796f-2cda-72ce-3552-78fff1f47765-053</v>
       </c>
       <c r="O53" s="90" t="str">
         <f t="shared" si="20"/>
@@ -11642,7 +11642,7 @@
       </c>
       <c r="Q53" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>d9297b7a-6a9b-2dd6-916b-6436a98f2608-053</v>
+        <v>8244796f-2cda-72ce-3552-78fff1f47765-053</v>
       </c>
       <c r="R53" s="93">
         <f t="shared" si="65"/>
@@ -11688,7 +11688,7 @@
       </c>
       <c r="AC53" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSD9297B7A6A9B2DD691</v>
+        <v>CS8244796F2CDA72CE35</v>
       </c>
       <c r="AD53" s="91" t="s">
         <v>94</v>
@@ -11698,7 +11698,7 @@
       </c>
       <c r="AI53" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>d9297b7a-6a9b-2dd6-916b-6436a98f2608-053</v>
+        <v>8244796f-2cda-72ce-3552-78fff1f47765-053</v>
       </c>
       <c r="AJ53" s="104" t="str">
         <f t="shared" si="67"/>
@@ -11706,7 +11706,7 @@
       </c>
       <c r="AK53" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>d9297b7a-6a9b-2dd6-916b-6436a98f2608-053</v>
+        <v>8244796f-2cda-72ce-3552-78fff1f47765-053</v>
       </c>
       <c r="AL53" s="104">
         <f t="shared" si="72"/>
@@ -11761,10 +11761,10 @@
       </c>
       <c r="AZ53" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CSD9297B7A6A9B2DD691</v>
+        <v>CS8244796F2CDA72CE35</v>
       </c>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="89">
         <v>0.34027777777777773</v>
       </c>
@@ -11799,7 +11799,7 @@
       </c>
       <c r="N54" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>5c8b6165-9d96-22ef-6b70-23e7a00e6851-054</v>
+        <v>463d4447-14e0-9aca-3a2b-1746a1cd4858-054</v>
       </c>
       <c r="O54" s="90" t="str">
         <f t="shared" si="20"/>
@@ -11811,7 +11811,7 @@
       </c>
       <c r="Q54" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>5c8b6165-9d96-22ef-6b70-23e7a00e6851-054</v>
+        <v>463d4447-14e0-9aca-3a2b-1746a1cd4858-054</v>
       </c>
       <c r="R54" s="93">
         <f t="shared" si="65"/>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="AC54" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS5C8B61659D9622EF6B</v>
+        <v>CS463D444714E09ACA3A</v>
       </c>
       <c r="AD54" s="91" t="s">
         <v>94</v>
@@ -11867,7 +11867,7 @@
       </c>
       <c r="AI54" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>5c8b6165-9d96-22ef-6b70-23e7a00e6851-054</v>
+        <v>463d4447-14e0-9aca-3a2b-1746a1cd4858-054</v>
       </c>
       <c r="AJ54" s="104" t="str">
         <f t="shared" si="67"/>
@@ -11875,7 +11875,7 @@
       </c>
       <c r="AK54" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>5c8b6165-9d96-22ef-6b70-23e7a00e6851-054</v>
+        <v>463d4447-14e0-9aca-3a2b-1746a1cd4858-054</v>
       </c>
       <c r="AL54" s="104">
         <f t="shared" si="72"/>
@@ -11930,10 +11930,10 @@
       </c>
       <c r="AZ54" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS5C8B61659D9622EF6B</v>
+        <v>CS463D444714E09ACA3A</v>
       </c>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="89">
         <v>0.34027777777777773</v>
       </c>
@@ -11968,7 +11968,7 @@
       </c>
       <c r="N55" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>05d5c786-0aec-1484-4bce-10db122c75df-055</v>
+        <v>a780638c-0dab-31af-5ee4-afd9b2b80cf5-055</v>
       </c>
       <c r="O55" s="90" t="str">
         <f t="shared" si="20"/>
@@ -11980,7 +11980,7 @@
       </c>
       <c r="Q55" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>05d5c786-0aec-1484-4bce-10db122c75df-055</v>
+        <v>a780638c-0dab-31af-5ee4-afd9b2b80cf5-055</v>
       </c>
       <c r="R55" s="93">
         <f t="shared" si="65"/>
@@ -12026,7 +12026,7 @@
       </c>
       <c r="AC55" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS05D5C7860AEC14844B</v>
+        <v>CSA780638C0DAB31AF5E</v>
       </c>
       <c r="AD55" s="91" t="s">
         <v>94</v>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="AI55" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>05d5c786-0aec-1484-4bce-10db122c75df-055</v>
+        <v>a780638c-0dab-31af-5ee4-afd9b2b80cf5-055</v>
       </c>
       <c r="AJ55" s="104" t="str">
         <f t="shared" si="67"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="AK55" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>05d5c786-0aec-1484-4bce-10db122c75df-055</v>
+        <v>a780638c-0dab-31af-5ee4-afd9b2b80cf5-055</v>
       </c>
       <c r="AL55" s="104">
         <f t="shared" si="72"/>
@@ -12099,10 +12099,10 @@
       </c>
       <c r="AZ55" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS05D5C7860AEC14844B</v>
+        <v>CSA780638C0DAB31AF5E</v>
       </c>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="89">
         <v>0.34027777777777773</v>
       </c>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="N56" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>b2801157-1bd6-9596-59a3-d27484d804af-056</v>
+        <v>1e44c3dd-3618-2684-36fe-6681b72202bb-056</v>
       </c>
       <c r="O56" s="90" t="str">
         <f t="shared" si="20"/>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="Q56" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>b2801157-1bd6-9596-59a3-d27484d804af-056</v>
+        <v>1e44c3dd-3618-2684-36fe-6681b72202bb-056</v>
       </c>
       <c r="R56" s="93">
         <f t="shared" si="65"/>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="AC56" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSB28011571BD6959659</v>
+        <v>CS1E44C3DD3618268436</v>
       </c>
       <c r="AD56" s="91" t="s">
         <v>94</v>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="AI56" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>b2801157-1bd6-9596-59a3-d27484d804af-056</v>
+        <v>1e44c3dd-3618-2684-36fe-6681b72202bb-056</v>
       </c>
       <c r="AJ56" s="104" t="str">
         <f t="shared" si="67"/>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="AK56" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>b2801157-1bd6-9596-59a3-d27484d804af-056</v>
+        <v>1e44c3dd-3618-2684-36fe-6681b72202bb-056</v>
       </c>
       <c r="AL56" s="104">
         <f t="shared" si="72"/>
@@ -12268,10 +12268,10 @@
       </c>
       <c r="AZ56" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CSB28011571BD6959659</v>
+        <v>CS1E44C3DD3618268436</v>
       </c>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="89">
         <v>0.34027777777777773</v>
       </c>
@@ -12306,7 +12306,7 @@
       </c>
       <c r="N57" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>611c181a-08a8-1b09-642c-2d91c691533e-057</v>
+        <v>69a44e8a-695f-9e61-33ba-6d850f2905f9-057</v>
       </c>
       <c r="O57" s="90" t="str">
         <f t="shared" si="20"/>
@@ -12318,7 +12318,7 @@
       </c>
       <c r="Q57" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>611c181a-08a8-1b09-642c-2d91c691533e-057</v>
+        <v>69a44e8a-695f-9e61-33ba-6d850f2905f9-057</v>
       </c>
       <c r="R57" s="93">
         <f t="shared" si="65"/>
@@ -12364,7 +12364,7 @@
       </c>
       <c r="AC57" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS611C181A08A81B0964</v>
+        <v>CS69A44E8A695F9E6133</v>
       </c>
       <c r="AD57" s="91" t="s">
         <v>94</v>
@@ -12374,7 +12374,7 @@
       </c>
       <c r="AI57" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>611c181a-08a8-1b09-642c-2d91c691533e-057</v>
+        <v>69a44e8a-695f-9e61-33ba-6d850f2905f9-057</v>
       </c>
       <c r="AJ57" s="104" t="str">
         <f t="shared" si="67"/>
@@ -12382,7 +12382,7 @@
       </c>
       <c r="AK57" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>611c181a-08a8-1b09-642c-2d91c691533e-057</v>
+        <v>69a44e8a-695f-9e61-33ba-6d850f2905f9-057</v>
       </c>
       <c r="AL57" s="104">
         <f t="shared" si="72"/>
@@ -12437,10 +12437,10 @@
       </c>
       <c r="AZ57" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS611C181A08A81B0964</v>
+        <v>CS69A44E8A695F9E6133</v>
       </c>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="N58" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>0d9fb0d9-566e-2877-0e46-07d4adf835cc-058</v>
+        <v>b6dab5ee-2468-6b0d-7206-190e993e20fa-058</v>
       </c>
       <c r="O58" s="90" t="str">
         <f t="shared" si="20"/>
@@ -12487,7 +12487,7 @@
       </c>
       <c r="Q58" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>0d9fb0d9-566e-2877-0e46-07d4adf835cc-058</v>
+        <v>b6dab5ee-2468-6b0d-7206-190e993e20fa-058</v>
       </c>
       <c r="R58" s="93">
         <f t="shared" si="65"/>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="AC58" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS0D9FB0D9566E28770E</v>
+        <v>CSB6DAB5EE24686B0D72</v>
       </c>
       <c r="AD58" s="91" t="s">
         <v>94</v>
@@ -12543,7 +12543,7 @@
       </c>
       <c r="AI58" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>0d9fb0d9-566e-2877-0e46-07d4adf835cc-058</v>
+        <v>b6dab5ee-2468-6b0d-7206-190e993e20fa-058</v>
       </c>
       <c r="AJ58" s="104" t="str">
         <f t="shared" si="67"/>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="AK58" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>0d9fb0d9-566e-2877-0e46-07d4adf835cc-058</v>
+        <v>b6dab5ee-2468-6b0d-7206-190e993e20fa-058</v>
       </c>
       <c r="AL58" s="104">
         <f t="shared" si="72"/>
@@ -12606,10 +12606,10 @@
       </c>
       <c r="AZ58" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS0D9FB0D9566E28770E</v>
+        <v>CSB6DAB5EE24686B0D72</v>
       </c>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -12644,7 +12644,7 @@
       </c>
       <c r="N59" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>3724e30b-238f-538a-6195-6c83bf605108-059</v>
+        <v>8234e92f-63d2-313c-48a7-2c376b62a159-059</v>
       </c>
       <c r="O59" s="90" t="str">
         <f t="shared" si="20"/>
@@ -12656,7 +12656,7 @@
       </c>
       <c r="Q59" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>3724e30b-238f-538a-6195-6c83bf605108-059</v>
+        <v>8234e92f-63d2-313c-48a7-2c376b62a159-059</v>
       </c>
       <c r="R59" s="93">
         <f t="shared" si="65"/>
@@ -12702,7 +12702,7 @@
       </c>
       <c r="AC59" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS3724E30B238F538A61</v>
+        <v>CS8234E92F63D2313C48</v>
       </c>
       <c r="AD59" s="91" t="s">
         <v>94</v>
@@ -12712,7 +12712,7 @@
       </c>
       <c r="AI59" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>3724e30b-238f-538a-6195-6c83bf605108-059</v>
+        <v>8234e92f-63d2-313c-48a7-2c376b62a159-059</v>
       </c>
       <c r="AJ59" s="104" t="str">
         <f t="shared" si="67"/>
@@ -12720,7 +12720,7 @@
       </c>
       <c r="AK59" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>3724e30b-238f-538a-6195-6c83bf605108-059</v>
+        <v>8234e92f-63d2-313c-48a7-2c376b62a159-059</v>
       </c>
       <c r="AL59" s="104">
         <f t="shared" si="72"/>
@@ -12775,10 +12775,10 @@
       </c>
       <c r="AZ59" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS3724E30B238F538A61</v>
+        <v>CS8234E92F63D2313C48</v>
       </c>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -12813,7 +12813,7 @@
       </c>
       <c r="N60" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>b60e650d-329b-103a-72bb-1e8b889b188e-060</v>
+        <v>69fe9a2b-1965-06da-510f-7ad15b728970-060</v>
       </c>
       <c r="O60" s="90" t="str">
         <f t="shared" si="20"/>
@@ -12825,7 +12825,7 @@
       </c>
       <c r="Q60" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>b60e650d-329b-103a-72bb-1e8b889b188e-060</v>
+        <v>69fe9a2b-1965-06da-510f-7ad15b728970-060</v>
       </c>
       <c r="R60" s="93">
         <f t="shared" si="65"/>
@@ -12871,7 +12871,7 @@
       </c>
       <c r="AC60" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSB60E650D329B103A72</v>
+        <v>CS69FE9A2B196506DA51</v>
       </c>
       <c r="AD60" s="91" t="s">
         <v>94</v>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="AI60" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>b60e650d-329b-103a-72bb-1e8b889b188e-060</v>
+        <v>69fe9a2b-1965-06da-510f-7ad15b728970-060</v>
       </c>
       <c r="AJ60" s="104" t="str">
         <f t="shared" si="67"/>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="AK60" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>b60e650d-329b-103a-72bb-1e8b889b188e-060</v>
+        <v>69fe9a2b-1965-06da-510f-7ad15b728970-060</v>
       </c>
       <c r="AL60" s="104">
         <f t="shared" si="72"/>
@@ -12944,10 +12944,10 @@
       </c>
       <c r="AZ60" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CSB60E650D329B103A72</v>
+        <v>CS69FE9A2B196506DA51</v>
       </c>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="N61" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>c153a988-73ca-1912-2017-1ac294bb97e7-061</v>
+        <v>ad51ee6b-832d-39ce-399c-56d6826271ba-061</v>
       </c>
       <c r="O61" s="90" t="str">
         <f t="shared" si="20"/>
@@ -12994,7 +12994,7 @@
       </c>
       <c r="Q61" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>c153a988-73ca-1912-2017-1ac294bb97e7-061</v>
+        <v>ad51ee6b-832d-39ce-399c-56d6826271ba-061</v>
       </c>
       <c r="R61" s="93">
         <f t="shared" si="65"/>
@@ -13040,7 +13040,7 @@
       </c>
       <c r="AC61" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSC153A98873CA191220</v>
+        <v>CSAD51EE6B832D39CE39</v>
       </c>
       <c r="AD61" s="91" t="s">
         <v>94</v>
@@ -13050,7 +13050,7 @@
       </c>
       <c r="AI61" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>c153a988-73ca-1912-2017-1ac294bb97e7-061</v>
+        <v>ad51ee6b-832d-39ce-399c-56d6826271ba-061</v>
       </c>
       <c r="AJ61" s="104" t="str">
         <f t="shared" si="67"/>
@@ -13058,7 +13058,7 @@
       </c>
       <c r="AK61" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>c153a988-73ca-1912-2017-1ac294bb97e7-061</v>
+        <v>ad51ee6b-832d-39ce-399c-56d6826271ba-061</v>
       </c>
       <c r="AL61" s="104">
         <f t="shared" si="72"/>
@@ -13113,10 +13113,10 @@
       </c>
       <c r="AZ61" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CSC153A98873CA191220</v>
+        <v>CSAD51EE6B832D39CE39</v>
       </c>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -13151,7 +13151,7 @@
       </c>
       <c r="N62" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>d77b6f92-801e-000c-8918-6e7ad7f55092-062</v>
+        <v>bbd107bb-0c9e-3644-a394-bf65936330b9-062</v>
       </c>
       <c r="O62" s="90" t="str">
         <f t="shared" si="20"/>
@@ -13163,7 +13163,7 @@
       </c>
       <c r="Q62" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>d77b6f92-801e-000c-8918-6e7ad7f55092-062</v>
+        <v>bbd107bb-0c9e-3644-a394-bf65936330b9-062</v>
       </c>
       <c r="R62" s="93">
         <f t="shared" si="65"/>
@@ -13209,7 +13209,7 @@
       </c>
       <c r="AC62" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CSD77B6F92801E000C89</v>
+        <v>CSBBD107BB0C9E3644A3</v>
       </c>
       <c r="AD62" s="91" t="s">
         <v>94</v>
@@ -13219,7 +13219,7 @@
       </c>
       <c r="AI62" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>d77b6f92-801e-000c-8918-6e7ad7f55092-062</v>
+        <v>bbd107bb-0c9e-3644-a394-bf65936330b9-062</v>
       </c>
       <c r="AJ62" s="104" t="str">
         <f t="shared" si="67"/>
@@ -13227,7 +13227,7 @@
       </c>
       <c r="AK62" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>d77b6f92-801e-000c-8918-6e7ad7f55092-062</v>
+        <v>bbd107bb-0c9e-3644-a394-bf65936330b9-062</v>
       </c>
       <c r="AL62" s="104">
         <f t="shared" si="72"/>
@@ -13282,10 +13282,10 @@
       </c>
       <c r="AZ62" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CSD77B6F92801E000C89</v>
+        <v>CSBBD107BB0C9E3644A3</v>
       </c>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -13320,7 +13320,7 @@
       </c>
       <c r="N63" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>0fb3d815-8d6c-86c9-2fc1-af6e2c8a289c-063</v>
+        <v>a66a5adc-6cbc-6317-834f-e992353804ca-063</v>
       </c>
       <c r="O63" s="90" t="str">
         <f t="shared" si="20"/>
@@ -13332,7 +13332,7 @@
       </c>
       <c r="Q63" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>0fb3d815-8d6c-86c9-2fc1-af6e2c8a289c-063</v>
+        <v>a66a5adc-6cbc-6317-834f-e992353804ca-063</v>
       </c>
       <c r="R63" s="93">
         <f t="shared" si="65"/>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="AC63" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS0FB3D8158D6C86C92F</v>
+        <v>CSA66A5ADC6CBC631783</v>
       </c>
       <c r="AD63" s="91" t="s">
         <v>94</v>
@@ -13388,7 +13388,7 @@
       </c>
       <c r="AI63" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>0fb3d815-8d6c-86c9-2fc1-af6e2c8a289c-063</v>
+        <v>a66a5adc-6cbc-6317-834f-e992353804ca-063</v>
       </c>
       <c r="AJ63" s="104" t="str">
         <f t="shared" si="67"/>
@@ -13396,7 +13396,7 @@
       </c>
       <c r="AK63" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>0fb3d815-8d6c-86c9-2fc1-af6e2c8a289c-063</v>
+        <v>a66a5adc-6cbc-6317-834f-e992353804ca-063</v>
       </c>
       <c r="AL63" s="104">
         <f t="shared" si="72"/>
@@ -13451,10 +13451,10 @@
       </c>
       <c r="AZ63" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS0FB3D8158D6C86C92F</v>
+        <v>CSA66A5ADC6CBC631783</v>
       </c>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -13489,7 +13489,7 @@
       </c>
       <c r="N64" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>237ff637-7a7f-2f5b-4a34-d96183908fd6-064</v>
+        <v>068d92d6-9723-3a83-0304-c6c215f98ca2-064</v>
       </c>
       <c r="O64" s="90" t="str">
         <f t="shared" si="20"/>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="Q64" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>237ff637-7a7f-2f5b-4a34-d96183908fd6-064</v>
+        <v>068d92d6-9723-3a83-0304-c6c215f98ca2-064</v>
       </c>
       <c r="R64" s="93">
         <f t="shared" si="65"/>
@@ -13547,7 +13547,7 @@
       </c>
       <c r="AC64" s="90" t="str">
         <f t="shared" ca="1" si="55"/>
-        <v>CS237FF6377A7F2F5B4A</v>
+        <v>CS068D92D697233A8303</v>
       </c>
       <c r="AD64" s="91" t="s">
         <v>94</v>
@@ -13557,7 +13557,7 @@
       </c>
       <c r="AI64" s="103" t="str">
         <f t="shared" ca="1" si="56"/>
-        <v>237ff637-7a7f-2f5b-4a34-d96183908fd6-064</v>
+        <v>068d92d6-9723-3a83-0304-c6c215f98ca2-064</v>
       </c>
       <c r="AJ64" s="103" t="str">
         <f t="shared" si="67"/>
@@ -13565,7 +13565,7 @@
       </c>
       <c r="AK64" s="103" t="str">
         <f t="shared" ca="1" si="68"/>
-        <v>237ff637-7a7f-2f5b-4a34-d96183908fd6-064</v>
+        <v>068d92d6-9723-3a83-0304-c6c215f98ca2-064</v>
       </c>
       <c r="AL64" s="104">
         <f t="shared" si="72"/>
@@ -13620,10 +13620,10 @@
       </c>
       <c r="AZ64" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS237FF6377A7F2F5B4A</v>
+        <v>CS068D92D697233A8303</v>
       </c>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -13658,7 +13658,7 @@
       </c>
       <c r="N65" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>efe21b18-6dff-2977-2c81-cd70c38248af-065</v>
+        <v>f39cf31a-98b9-9c85-2c6d-20bb1e5f54d9-065</v>
       </c>
       <c r="O65" s="90" t="str">
         <f t="shared" si="20"/>
@@ -13670,7 +13670,7 @@
       </c>
       <c r="Q65" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>efe21b18-6dff-2977-2c81-cd70c38248af-065</v>
+        <v>f39cf31a-98b9-9c85-2c6d-20bb1e5f54d9-065</v>
       </c>
       <c r="R65" s="93">
         <f t="shared" si="65"/>
@@ -13716,7 +13716,7 @@
       </c>
       <c r="AC65" s="90" t="str">
         <f t="shared" ref="AC65:AC66" ca="1" si="88">UPPER(LEFT(U65&amp;SUBSTITUTE(N65,"-",""),20))</f>
-        <v>CSEFE21B186DFF29772C</v>
+        <v>CSF39CF31A98B99C852C</v>
       </c>
       <c r="AD65" s="91" t="s">
         <v>94</v>
@@ -13726,7 +13726,7 @@
       </c>
       <c r="AI65" s="103" t="str">
         <f t="shared" ref="AI65:AI66" ca="1" si="89">N65</f>
-        <v>efe21b18-6dff-2977-2c81-cd70c38248af-065</v>
+        <v>f39cf31a-98b9-9c85-2c6d-20bb1e5f54d9-065</v>
       </c>
       <c r="AJ65" s="103" t="str">
         <f t="shared" ref="AJ65:AJ66" si="90">P65</f>
@@ -13734,7 +13734,7 @@
       </c>
       <c r="AK65" s="103" t="str">
         <f t="shared" ref="AK65:AK66" ca="1" si="91">Q65</f>
-        <v>efe21b18-6dff-2977-2c81-cd70c38248af-065</v>
+        <v>f39cf31a-98b9-9c85-2c6d-20bb1e5f54d9-065</v>
       </c>
       <c r="AL65" s="104">
         <f t="shared" si="72"/>
@@ -13789,10 +13789,10 @@
       </c>
       <c r="AZ65" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CSEFE21B186DFF29772C</v>
+        <v>CSF39CF31A98B99C852C</v>
       </c>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="89">
         <v>0.38194444444444442</v>
       </c>
@@ -13827,7 +13827,7 @@
       </c>
       <c r="N66" s="90" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>43730f96-1e2f-49f1-34d7-6da6f95253c7-066</v>
+        <v>b6b6c147-4cc7-88e8-17ac-b68046fb00cc-066</v>
       </c>
       <c r="O66" s="90" t="str">
         <f t="shared" si="20"/>
@@ -13839,7 +13839,7 @@
       </c>
       <c r="Q66" s="93" t="str">
         <f t="shared" ca="1" si="74"/>
-        <v>43730f96-1e2f-49f1-34d7-6da6f95253c7-066</v>
+        <v>b6b6c147-4cc7-88e8-17ac-b68046fb00cc-066</v>
       </c>
       <c r="R66" s="93">
         <f t="shared" si="65"/>
@@ -13885,7 +13885,7 @@
       </c>
       <c r="AC66" s="90" t="str">
         <f t="shared" ca="1" si="88"/>
-        <v>CS43730F961E2F49F134</v>
+        <v>CSB6B6C1474CC788E817</v>
       </c>
       <c r="AD66" s="91" t="s">
         <v>94</v>
@@ -13895,7 +13895,7 @@
       </c>
       <c r="AI66" s="103" t="str">
         <f t="shared" ca="1" si="89"/>
-        <v>43730f96-1e2f-49f1-34d7-6da6f95253c7-066</v>
+        <v>b6b6c147-4cc7-88e8-17ac-b68046fb00cc-066</v>
       </c>
       <c r="AJ66" s="103" t="str">
         <f t="shared" si="90"/>
@@ -13903,7 +13903,7 @@
       </c>
       <c r="AK66" s="103" t="str">
         <f t="shared" ca="1" si="91"/>
-        <v>43730f96-1e2f-49f1-34d7-6da6f95253c7-066</v>
+        <v>b6b6c147-4cc7-88e8-17ac-b68046fb00cc-066</v>
       </c>
       <c r="AL66" s="104">
         <f t="shared" si="72"/>
@@ -13958,14 +13958,14 @@
       </c>
       <c r="AZ66" s="103" t="str">
         <f t="shared" ca="1" si="81"/>
-        <v>CS43730F961E2F49F134</v>
+        <v>CSB6B6C1474CC788E817</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AZ66" xr:uid="{51389D91-EB97-4F74-8A63-F71EC9F04350}">
     <filterColumn colId="2">
       <filters>
-        <filter val="SGD"/>
+        <filter val="USD"/>
       </filters>
     </filterColumn>
     <filterColumn colId="10">
